--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/INVENTARIO ZAVALETA.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/INVENTARIO ZAVALETA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SERVIDOR\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO   2 0 2 2\CENTRAL #04  ABRIL   2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15405" windowHeight="11250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO 02" sheetId="1" r:id="rId1"/>
@@ -1107,7 +1107,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1198,6 +1198,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1259,7 +1265,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1335,12 +1341,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1349,6 +1349,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1360,6 +1394,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFF3300"/>
       <color rgb="FFFF9900"/>
       <color rgb="FF524206"/>
     </mruColors>
@@ -1764,24 +1800,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="A2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
@@ -7625,40 +7661,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G339"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="D334" sqref="D334"/>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="F320" sqref="F320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="37" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="A2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
@@ -7667,13 +7703,13 @@
       <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="49" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7684,14 +7720,14 @@
       <c r="B4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="50">
         <f>1.972+8.38+43</f>
         <v>53.352000000000004</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="51">
         <v>170</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="51">
         <f>C4*D4</f>
         <v>9069.84</v>
       </c>
@@ -7703,14 +7739,14 @@
       <c r="B5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="50">
         <f>4.74+1.77</f>
         <v>6.51</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="51">
         <v>118</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="51">
         <f t="shared" ref="E5:E68" si="0">C5*D5</f>
         <v>768.18</v>
       </c>
@@ -7722,13 +7758,13 @@
       <c r="B6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="50">
         <v>4.54</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="51">
         <v>98</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="51">
         <f t="shared" si="0"/>
         <v>444.92</v>
       </c>
@@ -7740,14 +7776,14 @@
       <c r="B7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="50">
         <f>5.18+5.195</f>
         <v>10.375</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="51">
         <v>116</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="51">
         <f t="shared" si="0"/>
         <v>1203.5</v>
       </c>
@@ -7759,13 +7795,13 @@
       <c r="B8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="50">
         <v>1.68</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="51">
         <v>98</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="51">
         <f t="shared" si="0"/>
         <v>164.64</v>
       </c>
@@ -7777,14 +7813,14 @@
       <c r="B9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="50">
         <f>7.86+3.58+12.17</f>
         <v>23.61</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="51">
         <v>95</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="51">
         <f t="shared" si="0"/>
         <v>2242.9499999999998</v>
       </c>
@@ -7793,16 +7829,16 @@
       <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="35">
+      <c r="C10" s="50">
+        <v>0</v>
+      </c>
+      <c r="D10" s="51">
         <v>400</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7811,16 +7847,16 @@
       <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="35">
+      <c r="C11" s="50">
+        <v>0</v>
+      </c>
+      <c r="D11" s="51">
         <v>400</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7829,16 +7865,16 @@
       <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="35">
+      <c r="C12" s="50">
+        <v>0</v>
+      </c>
+      <c r="D12" s="51">
         <v>400</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7847,16 +7883,16 @@
       <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="35">
+      <c r="C13" s="50">
+        <v>0</v>
+      </c>
+      <c r="D13" s="51">
         <v>400</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7868,13 +7904,13 @@
       <c r="B14" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="12">
-        <v>0</v>
-      </c>
-      <c r="D14" s="35">
+      <c r="C14" s="50">
+        <v>0</v>
+      </c>
+      <c r="D14" s="51">
         <v>2000</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7886,14 +7922,14 @@
       <c r="B15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="50">
         <f>2.248+1</f>
         <v>3.2480000000000002</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="51">
         <v>630</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="51">
         <f t="shared" si="0"/>
         <v>2046.2400000000002</v>
       </c>
@@ -7905,14 +7941,14 @@
       <c r="B16" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="50">
         <f>6.43+1.756</f>
         <v>8.1859999999999999</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="51">
         <v>110</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="51">
         <f t="shared" si="0"/>
         <v>900.46</v>
       </c>
@@ -7924,13 +7960,13 @@
       <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="50">
         <v>6.3</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="51">
         <v>165</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="51">
         <f t="shared" si="0"/>
         <v>1039.5</v>
       </c>
@@ -7942,13 +7978,13 @@
       <c r="B18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="50">
         <v>16</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="51">
         <v>12</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="51">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
@@ -7960,13 +7996,13 @@
       <c r="B19" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="12">
-        <v>0</v>
-      </c>
-      <c r="D19" s="35">
+      <c r="C19" s="50">
+        <v>0</v>
+      </c>
+      <c r="D19" s="51">
         <v>50</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7978,13 +8014,13 @@
       <c r="B20" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="12">
-        <v>0</v>
-      </c>
-      <c r="D20" s="35">
+      <c r="C20" s="50">
+        <v>0</v>
+      </c>
+      <c r="D20" s="51">
         <v>75</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7996,13 +8032,13 @@
       <c r="B21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="12">
-        <v>0</v>
-      </c>
-      <c r="D21" s="35">
+      <c r="C21" s="50">
+        <v>0</v>
+      </c>
+      <c r="D21" s="51">
         <v>46</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8014,13 +8050,13 @@
       <c r="B22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="50">
         <v>7</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="51">
         <v>59</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="51">
         <f t="shared" si="0"/>
         <v>413</v>
       </c>
@@ -8032,13 +8068,13 @@
       <c r="B23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="50">
         <v>2</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="51">
         <v>82</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="51">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
@@ -8050,13 +8086,13 @@
       <c r="B24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="50">
         <v>1</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="51">
         <v>82</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="51">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
@@ -8068,13 +8104,13 @@
       <c r="B25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="50">
         <v>1</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="51">
         <v>66</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="51">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
@@ -8083,16 +8119,16 @@
       <c r="A26" s="31">
         <v>25</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="12">
-        <v>0</v>
-      </c>
-      <c r="D26" s="35">
+      <c r="C26" s="50">
+        <v>0</v>
+      </c>
+      <c r="D26" s="51">
         <v>88</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="51">
         <f>C26*D26</f>
         <v>0</v>
       </c>
@@ -8104,13 +8140,13 @@
       <c r="B27" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C27" s="12">
-        <v>0</v>
-      </c>
-      <c r="D27" s="35">
+      <c r="C27" s="50">
+        <v>0</v>
+      </c>
+      <c r="D27" s="51">
         <v>12</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8119,16 +8155,16 @@
       <c r="A28" s="31">
         <v>28</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="12">
-        <v>0</v>
-      </c>
-      <c r="D28" s="35">
+      <c r="C28" s="50">
+        <v>0</v>
+      </c>
+      <c r="D28" s="51">
         <v>46</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8137,16 +8173,16 @@
       <c r="A29" s="31">
         <v>29</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="12">
-        <v>0</v>
-      </c>
-      <c r="D29" s="35">
+      <c r="C29" s="50">
+        <v>0</v>
+      </c>
+      <c r="D29" s="51">
         <v>42</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8158,13 +8194,13 @@
       <c r="B30" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="50">
         <v>8.34</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="51">
         <v>104</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="51">
         <f t="shared" si="0"/>
         <v>867.36</v>
       </c>
@@ -8176,13 +8212,13 @@
       <c r="B31" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="50">
         <v>3.516</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="51">
         <v>590</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="51">
         <f t="shared" si="0"/>
         <v>2074.44</v>
       </c>
@@ -8194,14 +8230,14 @@
       <c r="B32" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="50">
         <f>5.125+14</f>
         <v>19.125</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="51">
         <v>103</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="51">
         <f t="shared" si="0"/>
         <v>1969.875</v>
       </c>
@@ -8213,13 +8249,13 @@
       <c r="B33" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="50">
         <v>1.4750000000000001</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="51">
         <v>135</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="51">
         <f t="shared" si="0"/>
         <v>199.125</v>
       </c>
@@ -8231,14 +8267,14 @@
       <c r="B34" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="50">
         <f>5.94+2.32</f>
         <v>8.26</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="51">
         <v>315</v>
       </c>
-      <c r="E34" s="40">
+      <c r="E34" s="51">
         <f t="shared" si="0"/>
         <v>2601.9</v>
       </c>
@@ -8250,13 +8286,13 @@
       <c r="B35" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="50">
         <v>9.7200000000000006</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="51">
         <v>160</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="51">
         <f t="shared" si="0"/>
         <v>1555.2</v>
       </c>
@@ -8268,13 +8304,13 @@
       <c r="B36" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="50">
         <v>2.44</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="51">
         <v>112</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="51">
         <f t="shared" si="0"/>
         <v>273.27999999999997</v>
       </c>
@@ -8286,13 +8322,13 @@
       <c r="B37" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="50">
         <v>3</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="51">
         <v>26</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="51">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
@@ -8304,13 +8340,13 @@
       <c r="B38" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="12">
-        <v>0</v>
-      </c>
-      <c r="D38" s="35">
+      <c r="C38" s="50">
+        <v>0</v>
+      </c>
+      <c r="D38" s="51">
         <v>160</v>
       </c>
-      <c r="E38" s="40">
+      <c r="E38" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8322,13 +8358,13 @@
       <c r="B39" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="50">
         <v>8.9700000000000006</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="51">
         <v>70</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="51">
         <f t="shared" si="0"/>
         <v>627.90000000000009</v>
       </c>
@@ -8340,14 +8376,14 @@
       <c r="B40" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="50">
         <f>9.63+55.8</f>
         <v>65.429999999999993</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="51">
         <v>140</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="51">
         <f t="shared" si="0"/>
         <v>9160.1999999999989</v>
       </c>
@@ -8359,13 +8395,13 @@
       <c r="B41" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="50">
         <v>9.23</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="51">
         <v>50</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="51">
         <f t="shared" si="0"/>
         <v>461.5</v>
       </c>
@@ -8377,14 +8413,14 @@
       <c r="B42" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="50">
         <f>5.755+1.96</f>
         <v>7.7149999999999999</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="51">
         <v>590</v>
       </c>
-      <c r="E42" s="40">
+      <c r="E42" s="51">
         <f t="shared" si="0"/>
         <v>4551.8500000000004</v>
       </c>
@@ -8396,13 +8432,13 @@
       <c r="B43" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="50">
         <v>5.77</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="51">
         <v>90</v>
       </c>
-      <c r="E43" s="40">
+      <c r="E43" s="51">
         <f t="shared" si="0"/>
         <v>519.29999999999995</v>
       </c>
@@ -8414,12 +8450,12 @@
       <c r="B44" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="15">
         <f>SUM(C8:C43)</f>
         <v>223.01500000000001</v>
       </c>
       <c r="D44" s="15"/>
-      <c r="E44" s="37">
+      <c r="E44" s="36">
         <f>SUM(E4:E43)</f>
         <v>43737.16</v>
       </c>
@@ -8431,13 +8467,13 @@
       <c r="B45" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="60" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8448,13 +8484,13 @@
       <c r="B46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="50">
         <v>6</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="51">
         <v>165</v>
       </c>
-      <c r="E46" s="40">
+      <c r="E46" s="51">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
@@ -8466,14 +8502,14 @@
       <c r="B47" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="50">
         <f>3.612+775+18.5+2.8+2.1+4.1+1988.6</f>
         <v>2794.712</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="51">
         <v>125</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="51">
         <f t="shared" si="0"/>
         <v>349339</v>
       </c>
@@ -8485,14 +8521,14 @@
       <c r="B48" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="50">
         <f>0.72+4.57+8.1</f>
         <v>13.39</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="51">
         <v>92</v>
       </c>
-      <c r="E48" s="40">
+      <c r="E48" s="51">
         <f t="shared" si="0"/>
         <v>1231.8800000000001</v>
       </c>
@@ -8504,14 +8540,14 @@
       <c r="B49" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="50">
         <f>0.458+4.7+10.05</f>
         <v>15.208000000000002</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="51">
         <v>92</v>
       </c>
-      <c r="E49" s="40">
+      <c r="E49" s="51">
         <f t="shared" si="0"/>
         <v>1399.1360000000002</v>
       </c>
@@ -8523,14 +8559,14 @@
       <c r="B50" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="50">
         <f>9.022+28.1</f>
         <v>37.122</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="51">
         <v>214</v>
       </c>
-      <c r="E50" s="40">
+      <c r="E50" s="51">
         <f t="shared" si="0"/>
         <v>7944.1080000000002</v>
       </c>
@@ -8542,14 +8578,14 @@
       <c r="B51" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="50">
         <f>20.6+12.72+12.69</f>
         <v>46.01</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="51">
         <v>100</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="51">
         <f t="shared" si="0"/>
         <v>4601</v>
       </c>
@@ -8561,13 +8597,13 @@
       <c r="B52" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="50">
         <v>11.46</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="51">
         <v>82</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="51">
         <f t="shared" si="0"/>
         <v>939.72</v>
       </c>
@@ -8579,14 +8615,14 @@
       <c r="B53" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="50">
         <f>33+69+5.38</f>
         <v>107.38</v>
       </c>
-      <c r="D53" s="35">
+      <c r="D53" s="51">
         <v>110</v>
       </c>
-      <c r="E53" s="40">
+      <c r="E53" s="51">
         <f t="shared" si="0"/>
         <v>11811.8</v>
       </c>
@@ -8598,14 +8634,14 @@
       <c r="B54" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="50">
         <f>9+4.56+10.33+10.38</f>
         <v>34.270000000000003</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="51">
         <v>175</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="51">
         <f t="shared" si="0"/>
         <v>5997.2500000000009</v>
       </c>
@@ -8617,13 +8653,13 @@
       <c r="B55" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="50">
         <v>1.8120000000000001</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="51">
         <v>140</v>
       </c>
-      <c r="E55" s="40">
+      <c r="E55" s="51">
         <f t="shared" si="0"/>
         <v>253.68</v>
       </c>
@@ -8635,14 +8671,14 @@
       <c r="B56" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="50">
         <f>5.298+1.076+24.1+6.5+9.43+12.78+90</f>
         <v>149.184</v>
       </c>
-      <c r="D56" s="35">
+      <c r="D56" s="51">
         <v>74</v>
       </c>
-      <c r="E56" s="40">
+      <c r="E56" s="51">
         <f t="shared" si="0"/>
         <v>11039.616</v>
       </c>
@@ -8654,14 +8690,14 @@
       <c r="B57" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="50">
         <f>9.695+27.8+28.7+27</f>
         <v>93.195000000000007</v>
       </c>
-      <c r="D57" s="35">
+      <c r="D57" s="51">
         <v>58</v>
       </c>
-      <c r="E57" s="40">
+      <c r="E57" s="51">
         <f t="shared" si="0"/>
         <v>5405.31</v>
       </c>
@@ -8673,14 +8709,14 @@
       <c r="B58" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="50">
         <f>2.894+4.46+29.3+28.2+14.8</f>
         <v>79.653999999999996</v>
       </c>
-      <c r="D58" s="35">
+      <c r="D58" s="51">
         <v>58</v>
       </c>
-      <c r="E58" s="40">
+      <c r="E58" s="51">
         <f t="shared" si="0"/>
         <v>4619.9319999999998</v>
       </c>
@@ -8692,14 +8728,14 @@
       <c r="B59" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="50">
         <f>8.07+2.58+53.6+15.8+3.5</f>
         <v>83.55</v>
       </c>
-      <c r="D59" s="35">
+      <c r="D59" s="51">
         <v>80</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E59" s="51">
         <f t="shared" si="0"/>
         <v>6684</v>
       </c>
@@ -8711,14 +8747,14 @@
       <c r="B60" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="50">
         <f>3+1</f>
         <v>4</v>
       </c>
-      <c r="D60" s="35">
+      <c r="D60" s="51">
         <v>59</v>
       </c>
-      <c r="E60" s="40">
+      <c r="E60" s="51">
         <f t="shared" si="0"/>
         <v>236</v>
       </c>
@@ -8730,13 +8766,13 @@
       <c r="B61" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="50">
         <v>5</v>
       </c>
-      <c r="D61" s="35">
+      <c r="D61" s="51">
         <v>62</v>
       </c>
-      <c r="E61" s="40">
+      <c r="E61" s="51">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
@@ -8748,13 +8784,13 @@
       <c r="B62" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="50">
         <v>2</v>
       </c>
-      <c r="D62" s="35">
+      <c r="D62" s="51">
         <v>61</v>
       </c>
-      <c r="E62" s="40">
+      <c r="E62" s="51">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
@@ -8766,13 +8802,13 @@
       <c r="B63" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="50">
         <v>2</v>
       </c>
-      <c r="D63" s="35">
+      <c r="D63" s="51">
         <v>40</v>
       </c>
-      <c r="E63" s="40">
+      <c r="E63" s="51">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -8784,13 +8820,13 @@
       <c r="B64" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="50">
         <v>8</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="51">
         <v>20</v>
       </c>
-      <c r="E64" s="40">
+      <c r="E64" s="51">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
@@ -8802,13 +8838,13 @@
       <c r="B65" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="50">
         <v>5</v>
       </c>
-      <c r="D65" s="35">
+      <c r="D65" s="51">
         <v>29</v>
       </c>
-      <c r="E65" s="40">
+      <c r="E65" s="51">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
@@ -8820,13 +8856,13 @@
       <c r="B66" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="50">
         <v>30</v>
       </c>
-      <c r="D66" s="35">
+      <c r="D66" s="51">
         <v>60</v>
       </c>
-      <c r="E66" s="40">
+      <c r="E66" s="51">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
@@ -8838,14 +8874,14 @@
       <c r="B67" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="50">
         <f>7.21+5.18+0.25+0.535+0.58+1.5+1.47</f>
         <v>16.725000000000001</v>
       </c>
-      <c r="D67" s="35">
+      <c r="D67" s="51">
         <v>210</v>
       </c>
-      <c r="E67" s="40">
+      <c r="E67" s="51">
         <f t="shared" si="0"/>
         <v>3512.2500000000005</v>
       </c>
@@ -8857,13 +8893,13 @@
       <c r="B68" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="50">
         <v>2</v>
       </c>
-      <c r="D68" s="35">
+      <c r="D68" s="51">
         <v>85</v>
       </c>
-      <c r="E68" s="40">
+      <c r="E68" s="51">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -8875,13 +8911,13 @@
       <c r="B69" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="12">
-        <v>0</v>
-      </c>
-      <c r="D69" s="35">
+      <c r="C69" s="50">
+        <v>0</v>
+      </c>
+      <c r="D69" s="51">
         <v>95</v>
       </c>
-      <c r="E69" s="40">
+      <c r="E69" s="51">
         <f t="shared" ref="E69:E132" si="1">C69*D69</f>
         <v>0</v>
       </c>
@@ -8893,13 +8929,13 @@
       <c r="B70" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="50">
         <v>3</v>
       </c>
-      <c r="D70" s="35">
+      <c r="D70" s="51">
         <v>46</v>
       </c>
-      <c r="E70" s="40">
+      <c r="E70" s="51">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
@@ -8911,14 +8947,14 @@
       <c r="B71" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="50">
         <f>1.5+15.1+2.16</f>
         <v>18.760000000000002</v>
       </c>
-      <c r="D71" s="35">
+      <c r="D71" s="51">
         <v>113</v>
       </c>
-      <c r="E71" s="40">
+      <c r="E71" s="51">
         <f t="shared" si="1"/>
         <v>2119.88</v>
       </c>
@@ -8930,14 +8966,14 @@
       <c r="B72" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="50">
         <f>51.1+43.01+12.8+5.48</f>
         <v>112.39</v>
       </c>
-      <c r="D72" s="35">
+      <c r="D72" s="51">
         <v>84</v>
       </c>
-      <c r="E72" s="40">
+      <c r="E72" s="51">
         <f t="shared" si="1"/>
         <v>9440.76</v>
       </c>
@@ -8949,13 +8985,13 @@
       <c r="B73" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="50">
         <v>5</v>
       </c>
-      <c r="D73" s="35">
+      <c r="D73" s="51">
         <v>69</v>
       </c>
-      <c r="E73" s="40">
+      <c r="E73" s="51">
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
@@ -8967,13 +9003,13 @@
       <c r="B74" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="50">
         <v>15</v>
       </c>
-      <c r="D74" s="35">
+      <c r="D74" s="51">
         <v>26</v>
       </c>
-      <c r="E74" s="40">
+      <c r="E74" s="51">
         <f t="shared" si="1"/>
         <v>390</v>
       </c>
@@ -8985,13 +9021,13 @@
       <c r="B75" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="50">
         <v>1.39</v>
       </c>
-      <c r="D75" s="35">
+      <c r="D75" s="51">
         <v>280</v>
       </c>
-      <c r="E75" s="40">
+      <c r="E75" s="51">
         <f t="shared" si="1"/>
         <v>389.2</v>
       </c>
@@ -9003,13 +9039,13 @@
       <c r="B76" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="50">
         <v>72</v>
       </c>
-      <c r="D76" s="35">
+      <c r="D76" s="51">
         <v>26</v>
       </c>
-      <c r="E76" s="40">
+      <c r="E76" s="51">
         <f t="shared" si="1"/>
         <v>1872</v>
       </c>
@@ -9021,13 +9057,13 @@
       <c r="B77" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="50">
         <v>10</v>
       </c>
-      <c r="D77" s="35">
+      <c r="D77" s="51">
         <v>50</v>
       </c>
-      <c r="E77" s="40">
+      <c r="E77" s="51">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
@@ -9039,13 +9075,13 @@
       <c r="B78" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="50">
         <v>10</v>
       </c>
-      <c r="D78" s="35">
+      <c r="D78" s="51">
         <v>68</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="51">
         <f t="shared" si="1"/>
         <v>680</v>
       </c>
@@ -9057,13 +9093,13 @@
       <c r="B79" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="50">
         <v>21</v>
       </c>
-      <c r="D79" s="35">
+      <c r="D79" s="51">
         <v>12</v>
       </c>
-      <c r="E79" s="40">
+      <c r="E79" s="51">
         <f t="shared" si="1"/>
         <v>252</v>
       </c>
@@ -9072,16 +9108,16 @@
       <c r="A80" s="34">
         <v>90</v>
       </c>
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C80" s="12">
-        <v>0</v>
-      </c>
-      <c r="D80" s="35">
+      <c r="C80" s="50">
+        <v>0</v>
+      </c>
+      <c r="D80" s="51">
         <v>28</v>
       </c>
-      <c r="E80" s="40">
+      <c r="E80" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9093,14 +9129,14 @@
       <c r="B81" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="50">
         <f>1+10</f>
         <v>11</v>
       </c>
-      <c r="D81" s="35">
+      <c r="D81" s="51">
         <v>110</v>
       </c>
-      <c r="E81" s="40">
+      <c r="E81" s="51">
         <f t="shared" si="1"/>
         <v>1210</v>
       </c>
@@ -9112,14 +9148,14 @@
       <c r="B82" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="50">
         <f>19.8+90</f>
         <v>109.8</v>
       </c>
-      <c r="D82" s="35">
+      <c r="D82" s="51">
         <v>45</v>
       </c>
-      <c r="E82" s="40">
+      <c r="E82" s="51">
         <f t="shared" si="1"/>
         <v>4941</v>
       </c>
@@ -9131,13 +9167,13 @@
       <c r="B83" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="50">
         <v>2</v>
       </c>
-      <c r="D83" s="35">
+      <c r="D83" s="51">
         <v>75</v>
       </c>
-      <c r="E83" s="40">
+      <c r="E83" s="51">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
@@ -9149,13 +9185,13 @@
       <c r="B84" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="50">
         <v>5</v>
       </c>
-      <c r="D84" s="35">
+      <c r="D84" s="51">
         <v>75</v>
       </c>
-      <c r="E84" s="40">
+      <c r="E84" s="51">
         <f t="shared" si="1"/>
         <v>375</v>
       </c>
@@ -9167,13 +9203,13 @@
       <c r="B85" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="50">
         <v>7.5</v>
       </c>
-      <c r="D85" s="35">
+      <c r="D85" s="51">
         <v>60</v>
       </c>
-      <c r="E85" s="40">
+      <c r="E85" s="51">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
@@ -9185,13 +9221,13 @@
       <c r="B86" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="50">
         <v>26</v>
       </c>
-      <c r="D86" s="35">
+      <c r="D86" s="51">
         <v>19</v>
       </c>
-      <c r="E86" s="40">
+      <c r="E86" s="51">
         <f t="shared" si="1"/>
         <v>494</v>
       </c>
@@ -9203,13 +9239,13 @@
       <c r="B87" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87" s="50">
         <v>50</v>
       </c>
-      <c r="D87" s="35">
+      <c r="D87" s="51">
         <v>20</v>
       </c>
-      <c r="E87" s="40">
+      <c r="E87" s="51">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
@@ -9221,13 +9257,13 @@
       <c r="B88" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="50">
         <v>49</v>
       </c>
-      <c r="D88" s="35">
+      <c r="D88" s="51">
         <v>22</v>
       </c>
-      <c r="E88" s="40">
+      <c r="E88" s="51">
         <f t="shared" si="1"/>
         <v>1078</v>
       </c>
@@ -9237,12 +9273,12 @@
       <c r="B89" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="23">
+      <c r="C89" s="15">
         <f>SUM(C53:C88)</f>
         <v>1152.6099999999999</v>
       </c>
       <c r="D89" s="36"/>
-      <c r="E89" s="37">
+      <c r="E89" s="36">
         <f>SUM(E46:E88)</f>
         <v>444616.52199999994</v>
       </c>
@@ -9252,13 +9288,13 @@
       <c r="B90" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="20" t="s">
+      <c r="D90" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="21" t="s">
+      <c r="E90" s="60" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9269,13 +9305,13 @@
       <c r="B91" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="50">
         <v>21</v>
       </c>
-      <c r="D91" s="35">
+      <c r="D91" s="51">
         <v>24</v>
       </c>
-      <c r="E91" s="40">
+      <c r="E91" s="51">
         <f t="shared" si="1"/>
         <v>504</v>
       </c>
@@ -9287,13 +9323,13 @@
       <c r="B92" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="50">
         <v>36</v>
       </c>
-      <c r="D92" s="35">
+      <c r="D92" s="51">
         <v>17</v>
       </c>
-      <c r="E92" s="40">
+      <c r="E92" s="51">
         <f t="shared" si="1"/>
         <v>612</v>
       </c>
@@ -9305,13 +9341,13 @@
       <c r="B93" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="52">
         <v>19</v>
       </c>
-      <c r="D93" s="35">
+      <c r="D93" s="51">
         <v>14</v>
       </c>
-      <c r="E93" s="40">
+      <c r="E93" s="51">
         <f t="shared" si="1"/>
         <v>266</v>
       </c>
@@ -9323,13 +9359,13 @@
       <c r="B94" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C94" s="12">
-        <v>0</v>
-      </c>
-      <c r="D94" s="35">
+      <c r="C94" s="50">
+        <v>0</v>
+      </c>
+      <c r="D94" s="51">
         <v>54</v>
       </c>
-      <c r="E94" s="40">
+      <c r="E94" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9341,13 +9377,13 @@
       <c r="B95" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C95" s="12">
+      <c r="C95" s="50">
         <v>1</v>
       </c>
-      <c r="D95" s="35">
+      <c r="D95" s="51">
         <v>125</v>
       </c>
-      <c r="E95" s="40">
+      <c r="E95" s="51">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
@@ -9359,14 +9395,14 @@
       <c r="B96" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C96" s="12">
+      <c r="C96" s="50">
         <f>1.688+0.276</f>
         <v>1.964</v>
       </c>
-      <c r="D96" s="35">
+      <c r="D96" s="51">
         <v>60</v>
       </c>
-      <c r="E96" s="40">
+      <c r="E96" s="51">
         <f t="shared" si="1"/>
         <v>117.84</v>
       </c>
@@ -9378,13 +9414,13 @@
       <c r="B97" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C97" s="12">
-        <v>0</v>
-      </c>
-      <c r="D97" s="35">
+      <c r="C97" s="50">
+        <v>0</v>
+      </c>
+      <c r="D97" s="51">
         <v>45</v>
       </c>
-      <c r="E97" s="40">
+      <c r="E97" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9396,14 +9432,14 @@
       <c r="B98" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C98" s="12">
+      <c r="C98" s="50">
         <f>9+10.12</f>
         <v>19.119999999999997</v>
       </c>
-      <c r="D98" s="35">
+      <c r="D98" s="51">
         <v>88</v>
       </c>
-      <c r="E98" s="40">
+      <c r="E98" s="51">
         <f t="shared" si="1"/>
         <v>1682.5599999999997</v>
       </c>
@@ -9415,14 +9451,14 @@
       <c r="B99" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C99" s="12">
+      <c r="C99" s="50">
         <f>7.3+12.14+2.048</f>
         <v>21.488</v>
       </c>
-      <c r="D99" s="35">
+      <c r="D99" s="51">
         <v>98</v>
       </c>
-      <c r="E99" s="40">
+      <c r="E99" s="51">
         <f t="shared" si="1"/>
         <v>2105.8240000000001</v>
       </c>
@@ -9434,14 +9470,14 @@
       <c r="B100" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C100" s="12">
+      <c r="C100" s="50">
         <f>1.4+14.3</f>
         <v>15.700000000000001</v>
       </c>
-      <c r="D100" s="35">
+      <c r="D100" s="51">
         <v>80</v>
       </c>
-      <c r="E100" s="40">
+      <c r="E100" s="51">
         <f t="shared" si="1"/>
         <v>1256</v>
       </c>
@@ -9453,14 +9489,14 @@
       <c r="B101" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C101" s="12">
+      <c r="C101" s="50">
         <f>3.612+0.265+6.9+9.8</f>
         <v>20.577000000000002</v>
       </c>
-      <c r="D101" s="35">
+      <c r="D101" s="51">
         <v>94</v>
       </c>
-      <c r="E101" s="40">
+      <c r="E101" s="51">
         <f t="shared" si="1"/>
         <v>1934.2380000000001</v>
       </c>
@@ -9472,14 +9508,14 @@
       <c r="B102" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C102" s="12">
+      <c r="C102" s="50">
         <f>4+2.23</f>
         <v>6.23</v>
       </c>
-      <c r="D102" s="35">
+      <c r="D102" s="51">
         <v>60</v>
       </c>
-      <c r="E102" s="40">
+      <c r="E102" s="51">
         <f t="shared" si="1"/>
         <v>373.8</v>
       </c>
@@ -9491,14 +9527,14 @@
       <c r="B103" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C103" s="12">
+      <c r="C103" s="50">
         <f>11.3-3.9+12.52-2.2</f>
         <v>17.720000000000002</v>
       </c>
-      <c r="D103" s="35">
+      <c r="D103" s="51">
         <v>80</v>
       </c>
-      <c r="E103" s="40">
+      <c r="E103" s="51">
         <f t="shared" si="1"/>
         <v>1417.6000000000001</v>
       </c>
@@ -9510,14 +9546,14 @@
       <c r="B104" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C104" s="12">
+      <c r="C104" s="50">
         <f>1.4+2.94+538.1+91.5+627.5</f>
         <v>1261.44</v>
       </c>
-      <c r="D104" s="35">
+      <c r="D104" s="51">
         <v>36</v>
       </c>
-      <c r="E104" s="40">
+      <c r="E104" s="51">
         <f t="shared" si="1"/>
         <v>45411.840000000004</v>
       </c>
@@ -9529,14 +9565,14 @@
       <c r="B105" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C105" s="12">
+      <c r="C105" s="50">
         <f>9.14-3.9+7.26</f>
         <v>12.5</v>
       </c>
-      <c r="D105" s="35">
+      <c r="D105" s="51">
         <v>74</v>
       </c>
-      <c r="E105" s="40">
+      <c r="E105" s="51">
         <f t="shared" si="1"/>
         <v>925</v>
       </c>
@@ -9548,14 +9584,14 @@
       <c r="B106" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C106" s="12">
+      <c r="C106" s="50">
         <f>1.16+2.16</f>
         <v>3.3200000000000003</v>
       </c>
-      <c r="D106" s="35">
+      <c r="D106" s="51">
         <v>98</v>
       </c>
-      <c r="E106" s="40">
+      <c r="E106" s="51">
         <f t="shared" si="1"/>
         <v>325.36</v>
       </c>
@@ -9567,14 +9603,14 @@
       <c r="B107" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C107" s="12">
+      <c r="C107" s="50">
         <f>10.24-3.9+9.16+24.6+59.2</f>
         <v>99.300000000000011</v>
       </c>
-      <c r="D107" s="35">
+      <c r="D107" s="51">
         <v>96</v>
       </c>
-      <c r="E107" s="40">
+      <c r="E107" s="51">
         <f t="shared" si="1"/>
         <v>9532.8000000000011</v>
       </c>
@@ -9586,14 +9622,14 @@
       <c r="B108" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C108" s="12">
+      <c r="C108" s="50">
         <f>70.4+11.48</f>
         <v>81.88000000000001</v>
       </c>
-      <c r="D108" s="35">
+      <c r="D108" s="51">
         <v>90</v>
       </c>
-      <c r="E108" s="40">
+      <c r="E108" s="51">
         <f t="shared" si="1"/>
         <v>7369.2000000000007</v>
       </c>
@@ -9605,13 +9641,13 @@
       <c r="B109" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C109" s="12">
+      <c r="C109" s="50">
         <v>5</v>
       </c>
-      <c r="D109" s="35">
+      <c r="D109" s="51">
         <v>108</v>
       </c>
-      <c r="E109" s="40">
+      <c r="E109" s="51">
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
@@ -9623,14 +9659,14 @@
       <c r="B110" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="50">
         <f>9.46-3.9+3.78+30.4+382</f>
         <v>421.74</v>
       </c>
-      <c r="D110" s="35">
+      <c r="D110" s="51">
         <v>10</v>
       </c>
-      <c r="E110" s="40">
+      <c r="E110" s="51">
         <f t="shared" si="1"/>
         <v>4217.3999999999996</v>
       </c>
@@ -9642,14 +9678,14 @@
       <c r="B111" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C111" s="12">
+      <c r="C111" s="50">
         <f>4.48+14.22-2.2+36.6</f>
         <v>53.100000000000009</v>
       </c>
-      <c r="D111" s="35">
+      <c r="D111" s="51">
         <v>58</v>
       </c>
-      <c r="E111" s="40">
+      <c r="E111" s="51">
         <f t="shared" si="1"/>
         <v>3079.8000000000006</v>
       </c>
@@ -9661,14 +9697,14 @@
       <c r="B112" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="50">
         <f>3.22+63.56</f>
         <v>66.78</v>
       </c>
-      <c r="D112" s="35">
+      <c r="D112" s="51">
         <v>280</v>
       </c>
-      <c r="E112" s="40">
+      <c r="E112" s="51">
         <f t="shared" si="1"/>
         <v>18698.400000000001</v>
       </c>
@@ -9680,13 +9716,13 @@
       <c r="B113" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="50">
         <v>61.2</v>
       </c>
-      <c r="D113" s="35">
+      <c r="D113" s="51">
         <v>64</v>
       </c>
-      <c r="E113" s="40">
+      <c r="E113" s="51">
         <f t="shared" si="1"/>
         <v>3916.8</v>
       </c>
@@ -9698,14 +9734,14 @@
       <c r="B114" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C114" s="12">
+      <c r="C114" s="50">
         <f>26.3+1+4.99</f>
         <v>32.29</v>
       </c>
-      <c r="D114" s="35">
+      <c r="D114" s="51">
         <v>74</v>
       </c>
-      <c r="E114" s="40">
+      <c r="E114" s="51">
         <f t="shared" si="1"/>
         <v>2389.46</v>
       </c>
@@ -9717,14 +9753,14 @@
       <c r="B115" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C115" s="12">
+      <c r="C115" s="50">
         <f>7.12+64.5+15.3+92.8+79.2+9.3+36.4</f>
         <v>304.62</v>
       </c>
-      <c r="D115" s="35">
+      <c r="D115" s="51">
         <v>110</v>
       </c>
-      <c r="E115" s="40">
+      <c r="E115" s="51">
         <f t="shared" si="1"/>
         <v>33508.199999999997</v>
       </c>
@@ -9733,16 +9769,16 @@
       <c r="A116" s="34">
         <v>124</v>
       </c>
-      <c r="B116" s="45" t="s">
+      <c r="B116" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="C116" s="12">
-        <v>0</v>
-      </c>
-      <c r="D116" s="35">
+      <c r="C116" s="50">
+        <v>0</v>
+      </c>
+      <c r="D116" s="51">
         <v>182</v>
       </c>
-      <c r="E116" s="40">
+      <c r="E116" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9754,14 +9790,14 @@
       <c r="B117" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C117" s="12">
+      <c r="C117" s="50">
         <f>20.16-3.9+16.02-3.9+12.68-3.9+6.8+10.3</f>
         <v>54.260000000000005</v>
       </c>
-      <c r="D117" s="35">
+      <c r="D117" s="51">
         <v>74</v>
       </c>
-      <c r="E117" s="40">
+      <c r="E117" s="51">
         <f t="shared" si="1"/>
         <v>4015.2400000000002</v>
       </c>
@@ -9773,14 +9809,14 @@
       <c r="B118" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C118" s="12">
+      <c r="C118" s="50">
         <f>10.07-2.2</f>
         <v>7.87</v>
       </c>
-      <c r="D118" s="35">
+      <c r="D118" s="51">
         <v>210</v>
       </c>
-      <c r="E118" s="40">
+      <c r="E118" s="51">
         <f t="shared" si="1"/>
         <v>1652.7</v>
       </c>
@@ -9792,13 +9828,13 @@
       <c r="B119" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C119" s="12">
-        <v>0</v>
-      </c>
-      <c r="D119" s="35">
+      <c r="C119" s="50">
+        <v>0</v>
+      </c>
+      <c r="D119" s="51">
         <v>182</v>
       </c>
-      <c r="E119" s="40">
+      <c r="E119" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9810,13 +9846,13 @@
       <c r="B120" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C120" s="12">
+      <c r="C120" s="50">
         <v>13.8</v>
       </c>
-      <c r="D120" s="35">
+      <c r="D120" s="51">
         <v>42</v>
       </c>
-      <c r="E120" s="40">
+      <c r="E120" s="51">
         <f t="shared" si="1"/>
         <v>579.6</v>
       </c>
@@ -9828,14 +9864,14 @@
       <c r="B121" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C121" s="12">
+      <c r="C121" s="50">
         <f>1.48+25.4</f>
         <v>26.88</v>
       </c>
-      <c r="D121" s="35">
+      <c r="D121" s="51">
         <v>75</v>
       </c>
-      <c r="E121" s="40">
+      <c r="E121" s="51">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
@@ -9847,14 +9883,14 @@
       <c r="B122" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C122" s="12">
+      <c r="C122" s="50">
         <f>6.06-3.9</f>
         <v>2.1599999999999997</v>
       </c>
-      <c r="D122" s="35">
+      <c r="D122" s="51">
         <v>78</v>
       </c>
-      <c r="E122" s="40">
+      <c r="E122" s="51">
         <f t="shared" si="1"/>
         <v>168.48</v>
       </c>
@@ -9866,14 +9902,14 @@
       <c r="B123" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C123" s="12">
+      <c r="C123" s="50">
         <f>12.06-3.9+12.1+13.8</f>
         <v>34.06</v>
       </c>
-      <c r="D123" s="35">
+      <c r="D123" s="51">
         <v>120</v>
       </c>
-      <c r="E123" s="40">
+      <c r="E123" s="51">
         <f t="shared" si="1"/>
         <v>4087.2000000000003</v>
       </c>
@@ -9885,13 +9921,13 @@
       <c r="B124" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C124" s="12">
-        <v>0</v>
-      </c>
-      <c r="D124" s="35">
+      <c r="C124" s="50">
+        <v>0</v>
+      </c>
+      <c r="D124" s="51">
         <v>120</v>
       </c>
-      <c r="E124" s="40">
+      <c r="E124" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9903,14 +9939,14 @@
       <c r="B125" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C125" s="12">
+      <c r="C125" s="50">
         <f>6-3.9</f>
         <v>2.1</v>
       </c>
-      <c r="D125" s="35">
+      <c r="D125" s="51">
         <v>173</v>
       </c>
-      <c r="E125" s="40">
+      <c r="E125" s="51">
         <f t="shared" si="1"/>
         <v>363.3</v>
       </c>
@@ -9922,14 +9958,14 @@
       <c r="B126" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C126" s="12">
+      <c r="C126" s="50">
         <f>0.86+1.32+9.32+6.8+22.6+4.8+53+101.3</f>
         <v>200</v>
       </c>
-      <c r="D126" s="35">
+      <c r="D126" s="51">
         <v>116</v>
       </c>
-      <c r="E126" s="40">
+      <c r="E126" s="51">
         <f t="shared" si="1"/>
         <v>23200</v>
       </c>
@@ -9941,14 +9977,14 @@
       <c r="B127" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C127" s="12">
+      <c r="C127" s="50">
         <f>3.3+82+49.4</f>
         <v>134.69999999999999</v>
       </c>
-      <c r="D127" s="35">
+      <c r="D127" s="51">
         <v>86</v>
       </c>
-      <c r="E127" s="40">
+      <c r="E127" s="51">
         <f t="shared" si="1"/>
         <v>11584.199999999999</v>
       </c>
@@ -9960,14 +9996,14 @@
       <c r="B128" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C128" s="12">
+      <c r="C128" s="50">
         <f>2.22+19.8</f>
         <v>22.02</v>
       </c>
-      <c r="D128" s="35">
+      <c r="D128" s="51">
         <v>48</v>
       </c>
-      <c r="E128" s="40">
+      <c r="E128" s="51">
         <f t="shared" si="1"/>
         <v>1056.96</v>
       </c>
@@ -9979,14 +10015,14 @@
       <c r="B129" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C129" s="12">
+      <c r="C129" s="50">
         <f>41.5+0.69+14.84+9.72+1.26+34.54+10.1+60.7+44.4+27.4+183.7+19.5+389.4</f>
         <v>837.75</v>
       </c>
-      <c r="D129" s="35">
+      <c r="D129" s="51">
         <v>184</v>
       </c>
-      <c r="E129" s="40">
+      <c r="E129" s="51">
         <f t="shared" si="1"/>
         <v>154146</v>
       </c>
@@ -9998,14 +10034,14 @@
       <c r="B130" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C130" s="12">
+      <c r="C130" s="50">
         <f>15.3+89.3</f>
         <v>104.6</v>
       </c>
-      <c r="D130" s="35">
+      <c r="D130" s="51">
         <v>177</v>
       </c>
-      <c r="E130" s="40">
+      <c r="E130" s="51">
         <f t="shared" si="1"/>
         <v>18514.2</v>
       </c>
@@ -10017,14 +10053,14 @@
       <c r="B131" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C131" s="12">
+      <c r="C131" s="50">
         <f>8.16-3.9+11.16+10.46</f>
         <v>25.880000000000003</v>
       </c>
-      <c r="D131" s="35">
+      <c r="D131" s="51">
         <v>187</v>
       </c>
-      <c r="E131" s="40">
+      <c r="E131" s="51">
         <f t="shared" si="1"/>
         <v>4839.5600000000004</v>
       </c>
@@ -10033,16 +10069,16 @@
       <c r="A132" s="34">
         <v>140</v>
       </c>
-      <c r="B132" s="45" t="s">
+      <c r="B132" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="C132" s="12">
-        <v>0</v>
-      </c>
-      <c r="D132" s="35">
+      <c r="C132" s="50">
+        <v>0</v>
+      </c>
+      <c r="D132" s="51">
         <v>182</v>
       </c>
-      <c r="E132" s="40">
+      <c r="E132" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10051,16 +10087,16 @@
       <c r="A133" s="34">
         <v>141</v>
       </c>
-      <c r="B133" s="45" t="s">
+      <c r="B133" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="C133" s="12">
-        <v>0</v>
-      </c>
-      <c r="D133" s="35">
+      <c r="C133" s="50">
+        <v>0</v>
+      </c>
+      <c r="D133" s="51">
         <v>182</v>
       </c>
-      <c r="E133" s="40">
+      <c r="E133" s="51">
         <f t="shared" ref="E133" si="2">C133*D133</f>
         <v>0</v>
       </c>
@@ -10070,12 +10106,12 @@
       <c r="B134" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C134" s="23">
+      <c r="C134" s="15">
         <f>SUM(C89:C132)</f>
         <v>5201.6590000000015</v>
       </c>
       <c r="D134" s="38"/>
-      <c r="E134" s="37">
+      <c r="E134" s="36">
         <f>SUM(E91:E133)</f>
         <v>366532.56200000003</v>
       </c>
@@ -10085,13 +10121,13 @@
       <c r="B135" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C135" s="20" t="s">
+      <c r="C135" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D135" s="20" t="s">
+      <c r="D135" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E135" s="21" t="s">
+      <c r="E135" s="60" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10102,13 +10138,13 @@
       <c r="B136" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C136" s="12">
+      <c r="C136" s="50">
         <v>12</v>
       </c>
-      <c r="D136" s="35">
+      <c r="D136" s="51">
         <v>80</v>
       </c>
-      <c r="E136" s="40">
+      <c r="E136" s="51">
         <f t="shared" ref="E136:E199" si="3">C136*D136</f>
         <v>960</v>
       </c>
@@ -10120,14 +10156,14 @@
       <c r="B137" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C137" s="12">
+      <c r="C137" s="50">
         <f>3.18+5.98+89.1+41.2+39.2+13.1</f>
         <v>191.75999999999996</v>
       </c>
-      <c r="D137" s="35">
+      <c r="D137" s="51">
         <v>63</v>
       </c>
-      <c r="E137" s="40">
+      <c r="E137" s="51">
         <f t="shared" si="3"/>
         <v>12080.879999999997</v>
       </c>
@@ -10139,13 +10175,13 @@
       <c r="B138" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C138" s="12">
+      <c r="C138" s="50">
         <v>38.4</v>
       </c>
-      <c r="D138" s="35">
+      <c r="D138" s="51">
         <v>220</v>
       </c>
-      <c r="E138" s="40">
+      <c r="E138" s="51">
         <f t="shared" si="3"/>
         <v>8448</v>
       </c>
@@ -10157,13 +10193,13 @@
       <c r="B139" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C139" s="12">
+      <c r="C139" s="50">
         <v>2</v>
       </c>
-      <c r="D139" s="35">
+      <c r="D139" s="51">
         <v>56</v>
       </c>
-      <c r="E139" s="40">
+      <c r="E139" s="51">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
@@ -10175,14 +10211,14 @@
       <c r="B140" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C140" s="12">
+      <c r="C140" s="50">
         <f>13.5+1.02+6.3</f>
         <v>20.82</v>
       </c>
-      <c r="D140" s="35">
+      <c r="D140" s="51">
         <v>134</v>
       </c>
-      <c r="E140" s="40">
+      <c r="E140" s="51">
         <f t="shared" si="3"/>
         <v>2789.88</v>
       </c>
@@ -10194,14 +10230,14 @@
       <c r="B141" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C141" s="12">
+      <c r="C141" s="50">
         <f>6.74+0.52+11.3</f>
         <v>18.560000000000002</v>
       </c>
-      <c r="D141" s="35">
+      <c r="D141" s="51">
         <v>95</v>
       </c>
-      <c r="E141" s="40">
+      <c r="E141" s="51">
         <f t="shared" si="3"/>
         <v>1763.2000000000003</v>
       </c>
@@ -10213,14 +10249,14 @@
       <c r="B142" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C142" s="12">
+      <c r="C142" s="50">
         <f>7.22+9.18+1</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="D142" s="35">
+      <c r="D142" s="51">
         <v>130</v>
       </c>
-      <c r="E142" s="40">
+      <c r="E142" s="51">
         <f t="shared" si="3"/>
         <v>2262</v>
       </c>
@@ -10232,14 +10268,14 @@
       <c r="B143" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C143" s="12">
+      <c r="C143" s="50">
         <f>4.26+0.83</f>
         <v>5.09</v>
       </c>
-      <c r="D143" s="35">
+      <c r="D143" s="51">
         <v>173</v>
       </c>
-      <c r="E143" s="40">
+      <c r="E143" s="51">
         <f t="shared" si="3"/>
         <v>880.56999999999994</v>
       </c>
@@ -10251,13 +10287,13 @@
       <c r="B144" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C144" s="12">
-        <v>0</v>
-      </c>
-      <c r="D144" s="35">
+      <c r="C144" s="50">
+        <v>0</v>
+      </c>
+      <c r="D144" s="51">
         <v>92</v>
       </c>
-      <c r="E144" s="40">
+      <c r="E144" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10269,14 +10305,14 @@
       <c r="B145" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C145" s="12">
+      <c r="C145" s="50">
         <f>4.82+7.9-3.9+62.3+10.3+118.4+110</f>
         <v>309.82</v>
       </c>
-      <c r="D145" s="35">
+      <c r="D145" s="51">
         <v>132</v>
       </c>
-      <c r="E145" s="40">
+      <c r="E145" s="51">
         <f t="shared" si="3"/>
         <v>40896.239999999998</v>
       </c>
@@ -10288,13 +10324,13 @@
       <c r="B146" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C146" s="12">
-        <v>0</v>
-      </c>
-      <c r="D146" s="35">
+      <c r="C146" s="50">
+        <v>0</v>
+      </c>
+      <c r="D146" s="51">
         <v>187</v>
       </c>
-      <c r="E146" s="40">
+      <c r="E146" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10306,13 +10342,13 @@
       <c r="B147" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C147" s="12">
-        <v>0</v>
-      </c>
-      <c r="D147" s="35">
+      <c r="C147" s="50">
+        <v>0</v>
+      </c>
+      <c r="D147" s="51">
         <v>154</v>
       </c>
-      <c r="E147" s="40">
+      <c r="E147" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10324,13 +10360,13 @@
       <c r="B148" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C148" s="12">
-        <v>0</v>
-      </c>
-      <c r="D148" s="35">
+      <c r="C148" s="50">
+        <v>0</v>
+      </c>
+      <c r="D148" s="51">
         <v>82</v>
       </c>
-      <c r="E148" s="40">
+      <c r="E148" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10342,14 +10378,14 @@
       <c r="B149" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C149" s="12">
+      <c r="C149" s="50">
         <f>9.76-2.2+1.2+11.8</f>
         <v>20.560000000000002</v>
       </c>
-      <c r="D149" s="35">
+      <c r="D149" s="51">
         <v>98</v>
       </c>
-      <c r="E149" s="40">
+      <c r="E149" s="51">
         <f t="shared" si="3"/>
         <v>2014.88</v>
       </c>
@@ -10361,13 +10397,13 @@
       <c r="B150" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C150" s="12">
-        <v>0</v>
-      </c>
-      <c r="D150" s="35">
+      <c r="C150" s="50">
+        <v>0</v>
+      </c>
+      <c r="D150" s="51">
         <v>125</v>
       </c>
-      <c r="E150" s="40">
+      <c r="E150" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10379,13 +10415,13 @@
       <c r="B151" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C151" s="12">
+      <c r="C151" s="50">
         <v>1.58</v>
       </c>
-      <c r="D151" s="35">
+      <c r="D151" s="51">
         <v>900</v>
       </c>
-      <c r="E151" s="40">
+      <c r="E151" s="51">
         <f t="shared" si="3"/>
         <v>1422</v>
       </c>
@@ -10397,14 +10433,14 @@
       <c r="B152" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C152" s="12">
+      <c r="C152" s="50">
         <f>14.72+37.9</f>
         <v>52.62</v>
       </c>
-      <c r="D152" s="35">
+      <c r="D152" s="51">
         <v>71</v>
       </c>
-      <c r="E152" s="40">
+      <c r="E152" s="51">
         <f t="shared" si="3"/>
         <v>3736.02</v>
       </c>
@@ -10416,14 +10452,14 @@
       <c r="B153" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C153" s="12">
+      <c r="C153" s="50">
         <f>9.74-3.9+4.8</f>
         <v>10.64</v>
       </c>
-      <c r="D153" s="35">
+      <c r="D153" s="51">
         <v>78</v>
       </c>
-      <c r="E153" s="40">
+      <c r="E153" s="51">
         <f t="shared" si="3"/>
         <v>829.92000000000007</v>
       </c>
@@ -10435,13 +10471,13 @@
       <c r="B154" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C154" s="12">
-        <v>0</v>
-      </c>
-      <c r="D154" s="35">
+      <c r="C154" s="50">
+        <v>0</v>
+      </c>
+      <c r="D154" s="51">
         <v>115</v>
       </c>
-      <c r="E154" s="40">
+      <c r="E154" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10453,13 +10489,13 @@
       <c r="B155" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C155" s="12">
+      <c r="C155" s="50">
         <v>30.7</v>
       </c>
-      <c r="D155" s="35">
+      <c r="D155" s="51">
         <v>120</v>
       </c>
-      <c r="E155" s="40">
+      <c r="E155" s="51">
         <f t="shared" si="3"/>
         <v>3684</v>
       </c>
@@ -10471,14 +10507,14 @@
       <c r="B156" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C156" s="12">
+      <c r="C156" s="50">
         <f>4.89+3.8</f>
         <v>8.69</v>
       </c>
-      <c r="D156" s="35">
+      <c r="D156" s="51">
         <v>600</v>
       </c>
-      <c r="E156" s="40">
+      <c r="E156" s="51">
         <f t="shared" si="3"/>
         <v>5214</v>
       </c>
@@ -10490,14 +10526,14 @@
       <c r="B157" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C157" s="12">
+      <c r="C157" s="50">
         <f>37.9+18.8+92.6</f>
         <v>149.30000000000001</v>
       </c>
-      <c r="D157" s="35">
+      <c r="D157" s="51">
         <v>187</v>
       </c>
-      <c r="E157" s="40">
+      <c r="E157" s="51">
         <f t="shared" si="3"/>
         <v>27919.100000000002</v>
       </c>
@@ -10509,14 +10545,14 @@
       <c r="B158" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C158" s="12">
+      <c r="C158" s="50">
         <f>93.6+114.2</f>
         <v>207.8</v>
       </c>
-      <c r="D158" s="35">
+      <c r="D158" s="51">
         <v>136</v>
       </c>
-      <c r="E158" s="40">
+      <c r="E158" s="51">
         <f t="shared" si="3"/>
         <v>28260.800000000003</v>
       </c>
@@ -10528,14 +10564,14 @@
       <c r="B159" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C159" s="12">
+      <c r="C159" s="50">
         <f>2.96+7.14+20.8+54.2</f>
         <v>85.1</v>
       </c>
-      <c r="D159" s="35">
+      <c r="D159" s="51">
         <v>30</v>
       </c>
-      <c r="E159" s="40">
+      <c r="E159" s="51">
         <f t="shared" si="3"/>
         <v>2553</v>
       </c>
@@ -10547,14 +10583,14 @@
       <c r="B160" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C160" s="12">
+      <c r="C160" s="50">
         <f>6.77+7.8</f>
         <v>14.57</v>
       </c>
-      <c r="D160" s="35">
+      <c r="D160" s="51">
         <v>600</v>
       </c>
-      <c r="E160" s="40">
+      <c r="E160" s="51">
         <f t="shared" si="3"/>
         <v>8742</v>
       </c>
@@ -10566,14 +10602,14 @@
       <c r="B161" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C161" s="12">
+      <c r="C161" s="50">
         <f>94.6+89.1+116.7+90.1</f>
         <v>390.5</v>
       </c>
-      <c r="D161" s="35">
+      <c r="D161" s="51">
         <v>116</v>
       </c>
-      <c r="E161" s="40">
+      <c r="E161" s="51">
         <f t="shared" si="3"/>
         <v>45298</v>
       </c>
@@ -10585,14 +10621,14 @@
       <c r="B162" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C162" s="12">
+      <c r="C162" s="50">
         <f>1.53+44.75</f>
         <v>46.28</v>
       </c>
-      <c r="D162" s="35">
+      <c r="D162" s="51">
         <v>280</v>
       </c>
-      <c r="E162" s="40">
+      <c r="E162" s="51">
         <f t="shared" si="3"/>
         <v>12958.4</v>
       </c>
@@ -10604,14 +10640,14 @@
       <c r="B163" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C163" s="12">
+      <c r="C163" s="50">
         <f>94.1+71</f>
         <v>165.1</v>
       </c>
-      <c r="D163" s="35">
+      <c r="D163" s="51">
         <v>94</v>
       </c>
-      <c r="E163" s="40">
+      <c r="E163" s="51">
         <f t="shared" si="3"/>
         <v>15519.4</v>
       </c>
@@ -10623,14 +10659,14 @@
       <c r="B164" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C164" s="12">
+      <c r="C164" s="50">
         <f>74.9+67.5+105.9</f>
         <v>248.3</v>
       </c>
-      <c r="D164" s="35">
+      <c r="D164" s="51">
         <v>116</v>
       </c>
-      <c r="E164" s="40">
+      <c r="E164" s="51">
         <f t="shared" si="3"/>
         <v>28802.800000000003</v>
       </c>
@@ -10642,14 +10678,14 @@
       <c r="B165" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C165" s="12">
+      <c r="C165" s="50">
         <f>19.08-2.2+147.6+18.3+15.6</f>
         <v>198.38</v>
       </c>
-      <c r="D165" s="35">
+      <c r="D165" s="51">
         <v>72</v>
       </c>
-      <c r="E165" s="40">
+      <c r="E165" s="51">
         <f t="shared" si="3"/>
         <v>14283.36</v>
       </c>
@@ -10661,13 +10697,13 @@
       <c r="B166" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C166" s="12">
+      <c r="C166" s="50">
         <v>8.6</v>
       </c>
-      <c r="D166" s="35">
+      <c r="D166" s="51">
         <v>158</v>
       </c>
-      <c r="E166" s="40">
+      <c r="E166" s="51">
         <f t="shared" si="3"/>
         <v>1358.8</v>
       </c>
@@ -10679,14 +10715,14 @@
       <c r="B167" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C167" s="12">
+      <c r="C167" s="50">
         <f>9.14-3.9</f>
         <v>5.24</v>
       </c>
-      <c r="D167" s="35">
+      <c r="D167" s="51">
         <v>134</v>
       </c>
-      <c r="E167" s="40">
+      <c r="E167" s="51">
         <f t="shared" si="3"/>
         <v>702.16000000000008</v>
       </c>
@@ -10698,14 +10734,14 @@
       <c r="B168" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C168" s="12">
+      <c r="C168" s="50">
         <f>18.78-3.9+2.8</f>
         <v>17.68</v>
       </c>
-      <c r="D168" s="35">
+      <c r="D168" s="51">
         <v>74</v>
       </c>
-      <c r="E168" s="40">
+      <c r="E168" s="51">
         <f t="shared" si="3"/>
         <v>1308.32</v>
       </c>
@@ -10717,14 +10753,14 @@
       <c r="B169" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C169" s="12">
+      <c r="C169" s="50">
         <f>14.8+24.6+524.9</f>
         <v>564.29999999999995</v>
       </c>
-      <c r="D169" s="35">
+      <c r="D169" s="51">
         <v>66</v>
       </c>
-      <c r="E169" s="40">
+      <c r="E169" s="51">
         <f t="shared" si="3"/>
         <v>37243.799999999996</v>
       </c>
@@ -10736,14 +10772,14 @@
       <c r="B170" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C170" s="12">
+      <c r="C170" s="50">
         <f>4.82+53+119.9</f>
         <v>177.72</v>
       </c>
-      <c r="D170" s="35">
+      <c r="D170" s="51">
         <v>66</v>
       </c>
-      <c r="E170" s="40">
+      <c r="E170" s="51">
         <f t="shared" si="3"/>
         <v>11729.52</v>
       </c>
@@ -10755,14 +10791,14 @@
       <c r="B171" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C171" s="12">
+      <c r="C171" s="50">
         <f>21.32-3.9+21.96+8.3</f>
         <v>47.680000000000007</v>
       </c>
-      <c r="D171" s="35">
+      <c r="D171" s="51">
         <v>170</v>
       </c>
-      <c r="E171" s="40">
+      <c r="E171" s="51">
         <f t="shared" si="3"/>
         <v>8105.6000000000013</v>
       </c>
@@ -10774,14 +10810,14 @@
       <c r="B172" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C172" s="12">
+      <c r="C172" s="50">
         <f>172.1+171.9+245.4+51.4</f>
         <v>640.79999999999995</v>
       </c>
-      <c r="D172" s="35">
+      <c r="D172" s="51">
         <v>72</v>
       </c>
-      <c r="E172" s="40">
+      <c r="E172" s="51">
         <f t="shared" si="3"/>
         <v>46137.599999999999</v>
       </c>
@@ -10793,13 +10829,13 @@
       <c r="B173" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C173" s="12">
+      <c r="C173" s="50">
         <v>48.7</v>
       </c>
-      <c r="D173" s="35">
+      <c r="D173" s="51">
         <v>92</v>
       </c>
-      <c r="E173" s="40">
+      <c r="E173" s="51">
         <f t="shared" si="3"/>
         <v>4480.4000000000005</v>
       </c>
@@ -10811,14 +10847,14 @@
       <c r="B174" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C174" s="12">
+      <c r="C174" s="50">
         <f>10.68-3.9+30.7</f>
         <v>37.479999999999997</v>
       </c>
-      <c r="D174" s="35">
+      <c r="D174" s="51">
         <v>100</v>
       </c>
-      <c r="E174" s="40">
+      <c r="E174" s="51">
         <f t="shared" si="3"/>
         <v>3747.9999999999995</v>
       </c>
@@ -10830,13 +10866,13 @@
       <c r="B175" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C175" s="12">
+      <c r="C175" s="50">
         <v>63.5</v>
       </c>
-      <c r="D175" s="35">
+      <c r="D175" s="51">
         <v>149</v>
       </c>
-      <c r="E175" s="40">
+      <c r="E175" s="51">
         <f t="shared" si="3"/>
         <v>9461.5</v>
       </c>
@@ -10848,13 +10884,13 @@
       <c r="B176" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C176" s="12">
+      <c r="C176" s="50">
         <v>82.5</v>
       </c>
-      <c r="D176" s="35">
+      <c r="D176" s="51">
         <v>51</v>
       </c>
-      <c r="E176" s="40">
+      <c r="E176" s="51">
         <f t="shared" si="3"/>
         <v>4207.5</v>
       </c>
@@ -10866,13 +10902,13 @@
       <c r="B177" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C177" s="12">
+      <c r="C177" s="50">
         <v>23.9</v>
       </c>
-      <c r="D177" s="35">
+      <c r="D177" s="51">
         <v>120</v>
       </c>
-      <c r="E177" s="40">
+      <c r="E177" s="51">
         <f t="shared" si="3"/>
         <v>2868</v>
       </c>
@@ -10884,14 +10920,14 @@
       <c r="B178" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C178" s="12">
+      <c r="C178" s="50">
         <f>7+6.42+1.32</f>
         <v>14.74</v>
       </c>
-      <c r="D178" s="35">
+      <c r="D178" s="51">
         <v>184</v>
       </c>
-      <c r="E178" s="40">
+      <c r="E178" s="51">
         <f t="shared" si="3"/>
         <v>2712.16</v>
       </c>
@@ -10901,12 +10937,12 @@
       <c r="B179" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C179" s="23">
+      <c r="C179" s="15">
         <f>SUM(C133:C177)</f>
         <v>9165.7290000000012</v>
       </c>
       <c r="D179" s="15"/>
-      <c r="E179" s="37">
+      <c r="E179" s="36">
         <f>SUM(E136:E178)</f>
         <v>405493.80999999988</v>
       </c>
@@ -10916,13 +10952,13 @@
       <c r="B180" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C180" s="20" t="s">
+      <c r="C180" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D180" s="20" t="s">
+      <c r="D180" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E180" s="21" t="s">
+      <c r="E180" s="60" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10933,14 +10969,14 @@
       <c r="B181" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C181" s="12">
+      <c r="C181" s="50">
         <f>89.9+55</f>
         <v>144.9</v>
       </c>
-      <c r="D181" s="35">
+      <c r="D181" s="51">
         <v>180</v>
       </c>
-      <c r="E181" s="40">
+      <c r="E181" s="51">
         <f t="shared" si="3"/>
         <v>26082</v>
       </c>
@@ -10952,13 +10988,13 @@
       <c r="B182" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C182" s="12">
+      <c r="C182" s="50">
         <v>124.4</v>
       </c>
-      <c r="D182" s="35">
+      <c r="D182" s="51">
         <v>182</v>
       </c>
-      <c r="E182" s="40">
+      <c r="E182" s="51">
         <f t="shared" si="3"/>
         <v>22640.799999999999</v>
       </c>
@@ -10970,13 +11006,13 @@
       <c r="B183" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C183" s="12">
-        <v>0</v>
-      </c>
-      <c r="D183" s="35">
+      <c r="C183" s="50">
+        <v>0</v>
+      </c>
+      <c r="D183" s="51">
         <v>62</v>
       </c>
-      <c r="E183" s="40">
+      <c r="E183" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10988,14 +11024,14 @@
       <c r="B184" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C184" s="12">
+      <c r="C184" s="50">
         <f>3.584+2.86+13.2+22.3+7.43</f>
         <v>49.374000000000002</v>
       </c>
-      <c r="D184" s="35">
+      <c r="D184" s="51">
         <v>58</v>
       </c>
-      <c r="E184" s="40">
+      <c r="E184" s="51">
         <f t="shared" si="3"/>
         <v>2863.692</v>
       </c>
@@ -11007,13 +11043,13 @@
       <c r="B185" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C185" s="12">
-        <v>0</v>
-      </c>
-      <c r="D185" s="35">
+      <c r="C185" s="50">
+        <v>0</v>
+      </c>
+      <c r="D185" s="51">
         <v>72</v>
       </c>
-      <c r="E185" s="40">
+      <c r="E185" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11025,14 +11061,14 @@
       <c r="B186" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C186" s="12">
+      <c r="C186" s="50">
         <f>4.08+9.74-3.9+3.6</f>
         <v>13.52</v>
       </c>
-      <c r="D186" s="35">
+      <c r="D186" s="51">
         <v>120</v>
       </c>
-      <c r="E186" s="40">
+      <c r="E186" s="51">
         <f t="shared" si="3"/>
         <v>1622.3999999999999</v>
       </c>
@@ -11044,14 +11080,14 @@
       <c r="B187" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C187" s="12">
+      <c r="C187" s="50">
         <f>4.08+61</f>
         <v>65.08</v>
       </c>
-      <c r="D187" s="35">
+      <c r="D187" s="51">
         <v>14</v>
       </c>
-      <c r="E187" s="40">
+      <c r="E187" s="51">
         <f t="shared" si="3"/>
         <v>911.12</v>
       </c>
@@ -11063,14 +11099,14 @@
       <c r="B188" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C188" s="12">
+      <c r="C188" s="50">
         <f>6.8+47.7+8.8</f>
         <v>63.3</v>
       </c>
-      <c r="D188" s="35">
+      <c r="D188" s="51">
         <v>40</v>
       </c>
-      <c r="E188" s="40">
+      <c r="E188" s="51">
         <f t="shared" si="3"/>
         <v>2532</v>
       </c>
@@ -11082,13 +11118,13 @@
       <c r="B189" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C189" s="12">
+      <c r="C189" s="50">
         <v>24.3</v>
       </c>
-      <c r="D189" s="35">
+      <c r="D189" s="51">
         <v>20</v>
       </c>
-      <c r="E189" s="40">
+      <c r="E189" s="51">
         <f t="shared" si="3"/>
         <v>486</v>
       </c>
@@ -11100,13 +11136,13 @@
       <c r="B190" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C190" s="12">
+      <c r="C190" s="50">
         <v>28.6</v>
       </c>
-      <c r="D190" s="35">
+      <c r="D190" s="51">
         <v>32</v>
       </c>
-      <c r="E190" s="40">
+      <c r="E190" s="51">
         <f t="shared" si="3"/>
         <v>915.2</v>
       </c>
@@ -11118,14 +11154,14 @@
       <c r="B191" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C191" s="12">
+      <c r="C191" s="50">
         <f>3.64+12.86-2.2+82.8</f>
         <v>97.1</v>
       </c>
-      <c r="D191" s="35">
+      <c r="D191" s="51">
         <v>38</v>
       </c>
-      <c r="E191" s="40">
+      <c r="E191" s="51">
         <f t="shared" si="3"/>
         <v>3689.7999999999997</v>
       </c>
@@ -11137,14 +11173,14 @@
       <c r="B192" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C192" s="12">
+      <c r="C192" s="50">
         <f>27.1+34.1</f>
         <v>61.2</v>
       </c>
-      <c r="D192" s="35">
+      <c r="D192" s="51">
         <v>95</v>
       </c>
-      <c r="E192" s="40">
+      <c r="E192" s="51">
         <f t="shared" si="3"/>
         <v>5814</v>
       </c>
@@ -11156,13 +11192,13 @@
       <c r="B193" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C193" s="12">
+      <c r="C193" s="50">
         <v>1.18</v>
       </c>
-      <c r="D193" s="35">
+      <c r="D193" s="51">
         <v>420</v>
       </c>
-      <c r="E193" s="40">
+      <c r="E193" s="51">
         <f t="shared" si="3"/>
         <v>495.59999999999997</v>
       </c>
@@ -11174,14 +11210,14 @@
       <c r="B194" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C194" s="12">
+      <c r="C194" s="50">
         <f>67+29.294-2.2</f>
         <v>94.093999999999994</v>
       </c>
-      <c r="D194" s="35">
+      <c r="D194" s="51">
         <v>184</v>
       </c>
-      <c r="E194" s="40">
+      <c r="E194" s="51">
         <f t="shared" si="3"/>
         <v>17313.295999999998</v>
       </c>
@@ -11193,13 +11229,13 @@
       <c r="B195" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C195" s="12">
+      <c r="C195" s="50">
         <v>1.5</v>
       </c>
-      <c r="D195" s="35">
+      <c r="D195" s="51">
         <v>50</v>
       </c>
-      <c r="E195" s="40">
+      <c r="E195" s="51">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
@@ -11211,13 +11247,13 @@
       <c r="B196" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C196" s="12">
+      <c r="C196" s="50">
         <v>140.4</v>
       </c>
-      <c r="D196" s="35">
+      <c r="D196" s="51">
         <v>57</v>
       </c>
-      <c r="E196" s="40">
+      <c r="E196" s="51">
         <f t="shared" si="3"/>
         <v>8002.8</v>
       </c>
@@ -11229,14 +11265,14 @@
       <c r="B197" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C197" s="12">
+      <c r="C197" s="50">
         <f>4.46+13.84+14.3+61.2</f>
         <v>93.800000000000011</v>
       </c>
-      <c r="D197" s="35">
+      <c r="D197" s="51">
         <v>42</v>
       </c>
-      <c r="E197" s="40">
+      <c r="E197" s="51">
         <f t="shared" si="3"/>
         <v>3939.6000000000004</v>
       </c>
@@ -11248,14 +11284,14 @@
       <c r="B198" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C198" s="12">
+      <c r="C198" s="50">
         <f>13.2+20</f>
         <v>33.200000000000003</v>
       </c>
-      <c r="D198" s="35">
+      <c r="D198" s="51">
         <v>98</v>
       </c>
-      <c r="E198" s="40">
+      <c r="E198" s="51">
         <f t="shared" si="3"/>
         <v>3253.6000000000004</v>
       </c>
@@ -11267,13 +11303,13 @@
       <c r="B199" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C199" s="12">
+      <c r="C199" s="50">
         <v>121</v>
       </c>
-      <c r="D199" s="35">
+      <c r="D199" s="51">
         <v>120</v>
       </c>
-      <c r="E199" s="40">
+      <c r="E199" s="51">
         <f t="shared" si="3"/>
         <v>14520</v>
       </c>
@@ -11285,14 +11321,14 @@
       <c r="B200" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C200" s="12">
+      <c r="C200" s="50">
         <f>25+130</f>
         <v>155</v>
       </c>
-      <c r="D200" s="35">
+      <c r="D200" s="51">
         <v>105</v>
       </c>
-      <c r="E200" s="40">
+      <c r="E200" s="51">
         <f t="shared" ref="E200:E262" si="4">C200*D200</f>
         <v>16275</v>
       </c>
@@ -11304,14 +11340,14 @@
       <c r="B201" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C201" s="12">
+      <c r="C201" s="50">
         <f>21.52-2.2</f>
         <v>19.32</v>
       </c>
-      <c r="D201" s="35">
+      <c r="D201" s="51">
         <v>70</v>
       </c>
-      <c r="E201" s="40">
+      <c r="E201" s="51">
         <f t="shared" si="4"/>
         <v>1352.4</v>
       </c>
@@ -11323,14 +11359,14 @@
       <c r="B202" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C202" s="12">
+      <c r="C202" s="50">
         <f>21.56-2.2+0.8</f>
         <v>20.16</v>
       </c>
-      <c r="D202" s="35">
+      <c r="D202" s="51">
         <v>100</v>
       </c>
-      <c r="E202" s="40">
+      <c r="E202" s="51">
         <f t="shared" si="4"/>
         <v>2016</v>
       </c>
@@ -11342,14 +11378,14 @@
       <c r="B203" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C203" s="12">
+      <c r="C203" s="50">
         <f>3.22+1.43</f>
         <v>4.6500000000000004</v>
       </c>
-      <c r="D203" s="35">
+      <c r="D203" s="51">
         <v>160</v>
       </c>
-      <c r="E203" s="40">
+      <c r="E203" s="51">
         <f t="shared" si="4"/>
         <v>744</v>
       </c>
@@ -11361,14 +11397,14 @@
       <c r="B204" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C204" s="12">
+      <c r="C204" s="50">
         <f>1.5+30</f>
         <v>31.5</v>
       </c>
-      <c r="D204" s="35">
+      <c r="D204" s="51">
         <v>93</v>
       </c>
-      <c r="E204" s="40">
+      <c r="E204" s="51">
         <f t="shared" si="4"/>
         <v>2929.5</v>
       </c>
@@ -11380,13 +11416,13 @@
       <c r="B205" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C205" s="12">
+      <c r="C205" s="50">
         <v>12</v>
       </c>
-      <c r="D205" s="35">
+      <c r="D205" s="51">
         <v>75</v>
       </c>
-      <c r="E205" s="40">
+      <c r="E205" s="51">
         <f t="shared" si="4"/>
         <v>900</v>
       </c>
@@ -11398,13 +11434,13 @@
       <c r="B206" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C206" s="12">
+      <c r="C206" s="50">
         <v>5.5</v>
       </c>
-      <c r="D206" s="35">
+      <c r="D206" s="51">
         <v>65</v>
       </c>
-      <c r="E206" s="40">
+      <c r="E206" s="51">
         <f t="shared" si="4"/>
         <v>357.5</v>
       </c>
@@ -11416,13 +11452,13 @@
       <c r="B207" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C207" s="12">
+      <c r="C207" s="50">
         <v>9</v>
       </c>
-      <c r="D207" s="35">
+      <c r="D207" s="51">
         <v>36</v>
       </c>
-      <c r="E207" s="40">
+      <c r="E207" s="51">
         <f t="shared" si="4"/>
         <v>324</v>
       </c>
@@ -11434,13 +11470,13 @@
       <c r="B208" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C208" s="12">
+      <c r="C208" s="50">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D208" s="35">
+      <c r="D208" s="51">
         <v>80</v>
       </c>
-      <c r="E208" s="40">
+      <c r="E208" s="51">
         <f t="shared" si="4"/>
         <v>176</v>
       </c>
@@ -11452,14 +11488,14 @@
       <c r="B209" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C209" s="12">
+      <c r="C209" s="50">
         <f>30+2.24</f>
         <v>32.24</v>
       </c>
-      <c r="D209" s="35">
+      <c r="D209" s="51">
         <v>58</v>
       </c>
-      <c r="E209" s="40">
+      <c r="E209" s="51">
         <f t="shared" si="4"/>
         <v>1869.92</v>
       </c>
@@ -11471,13 +11507,13 @@
       <c r="B210" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C210" s="12">
-        <v>0</v>
-      </c>
-      <c r="D210" s="35">
+      <c r="C210" s="50">
+        <v>0</v>
+      </c>
+      <c r="D210" s="51">
         <v>90</v>
       </c>
-      <c r="E210" s="40">
+      <c r="E210" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11489,13 +11525,13 @@
       <c r="B211" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C211" s="12">
+      <c r="C211" s="50">
         <v>3</v>
       </c>
-      <c r="D211" s="35">
+      <c r="D211" s="51">
         <v>36</v>
       </c>
-      <c r="E211" s="40">
+      <c r="E211" s="51">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
@@ -11507,13 +11543,13 @@
       <c r="B212" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C212" s="12">
+      <c r="C212" s="50">
         <v>5</v>
       </c>
-      <c r="D212" s="35">
+      <c r="D212" s="51">
         <v>60</v>
       </c>
-      <c r="E212" s="40">
+      <c r="E212" s="51">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
@@ -11522,16 +11558,16 @@
       <c r="A213" s="34">
         <v>217</v>
       </c>
-      <c r="B213" s="45" t="s">
+      <c r="B213" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C213" s="12">
-        <v>0</v>
-      </c>
-      <c r="D213" s="35">
+      <c r="C213" s="50">
+        <v>0</v>
+      </c>
+      <c r="D213" s="51">
         <v>38</v>
       </c>
-      <c r="E213" s="40">
+      <c r="E213" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11543,13 +11579,13 @@
       <c r="B214" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C214" s="12">
+      <c r="C214" s="50">
         <v>2</v>
       </c>
-      <c r="D214" s="35">
+      <c r="D214" s="51">
         <v>40</v>
       </c>
-      <c r="E214" s="40">
+      <c r="E214" s="51">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
@@ -11558,16 +11594,16 @@
       <c r="A215" s="34">
         <v>219</v>
       </c>
-      <c r="B215" s="45" t="s">
+      <c r="B215" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C215" s="12">
-        <v>0</v>
-      </c>
-      <c r="D215" s="35">
+      <c r="C215" s="50">
+        <v>0</v>
+      </c>
+      <c r="D215" s="51">
         <v>110</v>
       </c>
-      <c r="E215" s="40">
+      <c r="E215" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11579,13 +11615,13 @@
       <c r="B216" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C216" s="12">
+      <c r="C216" s="50">
         <v>80</v>
       </c>
-      <c r="D216" s="35">
+      <c r="D216" s="51">
         <v>30</v>
       </c>
-      <c r="E216" s="40">
+      <c r="E216" s="51">
         <f t="shared" si="4"/>
         <v>2400</v>
       </c>
@@ -11597,14 +11633,14 @@
       <c r="B217" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C217" s="12">
+      <c r="C217" s="50">
         <f>1.25+0.15</f>
         <v>1.4</v>
       </c>
-      <c r="D217" s="35">
+      <c r="D217" s="51">
         <v>370</v>
       </c>
-      <c r="E217" s="40">
+      <c r="E217" s="51">
         <f t="shared" si="4"/>
         <v>518</v>
       </c>
@@ -11616,13 +11652,13 @@
       <c r="B218" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C218" s="12">
-        <v>0</v>
-      </c>
-      <c r="D218" s="35">
+      <c r="C218" s="50">
+        <v>0</v>
+      </c>
+      <c r="D218" s="51">
         <v>280</v>
       </c>
-      <c r="E218" s="40">
+      <c r="E218" s="51">
         <v>1.8160000000000001</v>
       </c>
     </row>
@@ -11633,13 +11669,13 @@
       <c r="B219" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C219" s="12">
-        <v>0</v>
-      </c>
-      <c r="D219" s="35">
+      <c r="C219" s="50">
+        <v>0</v>
+      </c>
+      <c r="D219" s="51">
         <v>475</v>
       </c>
-      <c r="E219" s="40">
+      <c r="E219" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11648,16 +11684,16 @@
       <c r="A220" s="34">
         <v>224</v>
       </c>
-      <c r="B220" s="45" t="s">
+      <c r="B220" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C220" s="12">
-        <v>0</v>
-      </c>
-      <c r="D220" s="35">
+      <c r="C220" s="50">
+        <v>0</v>
+      </c>
+      <c r="D220" s="51">
         <v>51</v>
       </c>
-      <c r="E220" s="40">
+      <c r="E220" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11669,13 +11705,13 @@
       <c r="B221" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C221" s="12">
+      <c r="C221" s="50">
         <v>13</v>
       </c>
-      <c r="D221" s="35">
+      <c r="D221" s="51">
         <v>21</v>
       </c>
-      <c r="E221" s="40">
+      <c r="E221" s="51">
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
@@ -11687,13 +11723,13 @@
       <c r="B222" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C222" s="12">
-        <v>0</v>
-      </c>
-      <c r="D222" s="35">
+      <c r="C222" s="50">
+        <v>0</v>
+      </c>
+      <c r="D222" s="51">
         <v>96</v>
       </c>
-      <c r="E222" s="40">
+      <c r="E222" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11703,12 +11739,12 @@
       <c r="B223" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C223" s="23">
+      <c r="C223" s="15">
         <f>SUM(C178:C221)</f>
         <v>10733.386999999999</v>
       </c>
       <c r="D223" s="38"/>
-      <c r="E223" s="37">
+      <c r="E223" s="36">
         <f>SUM(E181:E222)</f>
         <v>145782.04400000005</v>
       </c>
@@ -11718,13 +11754,13 @@
       <c r="B224" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C224" s="20" t="s">
+      <c r="C224" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D224" s="20" t="s">
+      <c r="D224" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E224" s="21" t="s">
+      <c r="E224" s="60" t="s">
         <v>4</v>
       </c>
     </row>
@@ -11735,13 +11771,13 @@
       <c r="B225" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C225" s="12">
+      <c r="C225" s="50">
         <v>11</v>
       </c>
-      <c r="D225" s="35">
+      <c r="D225" s="51">
         <v>40</v>
       </c>
-      <c r="E225" s="40">
+      <c r="E225" s="51">
         <f t="shared" si="4"/>
         <v>440</v>
       </c>
@@ -11753,13 +11789,13 @@
       <c r="B226" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C226" s="12">
+      <c r="C226" s="50">
         <v>10.5</v>
       </c>
-      <c r="D226" s="35">
+      <c r="D226" s="51">
         <v>60</v>
       </c>
-      <c r="E226" s="40">
+      <c r="E226" s="51">
         <f t="shared" si="4"/>
         <v>630</v>
       </c>
@@ -11771,14 +11807,14 @@
       <c r="B227" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C227" s="12">
+      <c r="C227" s="50">
         <f>5.7+2.37</f>
         <v>8.07</v>
       </c>
-      <c r="D227" s="35">
+      <c r="D227" s="51">
         <v>315</v>
       </c>
-      <c r="E227" s="40">
+      <c r="E227" s="51">
         <f t="shared" si="4"/>
         <v>2542.0500000000002</v>
       </c>
@@ -11790,14 +11826,14 @@
       <c r="B228" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C228" s="12">
+      <c r="C228" s="50">
         <f>12.3+134.5+69.7</f>
         <v>216.5</v>
       </c>
-      <c r="D228" s="35">
+      <c r="D228" s="51">
         <v>18</v>
       </c>
-      <c r="E228" s="40">
+      <c r="E228" s="51">
         <f t="shared" si="4"/>
         <v>3897</v>
       </c>
@@ -11806,16 +11842,16 @@
       <c r="A229" s="34">
         <v>232</v>
       </c>
-      <c r="B229" s="45" t="s">
+      <c r="B229" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C229" s="12">
-        <v>0</v>
-      </c>
-      <c r="D229" s="35">
+      <c r="C229" s="50">
+        <v>0</v>
+      </c>
+      <c r="D229" s="51">
         <v>400</v>
       </c>
-      <c r="E229" s="40">
+      <c r="E229" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11827,13 +11863,13 @@
       <c r="B230" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C230" s="12">
-        <v>0</v>
-      </c>
-      <c r="D230" s="35">
+      <c r="C230" s="50">
+        <v>0</v>
+      </c>
+      <c r="D230" s="51">
         <v>177</v>
       </c>
-      <c r="E230" s="40">
+      <c r="E230" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11845,13 +11881,13 @@
       <c r="B231" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C231" s="12">
-        <v>0</v>
-      </c>
-      <c r="D231" s="35">
+      <c r="C231" s="50">
+        <v>0</v>
+      </c>
+      <c r="D231" s="51">
         <v>64</v>
       </c>
-      <c r="E231" s="40">
+      <c r="E231" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11863,13 +11899,13 @@
       <c r="B232" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C232" s="12">
+      <c r="C232" s="50">
         <v>5</v>
       </c>
-      <c r="D232" s="35">
+      <c r="D232" s="51">
         <v>130</v>
       </c>
-      <c r="E232" s="40">
+      <c r="E232" s="51">
         <f t="shared" si="4"/>
         <v>650</v>
       </c>
@@ -11881,14 +11917,14 @@
       <c r="B233" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C233" s="12">
+      <c r="C233" s="50">
         <f>165.4+50.7+46.6</f>
         <v>262.70000000000005</v>
       </c>
-      <c r="D233" s="35">
+      <c r="D233" s="51">
         <v>36</v>
       </c>
-      <c r="E233" s="40">
+      <c r="E233" s="51">
         <f t="shared" si="4"/>
         <v>9457.2000000000007</v>
       </c>
@@ -11900,13 +11936,13 @@
       <c r="B234" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C234" s="14">
+      <c r="C234" s="53">
         <v>215.5</v>
       </c>
-      <c r="D234" s="35">
+      <c r="D234" s="51">
         <v>177</v>
       </c>
-      <c r="E234" s="40">
+      <c r="E234" s="51">
         <f t="shared" si="4"/>
         <v>38143.5</v>
       </c>
@@ -11918,13 +11954,13 @@
       <c r="B235" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C235" s="12">
-        <v>0</v>
-      </c>
-      <c r="D235" s="35">
+      <c r="C235" s="50">
+        <v>0</v>
+      </c>
+      <c r="D235" s="51">
         <v>160</v>
       </c>
-      <c r="E235" s="40">
+      <c r="E235" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11936,13 +11972,13 @@
       <c r="B236" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C236" s="12">
+      <c r="C236" s="50">
         <v>3.66</v>
       </c>
-      <c r="D236" s="35">
+      <c r="D236" s="51">
         <v>76</v>
       </c>
-      <c r="E236" s="40">
+      <c r="E236" s="51">
         <f t="shared" si="4"/>
         <v>278.16000000000003</v>
       </c>
@@ -11951,16 +11987,16 @@
       <c r="A237" s="34">
         <v>240</v>
       </c>
-      <c r="B237" s="45" t="s">
+      <c r="B237" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C237" s="12">
-        <v>0</v>
-      </c>
-      <c r="D237" s="35">
+      <c r="C237" s="50">
+        <v>0</v>
+      </c>
+      <c r="D237" s="51">
         <v>120</v>
       </c>
-      <c r="E237" s="40">
+      <c r="E237" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11972,13 +12008,13 @@
       <c r="B238" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C238" s="12">
-        <v>0</v>
-      </c>
-      <c r="D238" s="35">
+      <c r="C238" s="50">
+        <v>0</v>
+      </c>
+      <c r="D238" s="51">
         <v>62</v>
       </c>
-      <c r="E238" s="40">
+      <c r="E238" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11990,14 +12026,14 @@
       <c r="B239" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C239" s="12">
+      <c r="C239" s="50">
         <f>7+26</f>
         <v>33</v>
       </c>
-      <c r="D239" s="35">
+      <c r="D239" s="51">
         <v>26</v>
       </c>
-      <c r="E239" s="40">
+      <c r="E239" s="51">
         <f t="shared" si="4"/>
         <v>858</v>
       </c>
@@ -12009,13 +12045,13 @@
       <c r="B240" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C240" s="12">
-        <v>0</v>
-      </c>
-      <c r="D240" s="35">
+      <c r="C240" s="50">
+        <v>0</v>
+      </c>
+      <c r="D240" s="51">
         <v>90</v>
       </c>
-      <c r="E240" s="40">
+      <c r="E240" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12027,14 +12063,14 @@
       <c r="B241" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C241" s="12">
+      <c r="C241" s="50">
         <f>1.22+3.1+4.46+38.4</f>
         <v>47.18</v>
       </c>
-      <c r="D241" s="35">
+      <c r="D241" s="51">
         <v>98</v>
       </c>
-      <c r="E241" s="40">
+      <c r="E241" s="51">
         <f t="shared" si="4"/>
         <v>4623.6400000000003</v>
       </c>
@@ -12046,14 +12082,14 @@
       <c r="B242" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C242" s="12">
+      <c r="C242" s="50">
         <f>13.8-2.2+23.3</f>
         <v>34.900000000000006</v>
       </c>
-      <c r="D242" s="35">
+      <c r="D242" s="51">
         <v>125</v>
       </c>
-      <c r="E242" s="40">
+      <c r="E242" s="51">
         <f t="shared" si="4"/>
         <v>4362.5000000000009</v>
       </c>
@@ -12065,13 +12101,13 @@
       <c r="B243" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C243" s="12">
-        <v>0</v>
-      </c>
-      <c r="D243" s="35">
+      <c r="C243" s="50">
+        <v>0</v>
+      </c>
+      <c r="D243" s="51">
         <v>46</v>
       </c>
-      <c r="E243" s="40">
+      <c r="E243" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12083,13 +12119,13 @@
       <c r="B244" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C244" s="12">
+      <c r="C244" s="50">
         <v>14</v>
       </c>
-      <c r="D244" s="35">
+      <c r="D244" s="51">
         <v>20</v>
       </c>
-      <c r="E244" s="40">
+      <c r="E244" s="51">
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
@@ -12101,13 +12137,13 @@
       <c r="B245" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C245" s="12">
+      <c r="C245" s="50">
         <v>2.44</v>
       </c>
-      <c r="D245" s="35">
+      <c r="D245" s="51">
         <v>360</v>
       </c>
-      <c r="E245" s="40">
+      <c r="E245" s="51">
         <f t="shared" si="4"/>
         <v>878.4</v>
       </c>
@@ -12119,13 +12155,13 @@
       <c r="B246" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C246" s="12">
+      <c r="C246" s="50">
         <v>0.44400000000000001</v>
       </c>
-      <c r="D246" s="35">
+      <c r="D246" s="51">
         <v>184</v>
       </c>
-      <c r="E246" s="40">
+      <c r="E246" s="51">
         <f t="shared" si="4"/>
         <v>81.695999999999998</v>
       </c>
@@ -12134,16 +12170,16 @@
       <c r="A247" s="34">
         <v>250</v>
       </c>
-      <c r="B247" s="47" t="s">
+      <c r="B247" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C247" s="12">
-        <v>0</v>
-      </c>
-      <c r="D247" s="35">
+      <c r="C247" s="50">
+        <v>0</v>
+      </c>
+      <c r="D247" s="51">
         <v>59</v>
       </c>
-      <c r="E247" s="40">
+      <c r="E247" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12155,13 +12191,13 @@
       <c r="B248" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C248" s="12">
+      <c r="C248" s="50">
         <v>8.9700000000000006</v>
       </c>
-      <c r="D248" s="35">
+      <c r="D248" s="51">
         <v>50</v>
       </c>
-      <c r="E248" s="40">
+      <c r="E248" s="51">
         <f t="shared" si="4"/>
         <v>448.50000000000006</v>
       </c>
@@ -12173,13 +12209,13 @@
       <c r="B249" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C249" s="12">
-        <v>0</v>
-      </c>
-      <c r="D249" s="35">
+      <c r="C249" s="50">
+        <v>0</v>
+      </c>
+      <c r="D249" s="51">
         <v>45</v>
       </c>
-      <c r="E249" s="40">
+      <c r="E249" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12191,14 +12227,14 @@
       <c r="B250" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C250" s="12">
+      <c r="C250" s="50">
         <f>3.066+1.025</f>
         <v>4.0909999999999993</v>
       </c>
-      <c r="D250" s="35">
+      <c r="D250" s="51">
         <v>350</v>
       </c>
-      <c r="E250" s="40">
+      <c r="E250" s="51">
         <f t="shared" si="4"/>
         <v>1431.8499999999997</v>
       </c>
@@ -12210,13 +12246,13 @@
       <c r="B251" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C251" s="14">
+      <c r="C251" s="53">
         <v>2</v>
       </c>
-      <c r="D251" s="39">
+      <c r="D251" s="54">
         <v>70</v>
       </c>
-      <c r="E251" s="40">
+      <c r="E251" s="51">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
@@ -12225,16 +12261,16 @@
       <c r="A252" s="34">
         <v>255</v>
       </c>
-      <c r="B252" s="46" t="s">
+      <c r="B252" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="C252" s="14">
-        <v>0</v>
-      </c>
-      <c r="D252" s="39">
+      <c r="C252" s="53">
+        <v>0</v>
+      </c>
+      <c r="D252" s="54">
         <v>125</v>
       </c>
-      <c r="E252" s="40">
+      <c r="E252" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12246,14 +12282,14 @@
       <c r="B253" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C253" s="12">
+      <c r="C253" s="50">
         <f>7.015+10+7.16+7.9</f>
         <v>32.075000000000003</v>
       </c>
-      <c r="D253" s="35">
+      <c r="D253" s="51">
         <v>120</v>
       </c>
-      <c r="E253" s="40">
+      <c r="E253" s="51">
         <f t="shared" si="4"/>
         <v>3849.0000000000005</v>
       </c>
@@ -12265,14 +12301,14 @@
       <c r="B254" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C254" s="12">
+      <c r="C254" s="50">
         <f>3.812+7.2</f>
         <v>11.012</v>
       </c>
-      <c r="D254" s="35">
+      <c r="D254" s="51">
         <v>160</v>
       </c>
-      <c r="E254" s="40">
+      <c r="E254" s="51">
         <f t="shared" si="4"/>
         <v>1761.92</v>
       </c>
@@ -12284,13 +12320,13 @@
       <c r="B255" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C255" s="12">
+      <c r="C255" s="50">
         <v>14.1</v>
       </c>
-      <c r="D255" s="35">
+      <c r="D255" s="51">
         <v>10</v>
       </c>
-      <c r="E255" s="40">
+      <c r="E255" s="51">
         <f t="shared" si="4"/>
         <v>141</v>
       </c>
@@ -12302,13 +12338,13 @@
       <c r="B256" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C256" s="12">
-        <v>0</v>
-      </c>
-      <c r="D256" s="35">
+      <c r="C256" s="50">
+        <v>0</v>
+      </c>
+      <c r="D256" s="51">
         <v>74</v>
       </c>
-      <c r="E256" s="40">
+      <c r="E256" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12320,14 +12356,14 @@
       <c r="B257" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C257" s="12">
+      <c r="C257" s="50">
         <f>2.44+5.66+24.8</f>
         <v>32.9</v>
       </c>
-      <c r="D257" s="35">
+      <c r="D257" s="51">
         <v>350</v>
       </c>
-      <c r="E257" s="40">
+      <c r="E257" s="51">
         <f t="shared" si="4"/>
         <v>11515</v>
       </c>
@@ -12339,13 +12375,13 @@
       <c r="B258" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C258" s="12">
+      <c r="C258" s="50">
         <v>20.8</v>
       </c>
-      <c r="D258" s="35">
+      <c r="D258" s="51">
         <v>170</v>
       </c>
-      <c r="E258" s="40">
+      <c r="E258" s="51">
         <f t="shared" si="4"/>
         <v>3536</v>
       </c>
@@ -12357,14 +12393,14 @@
       <c r="B259" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C259" s="12">
+      <c r="C259" s="50">
         <f>4.26+4.87+4.96+9.7</f>
         <v>23.79</v>
       </c>
-      <c r="D259" s="35">
+      <c r="D259" s="51">
         <v>745</v>
       </c>
-      <c r="E259" s="40">
+      <c r="E259" s="51">
         <f t="shared" si="4"/>
         <v>17723.55</v>
       </c>
@@ -12376,13 +12412,13 @@
       <c r="B260" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C260" s="12">
+      <c r="C260" s="50">
         <v>1.56</v>
       </c>
-      <c r="D260" s="35">
+      <c r="D260" s="51">
         <v>168</v>
       </c>
-      <c r="E260" s="40">
+      <c r="E260" s="51">
         <f t="shared" si="4"/>
         <v>262.08</v>
       </c>
@@ -12394,14 +12430,14 @@
       <c r="B261" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C261" s="12">
+      <c r="C261" s="50">
         <f>3.64+0.632</f>
         <v>4.2720000000000002</v>
       </c>
-      <c r="D261" s="35">
+      <c r="D261" s="51">
         <v>555</v>
       </c>
-      <c r="E261" s="40">
+      <c r="E261" s="51">
         <f t="shared" si="4"/>
         <v>2370.96</v>
       </c>
@@ -12413,14 +12449,14 @@
       <c r="B262" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C262" s="41">
+      <c r="C262" s="55">
         <f>1.9+6.36+6.14+5.03</f>
         <v>19.43</v>
       </c>
-      <c r="D262" s="35">
+      <c r="D262" s="51">
         <v>587</v>
       </c>
-      <c r="E262" s="40">
+      <c r="E262" s="51">
         <f t="shared" si="4"/>
         <v>11405.41</v>
       </c>
@@ -12430,12 +12466,12 @@
       <c r="B263" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C263" s="23">
+      <c r="C263" s="15">
         <f>SUM(C224:C261)</f>
         <v>1020.4639999999998</v>
       </c>
       <c r="D263" s="38"/>
-      <c r="E263" s="37">
+      <c r="E263" s="36">
         <f>SUM(E225:E261)</f>
         <v>110302.00600000001</v>
       </c>
@@ -12445,13 +12481,13 @@
       <c r="B264" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C264" s="20" t="s">
+      <c r="C264" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D264" s="20" t="s">
+      <c r="D264" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E264" s="21" t="s">
+      <c r="E264" s="60" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12462,14 +12498,14 @@
       <c r="B265" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C265" s="12">
+      <c r="C265" s="50">
         <f>1.2+4.95+4.95</f>
         <v>11.100000000000001</v>
       </c>
-      <c r="D265" s="35">
+      <c r="D265" s="51">
         <v>341</v>
       </c>
-      <c r="E265" s="40">
+      <c r="E265" s="51">
         <f t="shared" ref="E265:E329" si="5">C265*D265</f>
         <v>3785.1000000000004</v>
       </c>
@@ -12481,14 +12517,14 @@
       <c r="B266" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C266" s="12">
+      <c r="C266" s="50">
         <f>3.28+0.836</f>
         <v>4.1159999999999997</v>
       </c>
-      <c r="D266" s="35">
+      <c r="D266" s="51">
         <v>659</v>
       </c>
-      <c r="E266" s="40">
+      <c r="E266" s="51">
         <f t="shared" si="5"/>
         <v>2712.444</v>
       </c>
@@ -12500,14 +12536,14 @@
       <c r="B267" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C267" s="12">
+      <c r="C267" s="50">
         <f>2.38+0.624+3.86</f>
         <v>6.8639999999999999</v>
       </c>
-      <c r="D267" s="35">
+      <c r="D267" s="51">
         <v>689</v>
       </c>
-      <c r="E267" s="40">
+      <c r="E267" s="51">
         <f t="shared" si="5"/>
         <v>4729.2960000000003</v>
       </c>
@@ -12519,13 +12555,13 @@
       <c r="B268" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C268" s="12">
+      <c r="C268" s="50">
         <v>9</v>
       </c>
-      <c r="D268" s="35">
+      <c r="D268" s="51">
         <v>810</v>
       </c>
-      <c r="E268" s="40">
+      <c r="E268" s="51">
         <f t="shared" si="5"/>
         <v>7290</v>
       </c>
@@ -12537,14 +12573,14 @@
       <c r="B269" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C269" s="12">
+      <c r="C269" s="50">
         <f>1.3+5.07</f>
         <v>6.37</v>
       </c>
-      <c r="D269" s="35">
+      <c r="D269" s="51">
         <v>741</v>
       </c>
-      <c r="E269" s="40">
+      <c r="E269" s="51">
         <f t="shared" si="5"/>
         <v>4720.17</v>
       </c>
@@ -12556,13 +12592,13 @@
       <c r="B270" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C270" s="12">
-        <v>0</v>
-      </c>
-      <c r="D270" s="35">
+      <c r="C270" s="50">
+        <v>0</v>
+      </c>
+      <c r="D270" s="51">
         <v>152</v>
       </c>
-      <c r="E270" s="40">
+      <c r="E270" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -12574,13 +12610,13 @@
       <c r="B271" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C271" s="12">
-        <v>0</v>
-      </c>
-      <c r="D271" s="35">
+      <c r="C271" s="50">
+        <v>0</v>
+      </c>
+      <c r="D271" s="51">
         <v>145</v>
       </c>
-      <c r="E271" s="40">
+      <c r="E271" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -12592,13 +12628,13 @@
       <c r="B272" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C272" s="12">
+      <c r="C272" s="50">
         <v>84.7</v>
       </c>
-      <c r="D272" s="35">
+      <c r="D272" s="51">
         <v>280</v>
       </c>
-      <c r="E272" s="40">
+      <c r="E272" s="51">
         <f t="shared" si="5"/>
         <v>23716</v>
       </c>
@@ -12610,13 +12646,13 @@
       <c r="B273" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C273" s="12">
+      <c r="C273" s="50">
         <v>4.22</v>
       </c>
-      <c r="D273" s="35">
+      <c r="D273" s="51">
         <v>644</v>
       </c>
-      <c r="E273" s="40">
+      <c r="E273" s="51">
         <f t="shared" si="5"/>
         <v>2717.68</v>
       </c>
@@ -12628,13 +12664,13 @@
       <c r="B274" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C274" s="12">
+      <c r="C274" s="50">
         <v>19.5</v>
       </c>
-      <c r="D274" s="35">
+      <c r="D274" s="51">
         <v>435</v>
       </c>
-      <c r="E274" s="40">
+      <c r="E274" s="51">
         <f t="shared" si="5"/>
         <v>8482.5</v>
       </c>
@@ -12646,14 +12682,14 @@
       <c r="B275" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C275" s="12">
+      <c r="C275" s="50">
         <f>3.38+25.4</f>
         <v>28.779999999999998</v>
       </c>
-      <c r="D275" s="35">
+      <c r="D275" s="51">
         <v>95</v>
       </c>
-      <c r="E275" s="40">
+      <c r="E275" s="51">
         <f t="shared" si="5"/>
         <v>2734.1</v>
       </c>
@@ -12665,13 +12701,13 @@
       <c r="B276" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C276" s="12">
+      <c r="C276" s="50">
         <v>20</v>
       </c>
-      <c r="D276" s="35">
+      <c r="D276" s="51">
         <v>28</v>
       </c>
-      <c r="E276" s="40">
+      <c r="E276" s="51">
         <f t="shared" si="5"/>
         <v>560</v>
       </c>
@@ -12683,14 +12719,14 @@
       <c r="B277" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C277" s="12">
+      <c r="C277" s="50">
         <f>1.22+20.7</f>
         <v>21.919999999999998</v>
       </c>
-      <c r="D277" s="35">
+      <c r="D277" s="51">
         <v>442</v>
       </c>
-      <c r="E277" s="40">
+      <c r="E277" s="51">
         <f t="shared" si="5"/>
         <v>9688.64</v>
       </c>
@@ -12702,14 +12738,14 @@
       <c r="B278" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C278" s="12">
+      <c r="C278" s="50">
         <f>167.4+112.7</f>
         <v>280.10000000000002</v>
       </c>
-      <c r="D278" s="35">
+      <c r="D278" s="51">
         <v>164</v>
       </c>
-      <c r="E278" s="40">
+      <c r="E278" s="51">
         <f t="shared" si="5"/>
         <v>45936.4</v>
       </c>
@@ -12721,13 +12757,13 @@
       <c r="B279" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C279" s="12">
+      <c r="C279" s="50">
         <v>24.9</v>
       </c>
-      <c r="D279" s="35">
+      <c r="D279" s="51">
         <v>600</v>
       </c>
-      <c r="E279" s="40">
+      <c r="E279" s="51">
         <f t="shared" si="5"/>
         <v>14940</v>
       </c>
@@ -12739,13 +12775,13 @@
       <c r="B280" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C280" s="12">
-        <v>0</v>
-      </c>
-      <c r="D280" s="35">
+      <c r="C280" s="50">
+        <v>0</v>
+      </c>
+      <c r="D280" s="51">
         <v>900</v>
       </c>
-      <c r="E280" s="40">
+      <c r="E280" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -12757,13 +12793,13 @@
       <c r="B281" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C281" s="12">
-        <v>0</v>
-      </c>
-      <c r="D281" s="35">
+      <c r="C281" s="50">
+        <v>0</v>
+      </c>
+      <c r="D281" s="51">
         <v>400</v>
       </c>
-      <c r="E281" s="40">
+      <c r="E281" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -12775,13 +12811,13 @@
       <c r="B282" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C282" s="12">
-        <v>0</v>
-      </c>
-      <c r="D282" s="35">
+      <c r="C282" s="50">
+        <v>0</v>
+      </c>
+      <c r="D282" s="51">
         <v>66</v>
       </c>
-      <c r="E282" s="40">
+      <c r="E282" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -12793,13 +12829,13 @@
       <c r="B283" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C283" s="12">
-        <v>0</v>
-      </c>
-      <c r="D283" s="35">
+      <c r="C283" s="50">
+        <v>0</v>
+      </c>
+      <c r="D283" s="51">
         <v>55</v>
       </c>
-      <c r="E283" s="40">
+      <c r="E283" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -12811,14 +12847,14 @@
       <c r="B284" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C284" s="12">
+      <c r="C284" s="50">
         <f>34.4+148.2</f>
         <v>182.6</v>
       </c>
-      <c r="D284" s="35">
+      <c r="D284" s="51">
         <v>68</v>
       </c>
-      <c r="E284" s="40">
+      <c r="E284" s="51">
         <f t="shared" si="5"/>
         <v>12416.8</v>
       </c>
@@ -12830,13 +12866,13 @@
       <c r="B285" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C285" s="12">
-        <v>0</v>
-      </c>
-      <c r="D285" s="35">
+      <c r="C285" s="50">
+        <v>0</v>
+      </c>
+      <c r="D285" s="51">
         <v>80</v>
       </c>
-      <c r="E285" s="40">
+      <c r="E285" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -12848,13 +12884,13 @@
       <c r="B286" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C286" s="12">
+      <c r="C286" s="50">
         <v>10</v>
       </c>
-      <c r="D286" s="35">
+      <c r="D286" s="51">
         <v>46</v>
       </c>
-      <c r="E286" s="40">
+      <c r="E286" s="51">
         <f t="shared" si="5"/>
         <v>460</v>
       </c>
@@ -12866,13 +12902,13 @@
       <c r="B287" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C287" s="12">
+      <c r="C287" s="50">
         <v>20</v>
       </c>
-      <c r="D287" s="35">
+      <c r="D287" s="51">
         <v>110</v>
       </c>
-      <c r="E287" s="40">
+      <c r="E287" s="51">
         <f t="shared" si="5"/>
         <v>2200</v>
       </c>
@@ -12884,13 +12920,13 @@
       <c r="B288" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C288" s="12">
+      <c r="C288" s="50">
         <v>11</v>
       </c>
-      <c r="D288" s="35">
+      <c r="D288" s="51">
         <v>80</v>
       </c>
-      <c r="E288" s="40">
+      <c r="E288" s="51">
         <f t="shared" si="5"/>
         <v>880</v>
       </c>
@@ -12902,13 +12938,13 @@
       <c r="B289" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C289" s="12">
+      <c r="C289" s="50">
         <v>0.42</v>
       </c>
-      <c r="D289" s="35">
+      <c r="D289" s="51">
         <v>980</v>
       </c>
-      <c r="E289" s="40">
+      <c r="E289" s="51">
         <f t="shared" si="5"/>
         <v>411.59999999999997</v>
       </c>
@@ -12920,13 +12956,13 @@
       <c r="B290" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C290" s="12">
+      <c r="C290" s="50">
         <v>0.32</v>
       </c>
-      <c r="D290" s="35">
+      <c r="D290" s="51">
         <v>450</v>
       </c>
-      <c r="E290" s="40">
+      <c r="E290" s="51">
         <f t="shared" si="5"/>
         <v>144</v>
       </c>
@@ -12938,13 +12974,13 @@
       <c r="B291" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C291" s="12">
+      <c r="C291" s="50">
         <v>10</v>
       </c>
-      <c r="D291" s="35">
+      <c r="D291" s="51">
         <v>85</v>
       </c>
-      <c r="E291" s="40">
+      <c r="E291" s="51">
         <f t="shared" si="5"/>
         <v>850</v>
       </c>
@@ -12956,13 +12992,13 @@
       <c r="B292" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C292" s="12">
+      <c r="C292" s="50">
         <v>3</v>
       </c>
-      <c r="D292" s="35">
+      <c r="D292" s="51">
         <v>61</v>
       </c>
-      <c r="E292" s="40">
+      <c r="E292" s="51">
         <f t="shared" si="5"/>
         <v>183</v>
       </c>
@@ -12974,13 +13010,13 @@
       <c r="B293" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C293" s="12">
+      <c r="C293" s="50">
         <v>5</v>
       </c>
-      <c r="D293" s="35">
+      <c r="D293" s="51">
         <v>79</v>
       </c>
-      <c r="E293" s="40">
+      <c r="E293" s="51">
         <f t="shared" si="5"/>
         <v>395</v>
       </c>
@@ -12992,13 +13028,13 @@
       <c r="B294" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C294" s="12">
+      <c r="C294" s="50">
         <v>3</v>
       </c>
-      <c r="D294" s="35">
+      <c r="D294" s="51">
         <v>60</v>
       </c>
-      <c r="E294" s="40">
+      <c r="E294" s="51">
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
@@ -13007,16 +13043,16 @@
       <c r="A295" s="34">
         <v>296</v>
       </c>
-      <c r="B295" s="45" t="s">
+      <c r="B295" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="C295" s="12">
-        <v>0</v>
-      </c>
-      <c r="D295" s="35">
+      <c r="C295" s="50">
+        <v>0</v>
+      </c>
+      <c r="D295" s="51">
         <v>90</v>
       </c>
-      <c r="E295" s="40">
+      <c r="E295" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -13028,14 +13064,14 @@
       <c r="B296" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C296" s="12">
+      <c r="C296" s="50">
         <f>6.18+0.52+40.8</f>
         <v>47.5</v>
       </c>
-      <c r="D296" s="35">
+      <c r="D296" s="51">
         <v>44</v>
       </c>
-      <c r="E296" s="40">
+      <c r="E296" s="51">
         <f t="shared" si="5"/>
         <v>2090</v>
       </c>
@@ -13047,13 +13083,13 @@
       <c r="B297" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C297" s="12">
+      <c r="C297" s="50">
         <v>18.2</v>
       </c>
-      <c r="D297" s="35">
+      <c r="D297" s="51">
         <v>400</v>
       </c>
-      <c r="E297" s="40">
+      <c r="E297" s="51">
         <f t="shared" si="5"/>
         <v>7280</v>
       </c>
@@ -13065,13 +13101,13 @@
       <c r="B298" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C298" s="12">
+      <c r="C298" s="50">
         <v>27</v>
       </c>
-      <c r="D298" s="35">
+      <c r="D298" s="51">
         <v>530</v>
       </c>
-      <c r="E298" s="40">
+      <c r="E298" s="51">
         <f t="shared" si="5"/>
         <v>14310</v>
       </c>
@@ -13083,13 +13119,13 @@
       <c r="B299" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C299" s="12">
+      <c r="C299" s="50">
         <v>54</v>
       </c>
-      <c r="D299" s="35">
+      <c r="D299" s="51">
         <v>565</v>
       </c>
-      <c r="E299" s="40">
+      <c r="E299" s="51">
         <f t="shared" si="5"/>
         <v>30510</v>
       </c>
@@ -13101,13 +13137,13 @@
       <c r="B300" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C300" s="12">
+      <c r="C300" s="50">
         <v>28.6</v>
       </c>
-      <c r="D300" s="35">
+      <c r="D300" s="51">
         <v>460</v>
       </c>
-      <c r="E300" s="40">
+      <c r="E300" s="51">
         <f t="shared" si="5"/>
         <v>13156</v>
       </c>
@@ -13119,13 +13155,13 @@
       <c r="B301" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C301" s="12">
+      <c r="C301" s="50">
         <v>36.4</v>
       </c>
-      <c r="D301" s="35">
+      <c r="D301" s="51">
         <v>490</v>
       </c>
-      <c r="E301" s="40">
+      <c r="E301" s="51">
         <f t="shared" si="5"/>
         <v>17836</v>
       </c>
@@ -13137,13 +13173,13 @@
       <c r="B302" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C302" s="12">
+      <c r="C302" s="50">
         <v>18.2</v>
       </c>
-      <c r="D302" s="35">
+      <c r="D302" s="51">
         <v>400</v>
       </c>
-      <c r="E302" s="40">
+      <c r="E302" s="51">
         <f t="shared" si="5"/>
         <v>7280</v>
       </c>
@@ -13155,13 +13191,13 @@
       <c r="B303" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C303" s="12">
-        <v>0</v>
-      </c>
-      <c r="D303" s="35">
+      <c r="C303" s="50">
+        <v>0</v>
+      </c>
+      <c r="D303" s="51">
         <v>390</v>
       </c>
-      <c r="E303" s="40">
+      <c r="E303" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -13173,14 +13209,14 @@
       <c r="B304" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C304" s="12">
+      <c r="C304" s="50">
         <f>0.36+12.67</f>
         <v>13.03</v>
       </c>
-      <c r="D304" s="35">
+      <c r="D304" s="51">
         <v>82</v>
       </c>
-      <c r="E304" s="40">
+      <c r="E304" s="51">
         <f t="shared" si="5"/>
         <v>1068.46</v>
       </c>
@@ -13192,14 +13228,14 @@
       <c r="B305" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C305" s="12">
+      <c r="C305" s="50">
         <f>0.907+0.907</f>
         <v>1.8140000000000001</v>
       </c>
-      <c r="D305" s="35">
+      <c r="D305" s="51">
         <v>212</v>
       </c>
-      <c r="E305" s="40">
+      <c r="E305" s="51">
         <f t="shared" si="5"/>
         <v>384.56799999999998</v>
       </c>
@@ -13211,14 +13247,14 @@
       <c r="B306" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C306" s="12">
+      <c r="C306" s="50">
         <f>107.9+84.1+27.4</f>
         <v>219.4</v>
       </c>
-      <c r="D306" s="35">
+      <c r="D306" s="51">
         <v>116</v>
       </c>
-      <c r="E306" s="40">
+      <c r="E306" s="51">
         <f t="shared" si="5"/>
         <v>25450.400000000001</v>
       </c>
@@ -13230,14 +13266,14 @@
       <c r="B307" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C307" s="12">
+      <c r="C307" s="50">
         <f>0.98+16.7</f>
         <v>17.68</v>
       </c>
-      <c r="D307" s="35">
+      <c r="D307" s="51">
         <v>210</v>
       </c>
-      <c r="E307" s="40">
+      <c r="E307" s="51">
         <f t="shared" si="5"/>
         <v>3712.7999999999997</v>
       </c>
@@ -13247,12 +13283,12 @@
       <c r="B308" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C308" s="23">
+      <c r="C308" s="15">
         <f>SUM(C270:C307)</f>
         <v>1211.2840000000001</v>
       </c>
       <c r="D308" s="38"/>
-      <c r="E308" s="37">
+      <c r="E308" s="36">
         <f>SUM(E265:E307)</f>
         <v>273210.95799999998</v>
       </c>
@@ -13262,13 +13298,13 @@
       <c r="B309" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C309" s="20" t="s">
+      <c r="C309" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D309" s="20" t="s">
+      <c r="D309" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E309" s="21" t="s">
+      <c r="E309" s="60" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13279,13 +13315,13 @@
       <c r="B310" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C310" s="12">
-        <v>0</v>
-      </c>
-      <c r="D310" s="35">
+      <c r="C310" s="50">
+        <v>0</v>
+      </c>
+      <c r="D310" s="51">
         <v>65</v>
       </c>
-      <c r="E310" s="40">
+      <c r="E310" s="51">
         <f t="shared" ref="E310" si="6">C310*D310</f>
         <v>0</v>
       </c>
@@ -13297,13 +13333,13 @@
       <c r="B311" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C311" s="12">
+      <c r="C311" s="50">
         <v>46</v>
       </c>
-      <c r="D311" s="35">
+      <c r="D311" s="51">
         <v>110</v>
       </c>
-      <c r="E311" s="40">
+      <c r="E311" s="51">
         <f t="shared" si="5"/>
         <v>5060</v>
       </c>
@@ -13315,13 +13351,13 @@
       <c r="B312" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C312" s="12">
-        <v>0</v>
-      </c>
-      <c r="D312" s="35">
+      <c r="C312" s="50">
+        <v>0</v>
+      </c>
+      <c r="D312" s="51">
         <v>140</v>
       </c>
-      <c r="E312" s="40">
+      <c r="E312" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -13333,13 +13369,13 @@
       <c r="B313" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C313" s="12">
+      <c r="C313" s="50">
         <v>2.94</v>
       </c>
-      <c r="D313" s="35">
+      <c r="D313" s="51">
         <v>775</v>
       </c>
-      <c r="E313" s="40">
+      <c r="E313" s="51">
         <f t="shared" si="5"/>
         <v>2278.5</v>
       </c>
@@ -13351,13 +13387,13 @@
       <c r="B314" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C314" s="12">
-        <v>0</v>
-      </c>
-      <c r="D314" s="35">
+      <c r="C314" s="50">
+        <v>0</v>
+      </c>
+      <c r="D314" s="51">
         <v>390</v>
       </c>
-      <c r="E314" s="40">
+      <c r="E314" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -13369,13 +13405,13 @@
       <c r="B315" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C315" s="12">
+      <c r="C315" s="50">
         <v>40.86</v>
       </c>
-      <c r="D315" s="35">
+      <c r="D315" s="51">
         <v>50</v>
       </c>
-      <c r="E315" s="40">
+      <c r="E315" s="51">
         <f t="shared" si="5"/>
         <v>2043</v>
       </c>
@@ -13387,14 +13423,14 @@
       <c r="B316" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C316" s="12">
+      <c r="C316" s="50">
         <f>3.08+6</f>
         <v>9.08</v>
       </c>
-      <c r="D316" s="35">
+      <c r="D316" s="51">
         <v>64</v>
       </c>
-      <c r="E316" s="40">
+      <c r="E316" s="51">
         <f t="shared" si="5"/>
         <v>581.12</v>
       </c>
@@ -13406,14 +13442,14 @@
       <c r="B317" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C317" s="12">
+      <c r="C317" s="50">
         <f>1.66+4.52</f>
         <v>6.18</v>
       </c>
-      <c r="D317" s="35">
+      <c r="D317" s="51">
         <v>170</v>
       </c>
-      <c r="E317" s="40">
+      <c r="E317" s="51">
         <f t="shared" si="5"/>
         <v>1050.5999999999999</v>
       </c>
@@ -13425,13 +13461,13 @@
       <c r="B318" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C318" s="12">
-        <v>0</v>
-      </c>
-      <c r="D318" s="35">
+      <c r="C318" s="50">
+        <v>0</v>
+      </c>
+      <c r="D318" s="51">
         <v>44</v>
       </c>
-      <c r="E318" s="40">
+      <c r="E318" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -13443,14 +13479,14 @@
       <c r="B319" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C319" s="12">
+      <c r="C319" s="50">
         <f>2.85+1.56</f>
         <v>4.41</v>
       </c>
-      <c r="D319" s="35">
+      <c r="D319" s="51">
         <v>195</v>
       </c>
-      <c r="E319" s="40">
+      <c r="E319" s="51">
         <f t="shared" si="5"/>
         <v>859.95</v>
       </c>
@@ -13462,14 +13498,14 @@
       <c r="B320" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C320" s="12">
+      <c r="C320" s="50">
         <f>85+60+60+60</f>
         <v>265</v>
       </c>
-      <c r="D320" s="35">
+      <c r="D320" s="51">
         <v>5</v>
       </c>
-      <c r="E320" s="40">
+      <c r="E320" s="51">
         <f t="shared" si="5"/>
         <v>1325</v>
       </c>
@@ -13481,14 +13517,14 @@
       <c r="B321" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C321" s="12">
+      <c r="C321" s="50">
         <f>1.814+1.814</f>
         <v>3.6280000000000001</v>
       </c>
-      <c r="D321" s="35">
+      <c r="D321" s="51">
         <v>242</v>
       </c>
-      <c r="E321" s="40">
+      <c r="E321" s="51">
         <f t="shared" si="5"/>
         <v>877.976</v>
       </c>
@@ -13500,14 +13536,14 @@
       <c r="B322" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C322" s="12">
+      <c r="C322" s="50">
         <f>0.88+0.4+3.3</f>
         <v>4.58</v>
       </c>
-      <c r="D322" s="35">
+      <c r="D322" s="51">
         <v>290</v>
       </c>
-      <c r="E322" s="40">
+      <c r="E322" s="51">
         <f t="shared" si="5"/>
         <v>1328.2</v>
       </c>
@@ -13519,13 +13555,13 @@
       <c r="B323" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C323" s="12">
+      <c r="C323" s="50">
         <v>8</v>
       </c>
-      <c r="D323" s="35">
+      <c r="D323" s="51">
         <v>40</v>
       </c>
-      <c r="E323" s="40">
+      <c r="E323" s="51">
         <f t="shared" si="5"/>
         <v>320</v>
       </c>
@@ -13537,13 +13573,13 @@
       <c r="B324" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="C324" s="12">
+      <c r="C324" s="50">
         <v>6</v>
       </c>
-      <c r="D324" s="35">
+      <c r="D324" s="51">
         <v>70</v>
       </c>
-      <c r="E324" s="40">
+      <c r="E324" s="51">
         <f t="shared" si="5"/>
         <v>420</v>
       </c>
@@ -13555,14 +13591,14 @@
       <c r="B325" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C325" s="12">
+      <c r="C325" s="50">
         <f>4.66+4.74</f>
         <v>9.4</v>
       </c>
-      <c r="D325" s="35">
+      <c r="D325" s="51">
         <v>400</v>
       </c>
-      <c r="E325" s="40">
+      <c r="E325" s="51">
         <f t="shared" si="5"/>
         <v>3760</v>
       </c>
@@ -13574,13 +13610,13 @@
       <c r="B326" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C326" s="12">
+      <c r="C326" s="50">
         <v>110</v>
       </c>
-      <c r="D326" s="35">
+      <c r="D326" s="51">
         <v>360</v>
       </c>
-      <c r="E326" s="40">
+      <c r="E326" s="51">
         <f t="shared" si="5"/>
         <v>39600</v>
       </c>
@@ -13592,13 +13628,13 @@
       <c r="B327" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C327" s="12">
+      <c r="C327" s="50">
         <v>2.4</v>
       </c>
-      <c r="D327" s="35">
+      <c r="D327" s="51">
         <v>235</v>
       </c>
-      <c r="E327" s="40">
+      <c r="E327" s="51">
         <f t="shared" si="5"/>
         <v>564</v>
       </c>
@@ -13610,13 +13646,13 @@
       <c r="B328" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C328" s="12">
+      <c r="C328" s="50">
         <v>1279</v>
       </c>
-      <c r="D328" s="35">
+      <c r="D328" s="51">
         <v>114</v>
       </c>
-      <c r="E328" s="40">
+      <c r="E328" s="51">
         <f t="shared" si="5"/>
         <v>145806</v>
       </c>
@@ -13628,14 +13664,14 @@
       <c r="B329" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C329" s="12">
+      <c r="C329" s="50">
         <f>103.3+119.4+91.1+122.4+92.1</f>
         <v>528.29999999999995</v>
       </c>
-      <c r="D329" s="35">
+      <c r="D329" s="51">
         <v>116</v>
       </c>
-      <c r="E329" s="40">
+      <c r="E329" s="51">
         <f t="shared" si="5"/>
         <v>61282.799999999996</v>
       </c>
@@ -13647,14 +13683,14 @@
       <c r="B330" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C330" s="12">
+      <c r="C330" s="50">
         <f>8.3+40.9</f>
         <v>49.2</v>
       </c>
-      <c r="D330" s="35">
+      <c r="D330" s="51">
         <v>450</v>
       </c>
-      <c r="E330" s="40">
+      <c r="E330" s="51">
         <f t="shared" ref="E330:E334" si="7">C330*D330</f>
         <v>22140</v>
       </c>
@@ -13666,13 +13702,13 @@
       <c r="B331" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C331" s="12">
+      <c r="C331" s="50">
         <v>52.4</v>
       </c>
-      <c r="D331" s="35">
+      <c r="D331" s="51">
         <v>116</v>
       </c>
-      <c r="E331" s="40">
+      <c r="E331" s="51">
         <f t="shared" si="7"/>
         <v>6078.4</v>
       </c>
@@ -13684,14 +13720,14 @@
       <c r="B332" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C332" s="12">
+      <c r="C332" s="50">
         <f>94.5+2.8</f>
         <v>97.3</v>
       </c>
-      <c r="D332" s="35">
+      <c r="D332" s="51">
         <v>3</v>
       </c>
-      <c r="E332" s="40">
+      <c r="E332" s="51">
         <f t="shared" si="7"/>
         <v>291.89999999999998</v>
       </c>
@@ -13703,13 +13739,13 @@
       <c r="B333" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C333" s="12">
+      <c r="C333" s="50">
         <v>136.9</v>
       </c>
-      <c r="D333" s="35">
+      <c r="D333" s="51">
         <v>110</v>
       </c>
-      <c r="E333" s="40">
+      <c r="E333" s="51">
         <f t="shared" si="7"/>
         <v>15059</v>
       </c>
@@ -13721,13 +13757,13 @@
       <c r="B334" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C334" s="12">
+      <c r="C334" s="50">
         <v>5.3</v>
       </c>
-      <c r="D334" s="35">
+      <c r="D334" s="51">
         <v>50</v>
       </c>
-      <c r="E334" s="40">
+      <c r="E334" s="51">
         <f t="shared" si="7"/>
         <v>265</v>
       </c>
@@ -13737,21 +13773,20 @@
       <c r="B335" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C335" s="27">
+      <c r="C335" s="56">
         <f>SUM(C251:C284)</f>
         <v>1886.5729999999999</v>
       </c>
-      <c r="D335" s="2"/>
-      <c r="E335" s="24">
+      <c r="D335" s="57"/>
+      <c r="E335" s="57">
         <f>SUM(E310:E319)</f>
         <v>11873.170000000002</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C336" s="18"/>
-      <c r="E336" s="2"/>
-    </row>
-    <row r="337" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E336" s="57"/>
+    </row>
+    <row r="337" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B337" s="3" t="s">
         <v>270</v>
       </c>
@@ -13759,39 +13794,39 @@
         <f>C335+C308+C223+C179+C89+C44</f>
         <v>24372.597999999998</v>
       </c>
-      <c r="D337" s="25" t="s">
+      <c r="D337" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="E337" s="2">
+      <c r="E337" s="57">
         <f>E335+E308+E263+E223+E134+E44</f>
         <v>951437.90000000014</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C338" s="18"/>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G337" s="61"/>
+      <c r="H337" s="61"/>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
         <v>289</v>
       </c>
       <c r="B339" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C339" s="12">
+      <c r="C339" s="50">
         <v>684</v>
       </c>
-      <c r="D339" s="17">
+      <c r="D339" s="50">
         <v>1E-3</v>
       </c>
-      <c r="E339" s="11">
+      <c r="E339" s="50">
         <f t="shared" ref="E339" si="8">C339*D339</f>
         <v>0.68400000000000005</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G337:H337"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/INVENTARIO ZAVALETA.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/INVENTARIO ZAVALETA.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="330">
   <si>
     <t>SUCURSAL ZAVALETA 4 CARNES</t>
   </si>
@@ -1012,6 +1012,9 @@
   </si>
   <si>
     <t>RETAZO DE POLLO</t>
+  </si>
+  <si>
+    <t>VALOR REAL</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1026,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,8 +1109,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1204,8 +1215,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1259,13 +1288,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1350,12 +1441,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1381,8 +1466,38 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1394,6 +1509,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF33CCFF"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF6600"/>
       <color rgb="FFFF3300"/>
       <color rgb="FFFF9900"/>
@@ -1800,24 +1917,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="A2" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
@@ -7661,10 +7778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H339"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="F320" sqref="F320"/>
+    <sheetView tabSelected="1" topLeftCell="B319" workbookViewId="0">
+      <selection activeCell="G347" sqref="G347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7674,27 +7791,29 @@
     <col min="3" max="3" width="14.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="A2" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
@@ -7703,13 +7822,13 @@
       <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="47" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7720,14 +7839,14 @@
       <c r="B4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="48">
         <f>1.972+8.38+43</f>
         <v>53.352000000000004</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="49">
         <v>170</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="49">
         <f>C4*D4</f>
         <v>9069.84</v>
       </c>
@@ -7739,14 +7858,14 @@
       <c r="B5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="48">
         <f>4.74+1.77</f>
         <v>6.51</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="49">
         <v>118</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="49">
         <f t="shared" ref="E5:E68" si="0">C5*D5</f>
         <v>768.18</v>
       </c>
@@ -7758,13 +7877,13 @@
       <c r="B6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="48">
         <v>4.54</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="49">
         <v>98</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="49">
         <f t="shared" si="0"/>
         <v>444.92</v>
       </c>
@@ -7776,14 +7895,14 @@
       <c r="B7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="48">
         <f>5.18+5.195</f>
         <v>10.375</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="49">
         <v>116</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="49">
         <f t="shared" si="0"/>
         <v>1203.5</v>
       </c>
@@ -7795,13 +7914,13 @@
       <c r="B8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="48">
         <v>1.68</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="49">
         <v>98</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="49">
         <f t="shared" si="0"/>
         <v>164.64</v>
       </c>
@@ -7813,14 +7932,14 @@
       <c r="B9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="48">
         <f>7.86+3.58+12.17</f>
         <v>23.61</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="49">
         <v>95</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="49">
         <f t="shared" si="0"/>
         <v>2242.9499999999998</v>
       </c>
@@ -7832,13 +7951,13 @@
       <c r="B10" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="50">
-        <v>0</v>
-      </c>
-      <c r="D10" s="51">
+      <c r="C10" s="48">
+        <v>0</v>
+      </c>
+      <c r="D10" s="49">
         <v>400</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7850,13 +7969,13 @@
       <c r="B11" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="50">
-        <v>0</v>
-      </c>
-      <c r="D11" s="51">
+      <c r="C11" s="48">
+        <v>0</v>
+      </c>
+      <c r="D11" s="49">
         <v>400</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7868,13 +7987,13 @@
       <c r="B12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="50">
-        <v>0</v>
-      </c>
-      <c r="D12" s="51">
+      <c r="C12" s="48">
+        <v>0</v>
+      </c>
+      <c r="D12" s="49">
         <v>400</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7886,13 +8005,13 @@
       <c r="B13" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="50">
-        <v>0</v>
-      </c>
-      <c r="D13" s="51">
+      <c r="C13" s="48">
+        <v>0</v>
+      </c>
+      <c r="D13" s="49">
         <v>400</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7904,13 +8023,13 @@
       <c r="B14" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="50">
-        <v>0</v>
-      </c>
-      <c r="D14" s="51">
+      <c r="C14" s="48">
+        <v>0</v>
+      </c>
+      <c r="D14" s="49">
         <v>2000</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7922,14 +8041,14 @@
       <c r="B15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="48">
         <f>2.248+1</f>
         <v>3.2480000000000002</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="49">
         <v>630</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="49">
         <f t="shared" si="0"/>
         <v>2046.2400000000002</v>
       </c>
@@ -7941,14 +8060,14 @@
       <c r="B16" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="48">
         <f>6.43+1.756</f>
         <v>8.1859999999999999</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="49">
         <v>110</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="49">
         <f t="shared" si="0"/>
         <v>900.46</v>
       </c>
@@ -7960,13 +8079,13 @@
       <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="48">
         <v>6.3</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="49">
         <v>165</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="49">
         <f t="shared" si="0"/>
         <v>1039.5</v>
       </c>
@@ -7978,13 +8097,13 @@
       <c r="B18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="48">
         <v>16</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="49">
         <v>12</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="49">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
@@ -7996,13 +8115,13 @@
       <c r="B19" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="50">
-        <v>0</v>
-      </c>
-      <c r="D19" s="51">
+      <c r="C19" s="48">
+        <v>0</v>
+      </c>
+      <c r="D19" s="49">
         <v>50</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8014,13 +8133,13 @@
       <c r="B20" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="50">
-        <v>0</v>
-      </c>
-      <c r="D20" s="51">
+      <c r="C20" s="48">
+        <v>0</v>
+      </c>
+      <c r="D20" s="49">
         <v>75</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8032,13 +8151,13 @@
       <c r="B21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="50">
-        <v>0</v>
-      </c>
-      <c r="D21" s="51">
+      <c r="C21" s="48">
+        <v>0</v>
+      </c>
+      <c r="D21" s="49">
         <v>46</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8050,13 +8169,13 @@
       <c r="B22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="48">
         <v>7</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="49">
         <v>59</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="49">
         <f t="shared" si="0"/>
         <v>413</v>
       </c>
@@ -8068,13 +8187,13 @@
       <c r="B23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="48">
         <v>2</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="49">
         <v>82</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="49">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
@@ -8086,13 +8205,13 @@
       <c r="B24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="48">
         <v>1</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="49">
         <v>82</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="49">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
@@ -8104,13 +8223,13 @@
       <c r="B25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="48">
         <v>1</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="49">
         <v>66</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="49">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
@@ -8122,13 +8241,13 @@
       <c r="B26" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="50">
-        <v>0</v>
-      </c>
-      <c r="D26" s="51">
+      <c r="C26" s="48">
+        <v>0</v>
+      </c>
+      <c r="D26" s="49">
         <v>88</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="49">
         <f>C26*D26</f>
         <v>0</v>
       </c>
@@ -8140,13 +8259,13 @@
       <c r="B27" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C27" s="50">
-        <v>0</v>
-      </c>
-      <c r="D27" s="51">
+      <c r="C27" s="48">
+        <v>0</v>
+      </c>
+      <c r="D27" s="49">
         <v>12</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8158,13 +8277,13 @@
       <c r="B28" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="50">
-        <v>0</v>
-      </c>
-      <c r="D28" s="51">
+      <c r="C28" s="48">
+        <v>0</v>
+      </c>
+      <c r="D28" s="49">
         <v>46</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8176,13 +8295,13 @@
       <c r="B29" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="50">
-        <v>0</v>
-      </c>
-      <c r="D29" s="51">
+      <c r="C29" s="48">
+        <v>0</v>
+      </c>
+      <c r="D29" s="49">
         <v>42</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8194,13 +8313,13 @@
       <c r="B30" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="48">
         <v>8.34</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="49">
         <v>104</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="49">
         <f t="shared" si="0"/>
         <v>867.36</v>
       </c>
@@ -8212,13 +8331,13 @@
       <c r="B31" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="50">
+      <c r="C31" s="48">
         <v>3.516</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="49">
         <v>590</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="49">
         <f t="shared" si="0"/>
         <v>2074.44</v>
       </c>
@@ -8230,14 +8349,14 @@
       <c r="B32" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="48">
         <f>5.125+14</f>
         <v>19.125</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="49">
         <v>103</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="49">
         <f t="shared" si="0"/>
         <v>1969.875</v>
       </c>
@@ -8249,13 +8368,13 @@
       <c r="B33" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33" s="48">
         <v>1.4750000000000001</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="49">
         <v>135</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="49">
         <f t="shared" si="0"/>
         <v>199.125</v>
       </c>
@@ -8267,14 +8386,14 @@
       <c r="B34" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="48">
         <f>5.94+2.32</f>
         <v>8.26</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="49">
         <v>315</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="49">
         <f t="shared" si="0"/>
         <v>2601.9</v>
       </c>
@@ -8286,13 +8405,13 @@
       <c r="B35" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="48">
         <v>9.7200000000000006</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="49">
         <v>160</v>
       </c>
-      <c r="E35" s="51">
+      <c r="E35" s="49">
         <f t="shared" si="0"/>
         <v>1555.2</v>
       </c>
@@ -8304,13 +8423,13 @@
       <c r="B36" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="48">
         <v>2.44</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="49">
         <v>112</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="49">
         <f t="shared" si="0"/>
         <v>273.27999999999997</v>
       </c>
@@ -8322,13 +8441,13 @@
       <c r="B37" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37" s="48">
         <v>3</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="49">
         <v>26</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="49">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
@@ -8340,13 +8459,13 @@
       <c r="B38" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="50">
-        <v>0</v>
-      </c>
-      <c r="D38" s="51">
+      <c r="C38" s="48">
+        <v>0</v>
+      </c>
+      <c r="D38" s="49">
         <v>160</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8358,13 +8477,13 @@
       <c r="B39" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="50">
+      <c r="C39" s="48">
         <v>8.9700000000000006</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="49">
         <v>70</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E39" s="49">
         <f t="shared" si="0"/>
         <v>627.90000000000009</v>
       </c>
@@ -8376,14 +8495,14 @@
       <c r="B40" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="50">
+      <c r="C40" s="48">
         <f>9.63+55.8</f>
         <v>65.429999999999993</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="49">
         <v>140</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="49">
         <f t="shared" si="0"/>
         <v>9160.1999999999989</v>
       </c>
@@ -8395,13 +8514,13 @@
       <c r="B41" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="50">
+      <c r="C41" s="48">
         <v>9.23</v>
       </c>
-      <c r="D41" s="51">
+      <c r="D41" s="49">
         <v>50</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="49">
         <f t="shared" si="0"/>
         <v>461.5</v>
       </c>
@@ -8413,14 +8532,14 @@
       <c r="B42" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="48">
         <f>5.755+1.96</f>
         <v>7.7149999999999999</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="49">
         <v>590</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="49">
         <f t="shared" si="0"/>
         <v>4551.8500000000004</v>
       </c>
@@ -8432,13 +8551,13 @@
       <c r="B43" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="50">
+      <c r="C43" s="48">
         <v>5.77</v>
       </c>
-      <c r="D43" s="51">
+      <c r="D43" s="49">
         <v>90</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="49">
         <f t="shared" si="0"/>
         <v>519.29999999999995</v>
       </c>
@@ -8467,13 +8586,13 @@
       <c r="B45" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="58" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8484,13 +8603,13 @@
       <c r="B46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="50">
+      <c r="C46" s="48">
         <v>6</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D46" s="49">
         <v>165</v>
       </c>
-      <c r="E46" s="51">
+      <c r="E46" s="49">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
@@ -8502,14 +8621,14 @@
       <c r="B47" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="50">
+      <c r="C47" s="48">
         <f>3.612+775+18.5+2.8+2.1+4.1+1988.6</f>
         <v>2794.712</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="49">
         <v>125</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E47" s="49">
         <f t="shared" si="0"/>
         <v>349339</v>
       </c>
@@ -8521,14 +8640,14 @@
       <c r="B48" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="50">
+      <c r="C48" s="48">
         <f>0.72+4.57+8.1</f>
         <v>13.39</v>
       </c>
-      <c r="D48" s="51">
+      <c r="D48" s="49">
         <v>92</v>
       </c>
-      <c r="E48" s="51">
+      <c r="E48" s="49">
         <f t="shared" si="0"/>
         <v>1231.8800000000001</v>
       </c>
@@ -8540,14 +8659,14 @@
       <c r="B49" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="50">
+      <c r="C49" s="48">
         <f>0.458+4.7+10.05</f>
         <v>15.208000000000002</v>
       </c>
-      <c r="D49" s="51">
+      <c r="D49" s="49">
         <v>92</v>
       </c>
-      <c r="E49" s="51">
+      <c r="E49" s="49">
         <f t="shared" si="0"/>
         <v>1399.1360000000002</v>
       </c>
@@ -8559,14 +8678,14 @@
       <c r="B50" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="50">
+      <c r="C50" s="48">
         <f>9.022+28.1</f>
         <v>37.122</v>
       </c>
-      <c r="D50" s="51">
+      <c r="D50" s="49">
         <v>214</v>
       </c>
-      <c r="E50" s="51">
+      <c r="E50" s="49">
         <f t="shared" si="0"/>
         <v>7944.1080000000002</v>
       </c>
@@ -8578,14 +8697,14 @@
       <c r="B51" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="50">
+      <c r="C51" s="48">
         <f>20.6+12.72+12.69</f>
         <v>46.01</v>
       </c>
-      <c r="D51" s="51">
+      <c r="D51" s="49">
         <v>100</v>
       </c>
-      <c r="E51" s="51">
+      <c r="E51" s="49">
         <f t="shared" si="0"/>
         <v>4601</v>
       </c>
@@ -8597,13 +8716,13 @@
       <c r="B52" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="50">
+      <c r="C52" s="48">
         <v>11.46</v>
       </c>
-      <c r="D52" s="51">
+      <c r="D52" s="49">
         <v>82</v>
       </c>
-      <c r="E52" s="51">
+      <c r="E52" s="49">
         <f t="shared" si="0"/>
         <v>939.72</v>
       </c>
@@ -8615,14 +8734,14 @@
       <c r="B53" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="50">
+      <c r="C53" s="48">
         <f>33+69+5.38</f>
         <v>107.38</v>
       </c>
-      <c r="D53" s="51">
+      <c r="D53" s="49">
         <v>110</v>
       </c>
-      <c r="E53" s="51">
+      <c r="E53" s="49">
         <f t="shared" si="0"/>
         <v>11811.8</v>
       </c>
@@ -8634,14 +8753,14 @@
       <c r="B54" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="50">
+      <c r="C54" s="48">
         <f>9+4.56+10.33+10.38</f>
         <v>34.270000000000003</v>
       </c>
-      <c r="D54" s="51">
+      <c r="D54" s="49">
         <v>175</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E54" s="49">
         <f t="shared" si="0"/>
         <v>5997.2500000000009</v>
       </c>
@@ -8653,13 +8772,13 @@
       <c r="B55" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="48">
         <v>1.8120000000000001</v>
       </c>
-      <c r="D55" s="51">
+      <c r="D55" s="49">
         <v>140</v>
       </c>
-      <c r="E55" s="51">
+      <c r="E55" s="49">
         <f t="shared" si="0"/>
         <v>253.68</v>
       </c>
@@ -8671,14 +8790,14 @@
       <c r="B56" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="50">
+      <c r="C56" s="48">
         <f>5.298+1.076+24.1+6.5+9.43+12.78+90</f>
         <v>149.184</v>
       </c>
-      <c r="D56" s="51">
+      <c r="D56" s="49">
         <v>74</v>
       </c>
-      <c r="E56" s="51">
+      <c r="E56" s="49">
         <f t="shared" si="0"/>
         <v>11039.616</v>
       </c>
@@ -8690,14 +8809,14 @@
       <c r="B57" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="50">
+      <c r="C57" s="48">
         <f>9.695+27.8+28.7+27</f>
         <v>93.195000000000007</v>
       </c>
-      <c r="D57" s="51">
+      <c r="D57" s="49">
         <v>58</v>
       </c>
-      <c r="E57" s="51">
+      <c r="E57" s="49">
         <f t="shared" si="0"/>
         <v>5405.31</v>
       </c>
@@ -8709,14 +8828,14 @@
       <c r="B58" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="50">
+      <c r="C58" s="48">
         <f>2.894+4.46+29.3+28.2+14.8</f>
         <v>79.653999999999996</v>
       </c>
-      <c r="D58" s="51">
+      <c r="D58" s="49">
         <v>58</v>
       </c>
-      <c r="E58" s="51">
+      <c r="E58" s="49">
         <f t="shared" si="0"/>
         <v>4619.9319999999998</v>
       </c>
@@ -8728,14 +8847,14 @@
       <c r="B59" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="50">
+      <c r="C59" s="48">
         <f>8.07+2.58+53.6+15.8+3.5</f>
         <v>83.55</v>
       </c>
-      <c r="D59" s="51">
+      <c r="D59" s="49">
         <v>80</v>
       </c>
-      <c r="E59" s="51">
+      <c r="E59" s="49">
         <f t="shared" si="0"/>
         <v>6684</v>
       </c>
@@ -8747,14 +8866,14 @@
       <c r="B60" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="50">
+      <c r="C60" s="48">
         <f>3+1</f>
         <v>4</v>
       </c>
-      <c r="D60" s="51">
+      <c r="D60" s="49">
         <v>59</v>
       </c>
-      <c r="E60" s="51">
+      <c r="E60" s="49">
         <f t="shared" si="0"/>
         <v>236</v>
       </c>
@@ -8766,13 +8885,13 @@
       <c r="B61" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="50">
+      <c r="C61" s="48">
         <v>5</v>
       </c>
-      <c r="D61" s="51">
+      <c r="D61" s="49">
         <v>62</v>
       </c>
-      <c r="E61" s="51">
+      <c r="E61" s="49">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
@@ -8784,13 +8903,13 @@
       <c r="B62" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="50">
+      <c r="C62" s="48">
         <v>2</v>
       </c>
-      <c r="D62" s="51">
+      <c r="D62" s="49">
         <v>61</v>
       </c>
-      <c r="E62" s="51">
+      <c r="E62" s="49">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
@@ -8802,13 +8921,13 @@
       <c r="B63" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="50">
+      <c r="C63" s="48">
         <v>2</v>
       </c>
-      <c r="D63" s="51">
+      <c r="D63" s="49">
         <v>40</v>
       </c>
-      <c r="E63" s="51">
+      <c r="E63" s="49">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -8820,13 +8939,13 @@
       <c r="B64" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="50">
+      <c r="C64" s="48">
         <v>8</v>
       </c>
-      <c r="D64" s="51">
+      <c r="D64" s="49">
         <v>20</v>
       </c>
-      <c r="E64" s="51">
+      <c r="E64" s="49">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
@@ -8838,13 +8957,13 @@
       <c r="B65" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="50">
+      <c r="C65" s="48">
         <v>5</v>
       </c>
-      <c r="D65" s="51">
+      <c r="D65" s="49">
         <v>29</v>
       </c>
-      <c r="E65" s="51">
+      <c r="E65" s="49">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
@@ -8856,13 +8975,13 @@
       <c r="B66" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="50">
+      <c r="C66" s="48">
         <v>30</v>
       </c>
-      <c r="D66" s="51">
+      <c r="D66" s="49">
         <v>60</v>
       </c>
-      <c r="E66" s="51">
+      <c r="E66" s="49">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
@@ -8874,14 +8993,14 @@
       <c r="B67" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="50">
+      <c r="C67" s="48">
         <f>7.21+5.18+0.25+0.535+0.58+1.5+1.47</f>
         <v>16.725000000000001</v>
       </c>
-      <c r="D67" s="51">
+      <c r="D67" s="49">
         <v>210</v>
       </c>
-      <c r="E67" s="51">
+      <c r="E67" s="49">
         <f t="shared" si="0"/>
         <v>3512.2500000000005</v>
       </c>
@@ -8893,13 +9012,13 @@
       <c r="B68" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C68" s="50">
+      <c r="C68" s="48">
         <v>2</v>
       </c>
-      <c r="D68" s="51">
+      <c r="D68" s="49">
         <v>85</v>
       </c>
-      <c r="E68" s="51">
+      <c r="E68" s="49">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -8911,13 +9030,13 @@
       <c r="B69" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="50">
-        <v>0</v>
-      </c>
-      <c r="D69" s="51">
+      <c r="C69" s="48">
+        <v>0</v>
+      </c>
+      <c r="D69" s="49">
         <v>95</v>
       </c>
-      <c r="E69" s="51">
+      <c r="E69" s="49">
         <f t="shared" ref="E69:E132" si="1">C69*D69</f>
         <v>0</v>
       </c>
@@ -8929,13 +9048,13 @@
       <c r="B70" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="50">
+      <c r="C70" s="48">
         <v>3</v>
       </c>
-      <c r="D70" s="51">
+      <c r="D70" s="49">
         <v>46</v>
       </c>
-      <c r="E70" s="51">
+      <c r="E70" s="49">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
@@ -8947,14 +9066,14 @@
       <c r="B71" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="50">
+      <c r="C71" s="48">
         <f>1.5+15.1+2.16</f>
         <v>18.760000000000002</v>
       </c>
-      <c r="D71" s="51">
+      <c r="D71" s="49">
         <v>113</v>
       </c>
-      <c r="E71" s="51">
+      <c r="E71" s="49">
         <f t="shared" si="1"/>
         <v>2119.88</v>
       </c>
@@ -8966,14 +9085,14 @@
       <c r="B72" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="50">
+      <c r="C72" s="48">
         <f>51.1+43.01+12.8+5.48</f>
         <v>112.39</v>
       </c>
-      <c r="D72" s="51">
+      <c r="D72" s="49">
         <v>84</v>
       </c>
-      <c r="E72" s="51">
+      <c r="E72" s="49">
         <f t="shared" si="1"/>
         <v>9440.76</v>
       </c>
@@ -8985,13 +9104,13 @@
       <c r="B73" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="50">
+      <c r="C73" s="48">
         <v>5</v>
       </c>
-      <c r="D73" s="51">
+      <c r="D73" s="49">
         <v>69</v>
       </c>
-      <c r="E73" s="51">
+      <c r="E73" s="49">
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
@@ -9003,13 +9122,13 @@
       <c r="B74" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="50">
+      <c r="C74" s="48">
         <v>15</v>
       </c>
-      <c r="D74" s="51">
+      <c r="D74" s="49">
         <v>26</v>
       </c>
-      <c r="E74" s="51">
+      <c r="E74" s="49">
         <f t="shared" si="1"/>
         <v>390</v>
       </c>
@@ -9021,13 +9140,13 @@
       <c r="B75" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="50">
+      <c r="C75" s="48">
         <v>1.39</v>
       </c>
-      <c r="D75" s="51">
+      <c r="D75" s="49">
         <v>280</v>
       </c>
-      <c r="E75" s="51">
+      <c r="E75" s="49">
         <f t="shared" si="1"/>
         <v>389.2</v>
       </c>
@@ -9039,13 +9158,13 @@
       <c r="B76" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="50">
+      <c r="C76" s="48">
         <v>72</v>
       </c>
-      <c r="D76" s="51">
+      <c r="D76" s="49">
         <v>26</v>
       </c>
-      <c r="E76" s="51">
+      <c r="E76" s="49">
         <f t="shared" si="1"/>
         <v>1872</v>
       </c>
@@ -9057,13 +9176,13 @@
       <c r="B77" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="50">
+      <c r="C77" s="48">
         <v>10</v>
       </c>
-      <c r="D77" s="51">
+      <c r="D77" s="49">
         <v>50</v>
       </c>
-      <c r="E77" s="51">
+      <c r="E77" s="49">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
@@ -9075,13 +9194,13 @@
       <c r="B78" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="50">
+      <c r="C78" s="48">
         <v>10</v>
       </c>
-      <c r="D78" s="51">
+      <c r="D78" s="49">
         <v>68</v>
       </c>
-      <c r="E78" s="51">
+      <c r="E78" s="49">
         <f t="shared" si="1"/>
         <v>680</v>
       </c>
@@ -9093,13 +9212,13 @@
       <c r="B79" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="50">
+      <c r="C79" s="48">
         <v>21</v>
       </c>
-      <c r="D79" s="51">
+      <c r="D79" s="49">
         <v>12</v>
       </c>
-      <c r="E79" s="51">
+      <c r="E79" s="49">
         <f t="shared" si="1"/>
         <v>252</v>
       </c>
@@ -9111,13 +9230,13 @@
       <c r="B80" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C80" s="50">
-        <v>0</v>
-      </c>
-      <c r="D80" s="51">
+      <c r="C80" s="48">
+        <v>0</v>
+      </c>
+      <c r="D80" s="49">
         <v>28</v>
       </c>
-      <c r="E80" s="51">
+      <c r="E80" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9129,14 +9248,14 @@
       <c r="B81" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="50">
+      <c r="C81" s="48">
         <f>1+10</f>
         <v>11</v>
       </c>
-      <c r="D81" s="51">
+      <c r="D81" s="49">
         <v>110</v>
       </c>
-      <c r="E81" s="51">
+      <c r="E81" s="49">
         <f t="shared" si="1"/>
         <v>1210</v>
       </c>
@@ -9148,14 +9267,14 @@
       <c r="B82" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="50">
+      <c r="C82" s="48">
         <f>19.8+90</f>
         <v>109.8</v>
       </c>
-      <c r="D82" s="51">
+      <c r="D82" s="49">
         <v>45</v>
       </c>
-      <c r="E82" s="51">
+      <c r="E82" s="49">
         <f t="shared" si="1"/>
         <v>4941</v>
       </c>
@@ -9167,13 +9286,13 @@
       <c r="B83" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C83" s="50">
+      <c r="C83" s="48">
         <v>2</v>
       </c>
-      <c r="D83" s="51">
+      <c r="D83" s="49">
         <v>75</v>
       </c>
-      <c r="E83" s="51">
+      <c r="E83" s="49">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
@@ -9185,13 +9304,13 @@
       <c r="B84" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="50">
+      <c r="C84" s="48">
         <v>5</v>
       </c>
-      <c r="D84" s="51">
+      <c r="D84" s="49">
         <v>75</v>
       </c>
-      <c r="E84" s="51">
+      <c r="E84" s="49">
         <f t="shared" si="1"/>
         <v>375</v>
       </c>
@@ -9203,13 +9322,13 @@
       <c r="B85" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C85" s="50">
+      <c r="C85" s="48">
         <v>7.5</v>
       </c>
-      <c r="D85" s="51">
+      <c r="D85" s="49">
         <v>60</v>
       </c>
-      <c r="E85" s="51">
+      <c r="E85" s="49">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
@@ -9221,13 +9340,13 @@
       <c r="B86" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C86" s="50">
+      <c r="C86" s="48">
         <v>26</v>
       </c>
-      <c r="D86" s="51">
+      <c r="D86" s="49">
         <v>19</v>
       </c>
-      <c r="E86" s="51">
+      <c r="E86" s="49">
         <f t="shared" si="1"/>
         <v>494</v>
       </c>
@@ -9239,13 +9358,13 @@
       <c r="B87" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C87" s="50">
+      <c r="C87" s="48">
         <v>50</v>
       </c>
-      <c r="D87" s="51">
+      <c r="D87" s="49">
         <v>20</v>
       </c>
-      <c r="E87" s="51">
+      <c r="E87" s="49">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
@@ -9257,13 +9376,13 @@
       <c r="B88" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C88" s="50">
+      <c r="C88" s="48">
         <v>49</v>
       </c>
-      <c r="D88" s="51">
+      <c r="D88" s="49">
         <v>22</v>
       </c>
-      <c r="E88" s="51">
+      <c r="E88" s="49">
         <f t="shared" si="1"/>
         <v>1078</v>
       </c>
@@ -9288,13 +9407,13 @@
       <c r="B90" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="59" t="s">
+      <c r="C90" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="59" t="s">
+      <c r="D90" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="60" t="s">
+      <c r="E90" s="58" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9305,13 +9424,13 @@
       <c r="B91" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C91" s="50">
+      <c r="C91" s="48">
         <v>21</v>
       </c>
-      <c r="D91" s="51">
+      <c r="D91" s="49">
         <v>24</v>
       </c>
-      <c r="E91" s="51">
+      <c r="E91" s="49">
         <f t="shared" si="1"/>
         <v>504</v>
       </c>
@@ -9323,13 +9442,13 @@
       <c r="B92" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C92" s="50">
+      <c r="C92" s="48">
         <v>36</v>
       </c>
-      <c r="D92" s="51">
+      <c r="D92" s="49">
         <v>17</v>
       </c>
-      <c r="E92" s="51">
+      <c r="E92" s="49">
         <f t="shared" si="1"/>
         <v>612</v>
       </c>
@@ -9341,13 +9460,13 @@
       <c r="B93" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C93" s="52">
+      <c r="C93" s="50">
         <v>19</v>
       </c>
-      <c r="D93" s="51">
+      <c r="D93" s="49">
         <v>14</v>
       </c>
-      <c r="E93" s="51">
+      <c r="E93" s="49">
         <f t="shared" si="1"/>
         <v>266</v>
       </c>
@@ -9359,13 +9478,13 @@
       <c r="B94" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C94" s="50">
-        <v>0</v>
-      </c>
-      <c r="D94" s="51">
+      <c r="C94" s="48">
+        <v>0</v>
+      </c>
+      <c r="D94" s="49">
         <v>54</v>
       </c>
-      <c r="E94" s="51">
+      <c r="E94" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9377,13 +9496,13 @@
       <c r="B95" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C95" s="50">
+      <c r="C95" s="48">
         <v>1</v>
       </c>
-      <c r="D95" s="51">
+      <c r="D95" s="49">
         <v>125</v>
       </c>
-      <c r="E95" s="51">
+      <c r="E95" s="49">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
@@ -9395,14 +9514,14 @@
       <c r="B96" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C96" s="50">
+      <c r="C96" s="48">
         <f>1.688+0.276</f>
         <v>1.964</v>
       </c>
-      <c r="D96" s="51">
+      <c r="D96" s="49">
         <v>60</v>
       </c>
-      <c r="E96" s="51">
+      <c r="E96" s="49">
         <f t="shared" si="1"/>
         <v>117.84</v>
       </c>
@@ -9414,13 +9533,13 @@
       <c r="B97" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C97" s="50">
-        <v>0</v>
-      </c>
-      <c r="D97" s="51">
+      <c r="C97" s="48">
+        <v>0</v>
+      </c>
+      <c r="D97" s="49">
         <v>45</v>
       </c>
-      <c r="E97" s="51">
+      <c r="E97" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9432,14 +9551,14 @@
       <c r="B98" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C98" s="50">
+      <c r="C98" s="48">
         <f>9+10.12</f>
         <v>19.119999999999997</v>
       </c>
-      <c r="D98" s="51">
+      <c r="D98" s="49">
         <v>88</v>
       </c>
-      <c r="E98" s="51">
+      <c r="E98" s="49">
         <f t="shared" si="1"/>
         <v>1682.5599999999997</v>
       </c>
@@ -9451,14 +9570,14 @@
       <c r="B99" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C99" s="50">
+      <c r="C99" s="48">
         <f>7.3+12.14+2.048</f>
         <v>21.488</v>
       </c>
-      <c r="D99" s="51">
+      <c r="D99" s="49">
         <v>98</v>
       </c>
-      <c r="E99" s="51">
+      <c r="E99" s="49">
         <f t="shared" si="1"/>
         <v>2105.8240000000001</v>
       </c>
@@ -9470,14 +9589,14 @@
       <c r="B100" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C100" s="50">
+      <c r="C100" s="48">
         <f>1.4+14.3</f>
         <v>15.700000000000001</v>
       </c>
-      <c r="D100" s="51">
+      <c r="D100" s="49">
         <v>80</v>
       </c>
-      <c r="E100" s="51">
+      <c r="E100" s="49">
         <f t="shared" si="1"/>
         <v>1256</v>
       </c>
@@ -9489,14 +9608,14 @@
       <c r="B101" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C101" s="50">
+      <c r="C101" s="48">
         <f>3.612+0.265+6.9+9.8</f>
         <v>20.577000000000002</v>
       </c>
-      <c r="D101" s="51">
+      <c r="D101" s="49">
         <v>94</v>
       </c>
-      <c r="E101" s="51">
+      <c r="E101" s="49">
         <f t="shared" si="1"/>
         <v>1934.2380000000001</v>
       </c>
@@ -9508,14 +9627,14 @@
       <c r="B102" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C102" s="50">
+      <c r="C102" s="48">
         <f>4+2.23</f>
         <v>6.23</v>
       </c>
-      <c r="D102" s="51">
+      <c r="D102" s="49">
         <v>60</v>
       </c>
-      <c r="E102" s="51">
+      <c r="E102" s="49">
         <f t="shared" si="1"/>
         <v>373.8</v>
       </c>
@@ -9527,14 +9646,14 @@
       <c r="B103" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C103" s="50">
+      <c r="C103" s="48">
         <f>11.3-3.9+12.52-2.2</f>
         <v>17.720000000000002</v>
       </c>
-      <c r="D103" s="51">
+      <c r="D103" s="49">
         <v>80</v>
       </c>
-      <c r="E103" s="51">
+      <c r="E103" s="49">
         <f t="shared" si="1"/>
         <v>1417.6000000000001</v>
       </c>
@@ -9546,14 +9665,14 @@
       <c r="B104" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C104" s="50">
+      <c r="C104" s="48">
         <f>1.4+2.94+538.1+91.5+627.5</f>
         <v>1261.44</v>
       </c>
-      <c r="D104" s="51">
+      <c r="D104" s="49">
         <v>36</v>
       </c>
-      <c r="E104" s="51">
+      <c r="E104" s="49">
         <f t="shared" si="1"/>
         <v>45411.840000000004</v>
       </c>
@@ -9565,14 +9684,14 @@
       <c r="B105" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C105" s="50">
+      <c r="C105" s="48">
         <f>9.14-3.9+7.26</f>
         <v>12.5</v>
       </c>
-      <c r="D105" s="51">
+      <c r="D105" s="49">
         <v>74</v>
       </c>
-      <c r="E105" s="51">
+      <c r="E105" s="49">
         <f t="shared" si="1"/>
         <v>925</v>
       </c>
@@ -9584,14 +9703,14 @@
       <c r="B106" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C106" s="50">
+      <c r="C106" s="48">
         <f>1.16+2.16</f>
         <v>3.3200000000000003</v>
       </c>
-      <c r="D106" s="51">
+      <c r="D106" s="49">
         <v>98</v>
       </c>
-      <c r="E106" s="51">
+      <c r="E106" s="49">
         <f t="shared" si="1"/>
         <v>325.36</v>
       </c>
@@ -9603,14 +9722,14 @@
       <c r="B107" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C107" s="50">
+      <c r="C107" s="48">
         <f>10.24-3.9+9.16+24.6+59.2</f>
         <v>99.300000000000011</v>
       </c>
-      <c r="D107" s="51">
+      <c r="D107" s="49">
         <v>96</v>
       </c>
-      <c r="E107" s="51">
+      <c r="E107" s="49">
         <f t="shared" si="1"/>
         <v>9532.8000000000011</v>
       </c>
@@ -9622,14 +9741,14 @@
       <c r="B108" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C108" s="50">
+      <c r="C108" s="48">
         <f>70.4+11.48</f>
         <v>81.88000000000001</v>
       </c>
-      <c r="D108" s="51">
+      <c r="D108" s="49">
         <v>90</v>
       </c>
-      <c r="E108" s="51">
+      <c r="E108" s="49">
         <f t="shared" si="1"/>
         <v>7369.2000000000007</v>
       </c>
@@ -9641,13 +9760,13 @@
       <c r="B109" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C109" s="50">
+      <c r="C109" s="48">
         <v>5</v>
       </c>
-      <c r="D109" s="51">
+      <c r="D109" s="49">
         <v>108</v>
       </c>
-      <c r="E109" s="51">
+      <c r="E109" s="49">
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
@@ -9659,14 +9778,14 @@
       <c r="B110" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C110" s="50">
+      <c r="C110" s="48">
         <f>9.46-3.9+3.78+30.4+382</f>
         <v>421.74</v>
       </c>
-      <c r="D110" s="51">
+      <c r="D110" s="49">
         <v>10</v>
       </c>
-      <c r="E110" s="51">
+      <c r="E110" s="49">
         <f t="shared" si="1"/>
         <v>4217.3999999999996</v>
       </c>
@@ -9678,14 +9797,14 @@
       <c r="B111" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C111" s="50">
+      <c r="C111" s="48">
         <f>4.48+14.22-2.2+36.6</f>
         <v>53.100000000000009</v>
       </c>
-      <c r="D111" s="51">
+      <c r="D111" s="49">
         <v>58</v>
       </c>
-      <c r="E111" s="51">
+      <c r="E111" s="49">
         <f t="shared" si="1"/>
         <v>3079.8000000000006</v>
       </c>
@@ -9697,14 +9816,14 @@
       <c r="B112" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C112" s="50">
+      <c r="C112" s="48">
         <f>3.22+63.56</f>
         <v>66.78</v>
       </c>
-      <c r="D112" s="51">
+      <c r="D112" s="49">
         <v>280</v>
       </c>
-      <c r="E112" s="51">
+      <c r="E112" s="49">
         <f t="shared" si="1"/>
         <v>18698.400000000001</v>
       </c>
@@ -9716,13 +9835,13 @@
       <c r="B113" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C113" s="50">
+      <c r="C113" s="48">
         <v>61.2</v>
       </c>
-      <c r="D113" s="51">
+      <c r="D113" s="49">
         <v>64</v>
       </c>
-      <c r="E113" s="51">
+      <c r="E113" s="49">
         <f t="shared" si="1"/>
         <v>3916.8</v>
       </c>
@@ -9734,14 +9853,14 @@
       <c r="B114" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C114" s="50">
+      <c r="C114" s="48">
         <f>26.3+1+4.99</f>
         <v>32.29</v>
       </c>
-      <c r="D114" s="51">
+      <c r="D114" s="49">
         <v>74</v>
       </c>
-      <c r="E114" s="51">
+      <c r="E114" s="49">
         <f t="shared" si="1"/>
         <v>2389.46</v>
       </c>
@@ -9753,14 +9872,14 @@
       <c r="B115" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C115" s="50">
+      <c r="C115" s="48">
         <f>7.12+64.5+15.3+92.8+79.2+9.3+36.4</f>
         <v>304.62</v>
       </c>
-      <c r="D115" s="51">
+      <c r="D115" s="49">
         <v>110</v>
       </c>
-      <c r="E115" s="51">
+      <c r="E115" s="49">
         <f t="shared" si="1"/>
         <v>33508.199999999997</v>
       </c>
@@ -9772,13 +9891,13 @@
       <c r="B116" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="C116" s="50">
-        <v>0</v>
-      </c>
-      <c r="D116" s="51">
+      <c r="C116" s="48">
+        <v>0</v>
+      </c>
+      <c r="D116" s="49">
         <v>182</v>
       </c>
-      <c r="E116" s="51">
+      <c r="E116" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9790,14 +9909,14 @@
       <c r="B117" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C117" s="50">
+      <c r="C117" s="48">
         <f>20.16-3.9+16.02-3.9+12.68-3.9+6.8+10.3</f>
         <v>54.260000000000005</v>
       </c>
-      <c r="D117" s="51">
+      <c r="D117" s="49">
         <v>74</v>
       </c>
-      <c r="E117" s="51">
+      <c r="E117" s="49">
         <f t="shared" si="1"/>
         <v>4015.2400000000002</v>
       </c>
@@ -9809,14 +9928,14 @@
       <c r="B118" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C118" s="50">
+      <c r="C118" s="48">
         <f>10.07-2.2</f>
         <v>7.87</v>
       </c>
-      <c r="D118" s="51">
+      <c r="D118" s="49">
         <v>210</v>
       </c>
-      <c r="E118" s="51">
+      <c r="E118" s="49">
         <f t="shared" si="1"/>
         <v>1652.7</v>
       </c>
@@ -9828,13 +9947,13 @@
       <c r="B119" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C119" s="50">
-        <v>0</v>
-      </c>
-      <c r="D119" s="51">
+      <c r="C119" s="48">
+        <v>0</v>
+      </c>
+      <c r="D119" s="49">
         <v>182</v>
       </c>
-      <c r="E119" s="51">
+      <c r="E119" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9846,13 +9965,13 @@
       <c r="B120" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C120" s="50">
+      <c r="C120" s="48">
         <v>13.8</v>
       </c>
-      <c r="D120" s="51">
+      <c r="D120" s="49">
         <v>42</v>
       </c>
-      <c r="E120" s="51">
+      <c r="E120" s="49">
         <f t="shared" si="1"/>
         <v>579.6</v>
       </c>
@@ -9864,14 +9983,14 @@
       <c r="B121" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C121" s="50">
+      <c r="C121" s="48">
         <f>1.48+25.4</f>
         <v>26.88</v>
       </c>
-      <c r="D121" s="51">
+      <c r="D121" s="49">
         <v>75</v>
       </c>
-      <c r="E121" s="51">
+      <c r="E121" s="49">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
@@ -9883,14 +10002,14 @@
       <c r="B122" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C122" s="50">
+      <c r="C122" s="48">
         <f>6.06-3.9</f>
         <v>2.1599999999999997</v>
       </c>
-      <c r="D122" s="51">
+      <c r="D122" s="49">
         <v>78</v>
       </c>
-      <c r="E122" s="51">
+      <c r="E122" s="49">
         <f t="shared" si="1"/>
         <v>168.48</v>
       </c>
@@ -9902,14 +10021,14 @@
       <c r="B123" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C123" s="50">
+      <c r="C123" s="48">
         <f>12.06-3.9+12.1+13.8</f>
         <v>34.06</v>
       </c>
-      <c r="D123" s="51">
+      <c r="D123" s="49">
         <v>120</v>
       </c>
-      <c r="E123" s="51">
+      <c r="E123" s="49">
         <f t="shared" si="1"/>
         <v>4087.2000000000003</v>
       </c>
@@ -9921,13 +10040,13 @@
       <c r="B124" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C124" s="50">
-        <v>0</v>
-      </c>
-      <c r="D124" s="51">
+      <c r="C124" s="48">
+        <v>0</v>
+      </c>
+      <c r="D124" s="49">
         <v>120</v>
       </c>
-      <c r="E124" s="51">
+      <c r="E124" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9939,14 +10058,14 @@
       <c r="B125" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C125" s="50">
+      <c r="C125" s="48">
         <f>6-3.9</f>
         <v>2.1</v>
       </c>
-      <c r="D125" s="51">
+      <c r="D125" s="49">
         <v>173</v>
       </c>
-      <c r="E125" s="51">
+      <c r="E125" s="49">
         <f t="shared" si="1"/>
         <v>363.3</v>
       </c>
@@ -9958,14 +10077,14 @@
       <c r="B126" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C126" s="50">
+      <c r="C126" s="48">
         <f>0.86+1.32+9.32+6.8+22.6+4.8+53+101.3</f>
         <v>200</v>
       </c>
-      <c r="D126" s="51">
+      <c r="D126" s="49">
         <v>116</v>
       </c>
-      <c r="E126" s="51">
+      <c r="E126" s="49">
         <f t="shared" si="1"/>
         <v>23200</v>
       </c>
@@ -9977,14 +10096,14 @@
       <c r="B127" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C127" s="50">
+      <c r="C127" s="48">
         <f>3.3+82+49.4</f>
         <v>134.69999999999999</v>
       </c>
-      <c r="D127" s="51">
+      <c r="D127" s="49">
         <v>86</v>
       </c>
-      <c r="E127" s="51">
+      <c r="E127" s="49">
         <f t="shared" si="1"/>
         <v>11584.199999999999</v>
       </c>
@@ -9996,14 +10115,14 @@
       <c r="B128" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C128" s="50">
+      <c r="C128" s="48">
         <f>2.22+19.8</f>
         <v>22.02</v>
       </c>
-      <c r="D128" s="51">
+      <c r="D128" s="49">
         <v>48</v>
       </c>
-      <c r="E128" s="51">
+      <c r="E128" s="49">
         <f t="shared" si="1"/>
         <v>1056.96</v>
       </c>
@@ -10015,14 +10134,14 @@
       <c r="B129" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C129" s="50">
+      <c r="C129" s="48">
         <f>41.5+0.69+14.84+9.72+1.26+34.54+10.1+60.7+44.4+27.4+183.7+19.5+389.4</f>
         <v>837.75</v>
       </c>
-      <c r="D129" s="51">
+      <c r="D129" s="49">
         <v>184</v>
       </c>
-      <c r="E129" s="51">
+      <c r="E129" s="49">
         <f t="shared" si="1"/>
         <v>154146</v>
       </c>
@@ -10034,14 +10153,14 @@
       <c r="B130" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C130" s="50">
+      <c r="C130" s="48">
         <f>15.3+89.3</f>
         <v>104.6</v>
       </c>
-      <c r="D130" s="51">
+      <c r="D130" s="49">
         <v>177</v>
       </c>
-      <c r="E130" s="51">
+      <c r="E130" s="49">
         <f t="shared" si="1"/>
         <v>18514.2</v>
       </c>
@@ -10053,14 +10172,14 @@
       <c r="B131" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C131" s="50">
+      <c r="C131" s="48">
         <f>8.16-3.9+11.16+10.46</f>
         <v>25.880000000000003</v>
       </c>
-      <c r="D131" s="51">
+      <c r="D131" s="49">
         <v>187</v>
       </c>
-      <c r="E131" s="51">
+      <c r="E131" s="49">
         <f t="shared" si="1"/>
         <v>4839.5600000000004</v>
       </c>
@@ -10072,13 +10191,13 @@
       <c r="B132" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="C132" s="50">
-        <v>0</v>
-      </c>
-      <c r="D132" s="51">
+      <c r="C132" s="48">
+        <v>0</v>
+      </c>
+      <c r="D132" s="49">
         <v>182</v>
       </c>
-      <c r="E132" s="51">
+      <c r="E132" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10090,13 +10209,13 @@
       <c r="B133" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="C133" s="50">
-        <v>0</v>
-      </c>
-      <c r="D133" s="51">
+      <c r="C133" s="48">
+        <v>0</v>
+      </c>
+      <c r="D133" s="49">
         <v>182</v>
       </c>
-      <c r="E133" s="51">
+      <c r="E133" s="49">
         <f t="shared" ref="E133" si="2">C133*D133</f>
         <v>0</v>
       </c>
@@ -10121,13 +10240,13 @@
       <c r="B135" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C135" s="59" t="s">
+      <c r="C135" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D135" s="59" t="s">
+      <c r="D135" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E135" s="60" t="s">
+      <c r="E135" s="58" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10138,13 +10257,13 @@
       <c r="B136" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C136" s="50">
+      <c r="C136" s="48">
         <v>12</v>
       </c>
-      <c r="D136" s="51">
+      <c r="D136" s="49">
         <v>80</v>
       </c>
-      <c r="E136" s="51">
+      <c r="E136" s="49">
         <f t="shared" ref="E136:E199" si="3">C136*D136</f>
         <v>960</v>
       </c>
@@ -10156,14 +10275,14 @@
       <c r="B137" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C137" s="50">
+      <c r="C137" s="48">
         <f>3.18+5.98+89.1+41.2+39.2+13.1</f>
         <v>191.75999999999996</v>
       </c>
-      <c r="D137" s="51">
+      <c r="D137" s="49">
         <v>63</v>
       </c>
-      <c r="E137" s="51">
+      <c r="E137" s="49">
         <f t="shared" si="3"/>
         <v>12080.879999999997</v>
       </c>
@@ -10175,13 +10294,13 @@
       <c r="B138" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C138" s="50">
+      <c r="C138" s="48">
         <v>38.4</v>
       </c>
-      <c r="D138" s="51">
+      <c r="D138" s="49">
         <v>220</v>
       </c>
-      <c r="E138" s="51">
+      <c r="E138" s="49">
         <f t="shared" si="3"/>
         <v>8448</v>
       </c>
@@ -10193,13 +10312,13 @@
       <c r="B139" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C139" s="50">
+      <c r="C139" s="48">
         <v>2</v>
       </c>
-      <c r="D139" s="51">
+      <c r="D139" s="49">
         <v>56</v>
       </c>
-      <c r="E139" s="51">
+      <c r="E139" s="49">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
@@ -10211,14 +10330,14 @@
       <c r="B140" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C140" s="50">
+      <c r="C140" s="48">
         <f>13.5+1.02+6.3</f>
         <v>20.82</v>
       </c>
-      <c r="D140" s="51">
+      <c r="D140" s="49">
         <v>134</v>
       </c>
-      <c r="E140" s="51">
+      <c r="E140" s="49">
         <f t="shared" si="3"/>
         <v>2789.88</v>
       </c>
@@ -10230,14 +10349,14 @@
       <c r="B141" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C141" s="50">
+      <c r="C141" s="48">
         <f>6.74+0.52+11.3</f>
         <v>18.560000000000002</v>
       </c>
-      <c r="D141" s="51">
+      <c r="D141" s="49">
         <v>95</v>
       </c>
-      <c r="E141" s="51">
+      <c r="E141" s="49">
         <f t="shared" si="3"/>
         <v>1763.2000000000003</v>
       </c>
@@ -10249,14 +10368,14 @@
       <c r="B142" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C142" s="50">
+      <c r="C142" s="48">
         <f>7.22+9.18+1</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="D142" s="51">
+      <c r="D142" s="49">
         <v>130</v>
       </c>
-      <c r="E142" s="51">
+      <c r="E142" s="49">
         <f t="shared" si="3"/>
         <v>2262</v>
       </c>
@@ -10268,14 +10387,14 @@
       <c r="B143" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C143" s="50">
+      <c r="C143" s="48">
         <f>4.26+0.83</f>
         <v>5.09</v>
       </c>
-      <c r="D143" s="51">
+      <c r="D143" s="49">
         <v>173</v>
       </c>
-      <c r="E143" s="51">
+      <c r="E143" s="49">
         <f t="shared" si="3"/>
         <v>880.56999999999994</v>
       </c>
@@ -10287,13 +10406,13 @@
       <c r="B144" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C144" s="50">
-        <v>0</v>
-      </c>
-      <c r="D144" s="51">
+      <c r="C144" s="48">
+        <v>0</v>
+      </c>
+      <c r="D144" s="49">
         <v>92</v>
       </c>
-      <c r="E144" s="51">
+      <c r="E144" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10305,14 +10424,14 @@
       <c r="B145" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C145" s="50">
+      <c r="C145" s="48">
         <f>4.82+7.9-3.9+62.3+10.3+118.4+110</f>
         <v>309.82</v>
       </c>
-      <c r="D145" s="51">
+      <c r="D145" s="49">
         <v>132</v>
       </c>
-      <c r="E145" s="51">
+      <c r="E145" s="49">
         <f t="shared" si="3"/>
         <v>40896.239999999998</v>
       </c>
@@ -10324,13 +10443,13 @@
       <c r="B146" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C146" s="50">
-        <v>0</v>
-      </c>
-      <c r="D146" s="51">
+      <c r="C146" s="48">
+        <v>0</v>
+      </c>
+      <c r="D146" s="49">
         <v>187</v>
       </c>
-      <c r="E146" s="51">
+      <c r="E146" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10342,13 +10461,13 @@
       <c r="B147" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C147" s="50">
-        <v>0</v>
-      </c>
-      <c r="D147" s="51">
+      <c r="C147" s="48">
+        <v>0</v>
+      </c>
+      <c r="D147" s="49">
         <v>154</v>
       </c>
-      <c r="E147" s="51">
+      <c r="E147" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10360,13 +10479,13 @@
       <c r="B148" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C148" s="50">
-        <v>0</v>
-      </c>
-      <c r="D148" s="51">
+      <c r="C148" s="48">
+        <v>0</v>
+      </c>
+      <c r="D148" s="49">
         <v>82</v>
       </c>
-      <c r="E148" s="51">
+      <c r="E148" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10378,14 +10497,14 @@
       <c r="B149" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C149" s="50">
+      <c r="C149" s="48">
         <f>9.76-2.2+1.2+11.8</f>
         <v>20.560000000000002</v>
       </c>
-      <c r="D149" s="51">
+      <c r="D149" s="49">
         <v>98</v>
       </c>
-      <c r="E149" s="51">
+      <c r="E149" s="49">
         <f t="shared" si="3"/>
         <v>2014.88</v>
       </c>
@@ -10397,13 +10516,13 @@
       <c r="B150" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C150" s="50">
-        <v>0</v>
-      </c>
-      <c r="D150" s="51">
+      <c r="C150" s="48">
+        <v>0</v>
+      </c>
+      <c r="D150" s="49">
         <v>125</v>
       </c>
-      <c r="E150" s="51">
+      <c r="E150" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10415,13 +10534,13 @@
       <c r="B151" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C151" s="50">
+      <c r="C151" s="48">
         <v>1.58</v>
       </c>
-      <c r="D151" s="51">
+      <c r="D151" s="49">
         <v>900</v>
       </c>
-      <c r="E151" s="51">
+      <c r="E151" s="49">
         <f t="shared" si="3"/>
         <v>1422</v>
       </c>
@@ -10433,14 +10552,14 @@
       <c r="B152" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C152" s="50">
+      <c r="C152" s="48">
         <f>14.72+37.9</f>
         <v>52.62</v>
       </c>
-      <c r="D152" s="51">
+      <c r="D152" s="49">
         <v>71</v>
       </c>
-      <c r="E152" s="51">
+      <c r="E152" s="49">
         <f t="shared" si="3"/>
         <v>3736.02</v>
       </c>
@@ -10452,14 +10571,14 @@
       <c r="B153" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C153" s="50">
+      <c r="C153" s="48">
         <f>9.74-3.9+4.8</f>
         <v>10.64</v>
       </c>
-      <c r="D153" s="51">
+      <c r="D153" s="49">
         <v>78</v>
       </c>
-      <c r="E153" s="51">
+      <c r="E153" s="49">
         <f t="shared" si="3"/>
         <v>829.92000000000007</v>
       </c>
@@ -10471,13 +10590,13 @@
       <c r="B154" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C154" s="50">
-        <v>0</v>
-      </c>
-      <c r="D154" s="51">
+      <c r="C154" s="48">
+        <v>0</v>
+      </c>
+      <c r="D154" s="49">
         <v>115</v>
       </c>
-      <c r="E154" s="51">
+      <c r="E154" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10489,13 +10608,13 @@
       <c r="B155" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C155" s="50">
+      <c r="C155" s="48">
         <v>30.7</v>
       </c>
-      <c r="D155" s="51">
+      <c r="D155" s="49">
         <v>120</v>
       </c>
-      <c r="E155" s="51">
+      <c r="E155" s="49">
         <f t="shared" si="3"/>
         <v>3684</v>
       </c>
@@ -10507,14 +10626,14 @@
       <c r="B156" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C156" s="50">
+      <c r="C156" s="48">
         <f>4.89+3.8</f>
         <v>8.69</v>
       </c>
-      <c r="D156" s="51">
+      <c r="D156" s="49">
         <v>600</v>
       </c>
-      <c r="E156" s="51">
+      <c r="E156" s="49">
         <f t="shared" si="3"/>
         <v>5214</v>
       </c>
@@ -10526,14 +10645,14 @@
       <c r="B157" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C157" s="50">
+      <c r="C157" s="48">
         <f>37.9+18.8+92.6</f>
         <v>149.30000000000001</v>
       </c>
-      <c r="D157" s="51">
+      <c r="D157" s="49">
         <v>187</v>
       </c>
-      <c r="E157" s="51">
+      <c r="E157" s="49">
         <f t="shared" si="3"/>
         <v>27919.100000000002</v>
       </c>
@@ -10545,14 +10664,14 @@
       <c r="B158" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C158" s="50">
+      <c r="C158" s="48">
         <f>93.6+114.2</f>
         <v>207.8</v>
       </c>
-      <c r="D158" s="51">
+      <c r="D158" s="49">
         <v>136</v>
       </c>
-      <c r="E158" s="51">
+      <c r="E158" s="49">
         <f t="shared" si="3"/>
         <v>28260.800000000003</v>
       </c>
@@ -10564,14 +10683,14 @@
       <c r="B159" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C159" s="50">
+      <c r="C159" s="48">
         <f>2.96+7.14+20.8+54.2</f>
         <v>85.1</v>
       </c>
-      <c r="D159" s="51">
+      <c r="D159" s="49">
         <v>30</v>
       </c>
-      <c r="E159" s="51">
+      <c r="E159" s="49">
         <f t="shared" si="3"/>
         <v>2553</v>
       </c>
@@ -10583,14 +10702,14 @@
       <c r="B160" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C160" s="50">
+      <c r="C160" s="48">
         <f>6.77+7.8</f>
         <v>14.57</v>
       </c>
-      <c r="D160" s="51">
+      <c r="D160" s="49">
         <v>600</v>
       </c>
-      <c r="E160" s="51">
+      <c r="E160" s="49">
         <f t="shared" si="3"/>
         <v>8742</v>
       </c>
@@ -10602,14 +10721,14 @@
       <c r="B161" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C161" s="50">
+      <c r="C161" s="48">
         <f>94.6+89.1+116.7+90.1</f>
         <v>390.5</v>
       </c>
-      <c r="D161" s="51">
+      <c r="D161" s="49">
         <v>116</v>
       </c>
-      <c r="E161" s="51">
+      <c r="E161" s="49">
         <f t="shared" si="3"/>
         <v>45298</v>
       </c>
@@ -10621,14 +10740,14 @@
       <c r="B162" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C162" s="50">
+      <c r="C162" s="48">
         <f>1.53+44.75</f>
         <v>46.28</v>
       </c>
-      <c r="D162" s="51">
+      <c r="D162" s="49">
         <v>280</v>
       </c>
-      <c r="E162" s="51">
+      <c r="E162" s="49">
         <f t="shared" si="3"/>
         <v>12958.4</v>
       </c>
@@ -10640,14 +10759,14 @@
       <c r="B163" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C163" s="50">
+      <c r="C163" s="48">
         <f>94.1+71</f>
         <v>165.1</v>
       </c>
-      <c r="D163" s="51">
+      <c r="D163" s="49">
         <v>94</v>
       </c>
-      <c r="E163" s="51">
+      <c r="E163" s="49">
         <f t="shared" si="3"/>
         <v>15519.4</v>
       </c>
@@ -10659,14 +10778,14 @@
       <c r="B164" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C164" s="50">
+      <c r="C164" s="48">
         <f>74.9+67.5+105.9</f>
         <v>248.3</v>
       </c>
-      <c r="D164" s="51">
+      <c r="D164" s="49">
         <v>116</v>
       </c>
-      <c r="E164" s="51">
+      <c r="E164" s="49">
         <f t="shared" si="3"/>
         <v>28802.800000000003</v>
       </c>
@@ -10678,14 +10797,14 @@
       <c r="B165" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C165" s="50">
+      <c r="C165" s="48">
         <f>19.08-2.2+147.6+18.3+15.6</f>
         <v>198.38</v>
       </c>
-      <c r="D165" s="51">
+      <c r="D165" s="49">
         <v>72</v>
       </c>
-      <c r="E165" s="51">
+      <c r="E165" s="49">
         <f t="shared" si="3"/>
         <v>14283.36</v>
       </c>
@@ -10697,13 +10816,13 @@
       <c r="B166" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C166" s="50">
+      <c r="C166" s="48">
         <v>8.6</v>
       </c>
-      <c r="D166" s="51">
+      <c r="D166" s="49">
         <v>158</v>
       </c>
-      <c r="E166" s="51">
+      <c r="E166" s="49">
         <f t="shared" si="3"/>
         <v>1358.8</v>
       </c>
@@ -10715,14 +10834,14 @@
       <c r="B167" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C167" s="50">
+      <c r="C167" s="48">
         <f>9.14-3.9</f>
         <v>5.24</v>
       </c>
-      <c r="D167" s="51">
+      <c r="D167" s="49">
         <v>134</v>
       </c>
-      <c r="E167" s="51">
+      <c r="E167" s="49">
         <f t="shared" si="3"/>
         <v>702.16000000000008</v>
       </c>
@@ -10734,14 +10853,14 @@
       <c r="B168" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C168" s="50">
+      <c r="C168" s="48">
         <f>18.78-3.9+2.8</f>
         <v>17.68</v>
       </c>
-      <c r="D168" s="51">
+      <c r="D168" s="49">
         <v>74</v>
       </c>
-      <c r="E168" s="51">
+      <c r="E168" s="49">
         <f t="shared" si="3"/>
         <v>1308.32</v>
       </c>
@@ -10753,14 +10872,14 @@
       <c r="B169" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C169" s="50">
+      <c r="C169" s="48">
         <f>14.8+24.6+524.9</f>
         <v>564.29999999999995</v>
       </c>
-      <c r="D169" s="51">
+      <c r="D169" s="49">
         <v>66</v>
       </c>
-      <c r="E169" s="51">
+      <c r="E169" s="49">
         <f t="shared" si="3"/>
         <v>37243.799999999996</v>
       </c>
@@ -10772,14 +10891,14 @@
       <c r="B170" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C170" s="50">
+      <c r="C170" s="48">
         <f>4.82+53+119.9</f>
         <v>177.72</v>
       </c>
-      <c r="D170" s="51">
+      <c r="D170" s="49">
         <v>66</v>
       </c>
-      <c r="E170" s="51">
+      <c r="E170" s="49">
         <f t="shared" si="3"/>
         <v>11729.52</v>
       </c>
@@ -10791,14 +10910,14 @@
       <c r="B171" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C171" s="50">
+      <c r="C171" s="48">
         <f>21.32-3.9+21.96+8.3</f>
         <v>47.680000000000007</v>
       </c>
-      <c r="D171" s="51">
+      <c r="D171" s="49">
         <v>170</v>
       </c>
-      <c r="E171" s="51">
+      <c r="E171" s="49">
         <f t="shared" si="3"/>
         <v>8105.6000000000013</v>
       </c>
@@ -10810,14 +10929,14 @@
       <c r="B172" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C172" s="50">
+      <c r="C172" s="48">
         <f>172.1+171.9+245.4+51.4</f>
         <v>640.79999999999995</v>
       </c>
-      <c r="D172" s="51">
+      <c r="D172" s="49">
         <v>72</v>
       </c>
-      <c r="E172" s="51">
+      <c r="E172" s="49">
         <f t="shared" si="3"/>
         <v>46137.599999999999</v>
       </c>
@@ -10829,13 +10948,13 @@
       <c r="B173" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C173" s="50">
+      <c r="C173" s="48">
         <v>48.7</v>
       </c>
-      <c r="D173" s="51">
+      <c r="D173" s="49">
         <v>92</v>
       </c>
-      <c r="E173" s="51">
+      <c r="E173" s="49">
         <f t="shared" si="3"/>
         <v>4480.4000000000005</v>
       </c>
@@ -10847,14 +10966,14 @@
       <c r="B174" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C174" s="50">
+      <c r="C174" s="48">
         <f>10.68-3.9+30.7</f>
         <v>37.479999999999997</v>
       </c>
-      <c r="D174" s="51">
+      <c r="D174" s="49">
         <v>100</v>
       </c>
-      <c r="E174" s="51">
+      <c r="E174" s="49">
         <f t="shared" si="3"/>
         <v>3747.9999999999995</v>
       </c>
@@ -10866,13 +10985,13 @@
       <c r="B175" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C175" s="50">
+      <c r="C175" s="48">
         <v>63.5</v>
       </c>
-      <c r="D175" s="51">
+      <c r="D175" s="49">
         <v>149</v>
       </c>
-      <c r="E175" s="51">
+      <c r="E175" s="49">
         <f t="shared" si="3"/>
         <v>9461.5</v>
       </c>
@@ -10884,13 +11003,13 @@
       <c r="B176" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C176" s="50">
+      <c r="C176" s="48">
         <v>82.5</v>
       </c>
-      <c r="D176" s="51">
+      <c r="D176" s="49">
         <v>51</v>
       </c>
-      <c r="E176" s="51">
+      <c r="E176" s="49">
         <f t="shared" si="3"/>
         <v>4207.5</v>
       </c>
@@ -10902,13 +11021,13 @@
       <c r="B177" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C177" s="50">
+      <c r="C177" s="48">
         <v>23.9</v>
       </c>
-      <c r="D177" s="51">
+      <c r="D177" s="49">
         <v>120</v>
       </c>
-      <c r="E177" s="51">
+      <c r="E177" s="49">
         <f t="shared" si="3"/>
         <v>2868</v>
       </c>
@@ -10920,14 +11039,14 @@
       <c r="B178" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C178" s="50">
+      <c r="C178" s="48">
         <f>7+6.42+1.32</f>
         <v>14.74</v>
       </c>
-      <c r="D178" s="51">
+      <c r="D178" s="49">
         <v>184</v>
       </c>
-      <c r="E178" s="51">
+      <c r="E178" s="49">
         <f t="shared" si="3"/>
         <v>2712.16</v>
       </c>
@@ -10952,13 +11071,13 @@
       <c r="B180" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C180" s="59" t="s">
+      <c r="C180" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D180" s="59" t="s">
+      <c r="D180" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E180" s="60" t="s">
+      <c r="E180" s="58" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10969,14 +11088,14 @@
       <c r="B181" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C181" s="50">
+      <c r="C181" s="48">
         <f>89.9+55</f>
         <v>144.9</v>
       </c>
-      <c r="D181" s="51">
+      <c r="D181" s="49">
         <v>180</v>
       </c>
-      <c r="E181" s="51">
+      <c r="E181" s="49">
         <f t="shared" si="3"/>
         <v>26082</v>
       </c>
@@ -10988,13 +11107,13 @@
       <c r="B182" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C182" s="50">
+      <c r="C182" s="48">
         <v>124.4</v>
       </c>
-      <c r="D182" s="51">
+      <c r="D182" s="49">
         <v>182</v>
       </c>
-      <c r="E182" s="51">
+      <c r="E182" s="49">
         <f t="shared" si="3"/>
         <v>22640.799999999999</v>
       </c>
@@ -11006,13 +11125,13 @@
       <c r="B183" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C183" s="50">
-        <v>0</v>
-      </c>
-      <c r="D183" s="51">
+      <c r="C183" s="48">
+        <v>0</v>
+      </c>
+      <c r="D183" s="49">
         <v>62</v>
       </c>
-      <c r="E183" s="51">
+      <c r="E183" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11024,14 +11143,14 @@
       <c r="B184" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C184" s="50">
+      <c r="C184" s="48">
         <f>3.584+2.86+13.2+22.3+7.43</f>
         <v>49.374000000000002</v>
       </c>
-      <c r="D184" s="51">
+      <c r="D184" s="49">
         <v>58</v>
       </c>
-      <c r="E184" s="51">
+      <c r="E184" s="49">
         <f t="shared" si="3"/>
         <v>2863.692</v>
       </c>
@@ -11043,13 +11162,13 @@
       <c r="B185" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C185" s="50">
-        <v>0</v>
-      </c>
-      <c r="D185" s="51">
+      <c r="C185" s="48">
+        <v>0</v>
+      </c>
+      <c r="D185" s="49">
         <v>72</v>
       </c>
-      <c r="E185" s="51">
+      <c r="E185" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11061,14 +11180,14 @@
       <c r="B186" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C186" s="50">
+      <c r="C186" s="48">
         <f>4.08+9.74-3.9+3.6</f>
         <v>13.52</v>
       </c>
-      <c r="D186" s="51">
+      <c r="D186" s="49">
         <v>120</v>
       </c>
-      <c r="E186" s="51">
+      <c r="E186" s="49">
         <f t="shared" si="3"/>
         <v>1622.3999999999999</v>
       </c>
@@ -11080,14 +11199,14 @@
       <c r="B187" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C187" s="50">
+      <c r="C187" s="48">
         <f>4.08+61</f>
         <v>65.08</v>
       </c>
-      <c r="D187" s="51">
+      <c r="D187" s="49">
         <v>14</v>
       </c>
-      <c r="E187" s="51">
+      <c r="E187" s="49">
         <f t="shared" si="3"/>
         <v>911.12</v>
       </c>
@@ -11099,14 +11218,14 @@
       <c r="B188" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C188" s="50">
+      <c r="C188" s="48">
         <f>6.8+47.7+8.8</f>
         <v>63.3</v>
       </c>
-      <c r="D188" s="51">
+      <c r="D188" s="49">
         <v>40</v>
       </c>
-      <c r="E188" s="51">
+      <c r="E188" s="49">
         <f t="shared" si="3"/>
         <v>2532</v>
       </c>
@@ -11118,13 +11237,13 @@
       <c r="B189" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C189" s="50">
+      <c r="C189" s="48">
         <v>24.3</v>
       </c>
-      <c r="D189" s="51">
+      <c r="D189" s="49">
         <v>20</v>
       </c>
-      <c r="E189" s="51">
+      <c r="E189" s="49">
         <f t="shared" si="3"/>
         <v>486</v>
       </c>
@@ -11136,13 +11255,13 @@
       <c r="B190" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C190" s="50">
+      <c r="C190" s="48">
         <v>28.6</v>
       </c>
-      <c r="D190" s="51">
+      <c r="D190" s="49">
         <v>32</v>
       </c>
-      <c r="E190" s="51">
+      <c r="E190" s="49">
         <f t="shared" si="3"/>
         <v>915.2</v>
       </c>
@@ -11154,14 +11273,14 @@
       <c r="B191" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C191" s="50">
+      <c r="C191" s="48">
         <f>3.64+12.86-2.2+82.8</f>
         <v>97.1</v>
       </c>
-      <c r="D191" s="51">
+      <c r="D191" s="49">
         <v>38</v>
       </c>
-      <c r="E191" s="51">
+      <c r="E191" s="49">
         <f t="shared" si="3"/>
         <v>3689.7999999999997</v>
       </c>
@@ -11173,14 +11292,14 @@
       <c r="B192" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C192" s="50">
+      <c r="C192" s="48">
         <f>27.1+34.1</f>
         <v>61.2</v>
       </c>
-      <c r="D192" s="51">
+      <c r="D192" s="49">
         <v>95</v>
       </c>
-      <c r="E192" s="51">
+      <c r="E192" s="49">
         <f t="shared" si="3"/>
         <v>5814</v>
       </c>
@@ -11192,13 +11311,13 @@
       <c r="B193" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C193" s="50">
+      <c r="C193" s="48">
         <v>1.18</v>
       </c>
-      <c r="D193" s="51">
+      <c r="D193" s="49">
         <v>420</v>
       </c>
-      <c r="E193" s="51">
+      <c r="E193" s="49">
         <f t="shared" si="3"/>
         <v>495.59999999999997</v>
       </c>
@@ -11210,14 +11329,14 @@
       <c r="B194" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C194" s="50">
+      <c r="C194" s="48">
         <f>67+29.294-2.2</f>
         <v>94.093999999999994</v>
       </c>
-      <c r="D194" s="51">
+      <c r="D194" s="49">
         <v>184</v>
       </c>
-      <c r="E194" s="51">
+      <c r="E194" s="49">
         <f t="shared" si="3"/>
         <v>17313.295999999998</v>
       </c>
@@ -11229,13 +11348,13 @@
       <c r="B195" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C195" s="50">
+      <c r="C195" s="48">
         <v>1.5</v>
       </c>
-      <c r="D195" s="51">
+      <c r="D195" s="49">
         <v>50</v>
       </c>
-      <c r="E195" s="51">
+      <c r="E195" s="49">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
@@ -11247,13 +11366,13 @@
       <c r="B196" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C196" s="50">
+      <c r="C196" s="48">
         <v>140.4</v>
       </c>
-      <c r="D196" s="51">
+      <c r="D196" s="49">
         <v>57</v>
       </c>
-      <c r="E196" s="51">
+      <c r="E196" s="49">
         <f t="shared" si="3"/>
         <v>8002.8</v>
       </c>
@@ -11265,14 +11384,14 @@
       <c r="B197" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C197" s="50">
+      <c r="C197" s="48">
         <f>4.46+13.84+14.3+61.2</f>
         <v>93.800000000000011</v>
       </c>
-      <c r="D197" s="51">
+      <c r="D197" s="49">
         <v>42</v>
       </c>
-      <c r="E197" s="51">
+      <c r="E197" s="49">
         <f t="shared" si="3"/>
         <v>3939.6000000000004</v>
       </c>
@@ -11284,14 +11403,14 @@
       <c r="B198" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C198" s="50">
+      <c r="C198" s="48">
         <f>13.2+20</f>
         <v>33.200000000000003</v>
       </c>
-      <c r="D198" s="51">
+      <c r="D198" s="49">
         <v>98</v>
       </c>
-      <c r="E198" s="51">
+      <c r="E198" s="49">
         <f t="shared" si="3"/>
         <v>3253.6000000000004</v>
       </c>
@@ -11303,13 +11422,13 @@
       <c r="B199" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C199" s="50">
+      <c r="C199" s="48">
         <v>121</v>
       </c>
-      <c r="D199" s="51">
+      <c r="D199" s="49">
         <v>120</v>
       </c>
-      <c r="E199" s="51">
+      <c r="E199" s="49">
         <f t="shared" si="3"/>
         <v>14520</v>
       </c>
@@ -11321,14 +11440,14 @@
       <c r="B200" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C200" s="50">
+      <c r="C200" s="48">
         <f>25+130</f>
         <v>155</v>
       </c>
-      <c r="D200" s="51">
+      <c r="D200" s="49">
         <v>105</v>
       </c>
-      <c r="E200" s="51">
+      <c r="E200" s="49">
         <f t="shared" ref="E200:E262" si="4">C200*D200</f>
         <v>16275</v>
       </c>
@@ -11340,14 +11459,14 @@
       <c r="B201" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C201" s="50">
+      <c r="C201" s="48">
         <f>21.52-2.2</f>
         <v>19.32</v>
       </c>
-      <c r="D201" s="51">
+      <c r="D201" s="49">
         <v>70</v>
       </c>
-      <c r="E201" s="51">
+      <c r="E201" s="49">
         <f t="shared" si="4"/>
         <v>1352.4</v>
       </c>
@@ -11359,14 +11478,14 @@
       <c r="B202" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C202" s="50">
+      <c r="C202" s="48">
         <f>21.56-2.2+0.8</f>
         <v>20.16</v>
       </c>
-      <c r="D202" s="51">
+      <c r="D202" s="49">
         <v>100</v>
       </c>
-      <c r="E202" s="51">
+      <c r="E202" s="49">
         <f t="shared" si="4"/>
         <v>2016</v>
       </c>
@@ -11378,14 +11497,14 @@
       <c r="B203" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C203" s="50">
+      <c r="C203" s="48">
         <f>3.22+1.43</f>
         <v>4.6500000000000004</v>
       </c>
-      <c r="D203" s="51">
+      <c r="D203" s="49">
         <v>160</v>
       </c>
-      <c r="E203" s="51">
+      <c r="E203" s="49">
         <f t="shared" si="4"/>
         <v>744</v>
       </c>
@@ -11397,14 +11516,14 @@
       <c r="B204" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C204" s="50">
+      <c r="C204" s="48">
         <f>1.5+30</f>
         <v>31.5</v>
       </c>
-      <c r="D204" s="51">
+      <c r="D204" s="49">
         <v>93</v>
       </c>
-      <c r="E204" s="51">
+      <c r="E204" s="49">
         <f t="shared" si="4"/>
         <v>2929.5</v>
       </c>
@@ -11416,13 +11535,13 @@
       <c r="B205" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C205" s="50">
+      <c r="C205" s="48">
         <v>12</v>
       </c>
-      <c r="D205" s="51">
+      <c r="D205" s="49">
         <v>75</v>
       </c>
-      <c r="E205" s="51">
+      <c r="E205" s="49">
         <f t="shared" si="4"/>
         <v>900</v>
       </c>
@@ -11434,13 +11553,13 @@
       <c r="B206" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C206" s="50">
+      <c r="C206" s="48">
         <v>5.5</v>
       </c>
-      <c r="D206" s="51">
+      <c r="D206" s="49">
         <v>65</v>
       </c>
-      <c r="E206" s="51">
+      <c r="E206" s="49">
         <f t="shared" si="4"/>
         <v>357.5</v>
       </c>
@@ -11452,13 +11571,13 @@
       <c r="B207" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C207" s="50">
+      <c r="C207" s="48">
         <v>9</v>
       </c>
-      <c r="D207" s="51">
+      <c r="D207" s="49">
         <v>36</v>
       </c>
-      <c r="E207" s="51">
+      <c r="E207" s="49">
         <f t="shared" si="4"/>
         <v>324</v>
       </c>
@@ -11470,13 +11589,13 @@
       <c r="B208" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C208" s="50">
+      <c r="C208" s="48">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D208" s="51">
+      <c r="D208" s="49">
         <v>80</v>
       </c>
-      <c r="E208" s="51">
+      <c r="E208" s="49">
         <f t="shared" si="4"/>
         <v>176</v>
       </c>
@@ -11488,14 +11607,14 @@
       <c r="B209" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C209" s="50">
+      <c r="C209" s="48">
         <f>30+2.24</f>
         <v>32.24</v>
       </c>
-      <c r="D209" s="51">
+      <c r="D209" s="49">
         <v>58</v>
       </c>
-      <c r="E209" s="51">
+      <c r="E209" s="49">
         <f t="shared" si="4"/>
         <v>1869.92</v>
       </c>
@@ -11507,13 +11626,13 @@
       <c r="B210" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C210" s="50">
-        <v>0</v>
-      </c>
-      <c r="D210" s="51">
+      <c r="C210" s="48">
+        <v>0</v>
+      </c>
+      <c r="D210" s="49">
         <v>90</v>
       </c>
-      <c r="E210" s="51">
+      <c r="E210" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11525,13 +11644,13 @@
       <c r="B211" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C211" s="50">
+      <c r="C211" s="48">
         <v>3</v>
       </c>
-      <c r="D211" s="51">
+      <c r="D211" s="49">
         <v>36</v>
       </c>
-      <c r="E211" s="51">
+      <c r="E211" s="49">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
@@ -11543,13 +11662,13 @@
       <c r="B212" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C212" s="50">
+      <c r="C212" s="48">
         <v>5</v>
       </c>
-      <c r="D212" s="51">
+      <c r="D212" s="49">
         <v>60</v>
       </c>
-      <c r="E212" s="51">
+      <c r="E212" s="49">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
@@ -11561,13 +11680,13 @@
       <c r="B213" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C213" s="50">
-        <v>0</v>
-      </c>
-      <c r="D213" s="51">
+      <c r="C213" s="48">
+        <v>0</v>
+      </c>
+      <c r="D213" s="49">
         <v>38</v>
       </c>
-      <c r="E213" s="51">
+      <c r="E213" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11579,13 +11698,13 @@
       <c r="B214" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C214" s="50">
+      <c r="C214" s="48">
         <v>2</v>
       </c>
-      <c r="D214" s="51">
+      <c r="D214" s="49">
         <v>40</v>
       </c>
-      <c r="E214" s="51">
+      <c r="E214" s="49">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
@@ -11597,13 +11716,13 @@
       <c r="B215" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C215" s="50">
-        <v>0</v>
-      </c>
-      <c r="D215" s="51">
+      <c r="C215" s="48">
+        <v>0</v>
+      </c>
+      <c r="D215" s="49">
         <v>110</v>
       </c>
-      <c r="E215" s="51">
+      <c r="E215" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11615,13 +11734,13 @@
       <c r="B216" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C216" s="50">
+      <c r="C216" s="48">
         <v>80</v>
       </c>
-      <c r="D216" s="51">
+      <c r="D216" s="49">
         <v>30</v>
       </c>
-      <c r="E216" s="51">
+      <c r="E216" s="49">
         <f t="shared" si="4"/>
         <v>2400</v>
       </c>
@@ -11633,14 +11752,14 @@
       <c r="B217" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C217" s="50">
+      <c r="C217" s="48">
         <f>1.25+0.15</f>
         <v>1.4</v>
       </c>
-      <c r="D217" s="51">
+      <c r="D217" s="49">
         <v>370</v>
       </c>
-      <c r="E217" s="51">
+      <c r="E217" s="49">
         <f t="shared" si="4"/>
         <v>518</v>
       </c>
@@ -11652,13 +11771,13 @@
       <c r="B218" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C218" s="50">
-        <v>0</v>
-      </c>
-      <c r="D218" s="51">
+      <c r="C218" s="48">
+        <v>0</v>
+      </c>
+      <c r="D218" s="49">
         <v>280</v>
       </c>
-      <c r="E218" s="51">
+      <c r="E218" s="49">
         <v>1.8160000000000001</v>
       </c>
     </row>
@@ -11669,13 +11788,13 @@
       <c r="B219" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C219" s="50">
-        <v>0</v>
-      </c>
-      <c r="D219" s="51">
+      <c r="C219" s="48">
+        <v>0</v>
+      </c>
+      <c r="D219" s="49">
         <v>475</v>
       </c>
-      <c r="E219" s="51">
+      <c r="E219" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11687,13 +11806,13 @@
       <c r="B220" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C220" s="50">
-        <v>0</v>
-      </c>
-      <c r="D220" s="51">
+      <c r="C220" s="48">
+        <v>0</v>
+      </c>
+      <c r="D220" s="49">
         <v>51</v>
       </c>
-      <c r="E220" s="51">
+      <c r="E220" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11705,13 +11824,13 @@
       <c r="B221" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C221" s="50">
+      <c r="C221" s="48">
         <v>13</v>
       </c>
-      <c r="D221" s="51">
+      <c r="D221" s="49">
         <v>21</v>
       </c>
-      <c r="E221" s="51">
+      <c r="E221" s="49">
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
@@ -11723,13 +11842,13 @@
       <c r="B222" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C222" s="50">
-        <v>0</v>
-      </c>
-      <c r="D222" s="51">
+      <c r="C222" s="48">
+        <v>0</v>
+      </c>
+      <c r="D222" s="49">
         <v>96</v>
       </c>
-      <c r="E222" s="51">
+      <c r="E222" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11754,714 +11873,1107 @@
       <c r="B224" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C224" s="59" t="s">
+      <c r="C224" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D224" s="59" t="s">
+      <c r="D224" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E224" s="60" t="s">
+      <c r="E224" s="58" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="34">
         <v>227</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C225" s="50">
+      <c r="C225" s="48">
         <v>11</v>
       </c>
-      <c r="D225" s="51">
+      <c r="D225" s="49">
         <v>40</v>
       </c>
-      <c r="E225" s="51">
+      <c r="E225" s="49">
         <f t="shared" si="4"/>
         <v>440</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G225" s="62">
+        <v>11</v>
+      </c>
+      <c r="H225" s="63">
+        <v>40</v>
+      </c>
+      <c r="I225" s="63">
+        <f t="shared" ref="I225:I262" si="5">G225*H225</f>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="34">
         <v>228</v>
       </c>
       <c r="B226" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C226" s="50">
+      <c r="C226" s="48">
         <v>10.5</v>
       </c>
-      <c r="D226" s="51">
+      <c r="D226" s="49">
         <v>60</v>
       </c>
-      <c r="E226" s="51">
+      <c r="E226" s="49">
         <f t="shared" si="4"/>
         <v>630</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G226" s="62">
+        <v>10.5</v>
+      </c>
+      <c r="H226" s="63">
+        <v>60</v>
+      </c>
+      <c r="I226" s="63">
+        <f t="shared" si="5"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="34">
         <v>229</v>
       </c>
       <c r="B227" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C227" s="50">
+      <c r="C227" s="48">
         <f>5.7+2.37</f>
         <v>8.07</v>
       </c>
-      <c r="D227" s="51">
+      <c r="D227" s="49">
         <v>315</v>
       </c>
-      <c r="E227" s="51">
+      <c r="E227" s="49">
         <f t="shared" si="4"/>
         <v>2542.0500000000002</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G227" s="62">
+        <f>5.7+2.37</f>
+        <v>8.07</v>
+      </c>
+      <c r="H227" s="63">
+        <v>315</v>
+      </c>
+      <c r="I227" s="63">
+        <f t="shared" si="5"/>
+        <v>2542.0500000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="34">
         <v>231</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C228" s="50">
+      <c r="C228" s="48">
         <f>12.3+134.5+69.7</f>
         <v>216.5</v>
       </c>
-      <c r="D228" s="51">
+      <c r="D228" s="49">
         <v>18</v>
       </c>
-      <c r="E228" s="51">
+      <c r="E228" s="49">
         <f t="shared" si="4"/>
         <v>3897</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G228" s="62">
+        <f>12.3+134.5+69.7</f>
+        <v>216.5</v>
+      </c>
+      <c r="H228" s="63">
+        <v>18</v>
+      </c>
+      <c r="I228" s="63">
+        <f t="shared" si="5"/>
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="34">
         <v>232</v>
       </c>
       <c r="B229" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C229" s="50">
-        <v>0</v>
-      </c>
-      <c r="D229" s="51">
+      <c r="C229" s="48">
+        <v>0</v>
+      </c>
+      <c r="D229" s="49">
         <v>400</v>
       </c>
-      <c r="E229" s="51">
+      <c r="E229" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G229" s="62">
+        <v>0</v>
+      </c>
+      <c r="H229" s="63">
+        <v>400</v>
+      </c>
+      <c r="I229" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="34">
         <v>233</v>
       </c>
       <c r="B230" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C230" s="50">
-        <v>0</v>
-      </c>
-      <c r="D230" s="51">
+      <c r="C230" s="48">
+        <v>0</v>
+      </c>
+      <c r="D230" s="49">
         <v>177</v>
       </c>
-      <c r="E230" s="51">
+      <c r="E230" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G230" s="62">
+        <v>0</v>
+      </c>
+      <c r="H230" s="63">
+        <v>177</v>
+      </c>
+      <c r="I230" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="34">
         <v>234</v>
       </c>
       <c r="B231" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C231" s="50">
-        <v>0</v>
-      </c>
-      <c r="D231" s="51">
+      <c r="C231" s="48">
+        <v>0</v>
+      </c>
+      <c r="D231" s="49">
         <v>64</v>
       </c>
-      <c r="E231" s="51">
+      <c r="E231" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G231" s="62">
+        <v>0</v>
+      </c>
+      <c r="H231" s="63">
+        <v>64</v>
+      </c>
+      <c r="I231" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="34">
         <v>235</v>
       </c>
       <c r="B232" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C232" s="50">
+      <c r="C232" s="48">
         <v>5</v>
       </c>
-      <c r="D232" s="51">
+      <c r="D232" s="49">
         <v>130</v>
       </c>
-      <c r="E232" s="51">
+      <c r="E232" s="49">
         <f t="shared" si="4"/>
         <v>650</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G232" s="62">
+        <v>5</v>
+      </c>
+      <c r="H232" s="63">
+        <v>130</v>
+      </c>
+      <c r="I232" s="63">
+        <f t="shared" si="5"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="34">
         <v>236</v>
       </c>
       <c r="B233" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C233" s="50">
+      <c r="C233" s="48">
         <f>165.4+50.7+46.6</f>
         <v>262.70000000000005</v>
       </c>
-      <c r="D233" s="51">
+      <c r="D233" s="49">
         <v>36</v>
       </c>
-      <c r="E233" s="51">
+      <c r="E233" s="49">
         <f t="shared" si="4"/>
         <v>9457.2000000000007</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G233" s="62">
+        <f>165.4+50.7+46.6</f>
+        <v>262.70000000000005</v>
+      </c>
+      <c r="H233" s="63">
+        <v>36</v>
+      </c>
+      <c r="I233" s="63">
+        <f t="shared" si="5"/>
+        <v>9457.2000000000007</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="34">
         <v>237</v>
       </c>
       <c r="B234" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C234" s="53">
+      <c r="C234" s="51">
         <v>215.5</v>
       </c>
-      <c r="D234" s="51">
+      <c r="D234" s="49">
         <v>177</v>
       </c>
-      <c r="E234" s="51">
+      <c r="E234" s="49">
         <f t="shared" si="4"/>
         <v>38143.5</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G234" s="62">
+        <v>215.5</v>
+      </c>
+      <c r="H234" s="63">
+        <v>177</v>
+      </c>
+      <c r="I234" s="63">
+        <f t="shared" si="5"/>
+        <v>38143.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="34">
         <v>238</v>
       </c>
       <c r="B235" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C235" s="50">
-        <v>0</v>
-      </c>
-      <c r="D235" s="51">
+      <c r="C235" s="48">
+        <v>0</v>
+      </c>
+      <c r="D235" s="49">
         <v>160</v>
       </c>
-      <c r="E235" s="51">
+      <c r="E235" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G235" s="62">
+        <v>0</v>
+      </c>
+      <c r="H235" s="63">
+        <v>160</v>
+      </c>
+      <c r="I235" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="34">
         <v>239</v>
       </c>
       <c r="B236" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C236" s="50">
+      <c r="C236" s="48">
         <v>3.66</v>
       </c>
-      <c r="D236" s="51">
+      <c r="D236" s="49">
         <v>76</v>
       </c>
-      <c r="E236" s="51">
+      <c r="E236" s="49">
         <f t="shared" si="4"/>
         <v>278.16000000000003</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G236" s="62">
+        <v>3.66</v>
+      </c>
+      <c r="H236" s="63">
+        <v>76</v>
+      </c>
+      <c r="I236" s="63">
+        <f t="shared" si="5"/>
+        <v>278.16000000000003</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="34">
         <v>240</v>
       </c>
       <c r="B237" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C237" s="50">
-        <v>0</v>
-      </c>
-      <c r="D237" s="51">
+      <c r="C237" s="48">
+        <v>0</v>
+      </c>
+      <c r="D237" s="49">
         <v>120</v>
       </c>
-      <c r="E237" s="51">
+      <c r="E237" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G237" s="62">
+        <v>0</v>
+      </c>
+      <c r="H237" s="63">
+        <v>120</v>
+      </c>
+      <c r="I237" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="34">
         <v>241</v>
       </c>
       <c r="B238" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C238" s="50">
-        <v>0</v>
-      </c>
-      <c r="D238" s="51">
+      <c r="C238" s="48">
+        <v>0</v>
+      </c>
+      <c r="D238" s="49">
         <v>62</v>
       </c>
-      <c r="E238" s="51">
+      <c r="E238" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G238" s="62">
+        <v>0</v>
+      </c>
+      <c r="H238" s="63">
+        <v>62</v>
+      </c>
+      <c r="I238" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="34">
         <v>242</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C239" s="50">
+      <c r="C239" s="48">
         <f>7+26</f>
         <v>33</v>
       </c>
-      <c r="D239" s="51">
+      <c r="D239" s="49">
         <v>26</v>
       </c>
-      <c r="E239" s="51">
+      <c r="E239" s="49">
         <f t="shared" si="4"/>
         <v>858</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G239" s="62">
+        <f>7+26</f>
+        <v>33</v>
+      </c>
+      <c r="H239" s="63">
+        <v>26</v>
+      </c>
+      <c r="I239" s="63">
+        <f t="shared" si="5"/>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="34">
         <v>243</v>
       </c>
       <c r="B240" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C240" s="50">
-        <v>0</v>
-      </c>
-      <c r="D240" s="51">
+      <c r="C240" s="48">
+        <v>0</v>
+      </c>
+      <c r="D240" s="49">
         <v>90</v>
       </c>
-      <c r="E240" s="51">
+      <c r="E240" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G240" s="62">
+        <v>0</v>
+      </c>
+      <c r="H240" s="63">
+        <v>90</v>
+      </c>
+      <c r="I240" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="34">
         <v>244</v>
       </c>
       <c r="B241" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C241" s="50">
+      <c r="C241" s="48">
         <f>1.22+3.1+4.46+38.4</f>
         <v>47.18</v>
       </c>
-      <c r="D241" s="51">
+      <c r="D241" s="49">
         <v>98</v>
       </c>
-      <c r="E241" s="51">
+      <c r="E241" s="49">
         <f t="shared" si="4"/>
         <v>4623.6400000000003</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G241" s="62">
+        <f>1.22+3.1+4.46+38.4</f>
+        <v>47.18</v>
+      </c>
+      <c r="H241" s="63">
+        <v>98</v>
+      </c>
+      <c r="I241" s="63">
+        <f t="shared" si="5"/>
+        <v>4623.6400000000003</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="34">
         <v>245</v>
       </c>
       <c r="B242" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C242" s="50">
+      <c r="C242" s="48">
         <f>13.8-2.2+23.3</f>
         <v>34.900000000000006</v>
       </c>
-      <c r="D242" s="51">
+      <c r="D242" s="49">
         <v>125</v>
       </c>
-      <c r="E242" s="51">
+      <c r="E242" s="49">
         <f t="shared" si="4"/>
         <v>4362.5000000000009</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G242" s="62">
+        <f>13.8-2.2+23.3</f>
+        <v>34.900000000000006</v>
+      </c>
+      <c r="H242" s="63">
+        <v>125</v>
+      </c>
+      <c r="I242" s="63">
+        <f t="shared" si="5"/>
+        <v>4362.5000000000009</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="34">
         <v>246</v>
       </c>
       <c r="B243" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C243" s="50">
-        <v>0</v>
-      </c>
-      <c r="D243" s="51">
+      <c r="C243" s="48">
+        <v>0</v>
+      </c>
+      <c r="D243" s="49">
         <v>46</v>
       </c>
-      <c r="E243" s="51">
+      <c r="E243" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G243" s="62">
+        <v>0</v>
+      </c>
+      <c r="H243" s="63">
+        <v>46</v>
+      </c>
+      <c r="I243" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="34">
         <v>247</v>
       </c>
       <c r="B244" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C244" s="50">
+      <c r="C244" s="48">
         <v>14</v>
       </c>
-      <c r="D244" s="51">
+      <c r="D244" s="49">
         <v>20</v>
       </c>
-      <c r="E244" s="51">
+      <c r="E244" s="49">
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G244" s="62">
+        <v>14</v>
+      </c>
+      <c r="H244" s="63">
+        <v>20</v>
+      </c>
+      <c r="I244" s="63">
+        <f t="shared" si="5"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="34">
         <v>248</v>
       </c>
       <c r="B245" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C245" s="50">
+      <c r="C245" s="48">
         <v>2.44</v>
       </c>
-      <c r="D245" s="51">
+      <c r="D245" s="49">
         <v>360</v>
       </c>
-      <c r="E245" s="51">
+      <c r="E245" s="49">
         <f t="shared" si="4"/>
         <v>878.4</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G245" s="62">
+        <v>2.44</v>
+      </c>
+      <c r="H245" s="63">
+        <v>360</v>
+      </c>
+      <c r="I245" s="63">
+        <f t="shared" si="5"/>
+        <v>878.4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="34">
         <v>249</v>
       </c>
       <c r="B246" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C246" s="50">
+      <c r="C246" s="48">
         <v>0.44400000000000001</v>
       </c>
-      <c r="D246" s="51">
+      <c r="D246" s="49">
         <v>184</v>
       </c>
-      <c r="E246" s="51">
+      <c r="E246" s="49">
         <f t="shared" si="4"/>
         <v>81.695999999999998</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G246" s="62">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H246" s="63">
+        <v>184</v>
+      </c>
+      <c r="I246" s="63">
+        <f t="shared" si="5"/>
+        <v>81.695999999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="34">
         <v>250</v>
       </c>
       <c r="B247" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C247" s="50">
-        <v>0</v>
-      </c>
-      <c r="D247" s="51">
+      <c r="C247" s="48">
+        <v>0</v>
+      </c>
+      <c r="D247" s="49">
         <v>59</v>
       </c>
-      <c r="E247" s="51">
+      <c r="E247" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G247" s="62">
+        <v>0</v>
+      </c>
+      <c r="H247" s="63">
+        <v>59</v>
+      </c>
+      <c r="I247" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="34">
         <v>251</v>
       </c>
       <c r="B248" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C248" s="50">
+      <c r="C248" s="48">
         <v>8.9700000000000006</v>
       </c>
-      <c r="D248" s="51">
+      <c r="D248" s="49">
         <v>50</v>
       </c>
-      <c r="E248" s="51">
+      <c r="E248" s="49">
         <f t="shared" si="4"/>
         <v>448.50000000000006</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G248" s="62">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="H248" s="63">
+        <v>50</v>
+      </c>
+      <c r="I248" s="63">
+        <f t="shared" si="5"/>
+        <v>448.50000000000006</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="34">
         <v>252</v>
       </c>
       <c r="B249" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C249" s="50">
-        <v>0</v>
-      </c>
-      <c r="D249" s="51">
+      <c r="C249" s="48">
+        <v>0</v>
+      </c>
+      <c r="D249" s="49">
         <v>45</v>
       </c>
-      <c r="E249" s="51">
+      <c r="E249" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G249" s="62">
+        <v>0</v>
+      </c>
+      <c r="H249" s="63">
+        <v>45</v>
+      </c>
+      <c r="I249" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="34">
         <v>253</v>
       </c>
       <c r="B250" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C250" s="50">
+      <c r="C250" s="48">
         <f>3.066+1.025</f>
         <v>4.0909999999999993</v>
       </c>
-      <c r="D250" s="51">
+      <c r="D250" s="49">
         <v>350</v>
       </c>
-      <c r="E250" s="51">
+      <c r="E250" s="49">
         <f t="shared" si="4"/>
         <v>1431.8499999999997</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G250" s="62">
+        <f>3.066+1.025</f>
+        <v>4.0909999999999993</v>
+      </c>
+      <c r="H250" s="63">
+        <v>350</v>
+      </c>
+      <c r="I250" s="63">
+        <f t="shared" si="5"/>
+        <v>1431.8499999999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="34">
         <v>254</v>
       </c>
       <c r="B251" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C251" s="53">
+      <c r="C251" s="51">
         <v>2</v>
       </c>
-      <c r="D251" s="54">
+      <c r="D251" s="52">
         <v>70</v>
       </c>
-      <c r="E251" s="51">
+      <c r="E251" s="49">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G251" s="62">
+        <v>2</v>
+      </c>
+      <c r="H251" s="63">
+        <v>70</v>
+      </c>
+      <c r="I251" s="63">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="34">
         <v>255</v>
       </c>
       <c r="B252" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="C252" s="53">
-        <v>0</v>
-      </c>
-      <c r="D252" s="54">
+      <c r="C252" s="51">
+        <v>0</v>
+      </c>
+      <c r="D252" s="52">
         <v>125</v>
       </c>
-      <c r="E252" s="51">
+      <c r="E252" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G252" s="62">
+        <v>0</v>
+      </c>
+      <c r="H252" s="63">
+        <v>125</v>
+      </c>
+      <c r="I252" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="34">
         <v>256</v>
       </c>
       <c r="B253" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C253" s="50">
+      <c r="C253" s="48">
         <f>7.015+10+7.16+7.9</f>
         <v>32.075000000000003</v>
       </c>
-      <c r="D253" s="51">
+      <c r="D253" s="49">
         <v>120</v>
       </c>
-      <c r="E253" s="51">
+      <c r="E253" s="49">
         <f t="shared" si="4"/>
         <v>3849.0000000000005</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G253" s="62">
+        <f>7.015+10+7.16+7.9</f>
+        <v>32.075000000000003</v>
+      </c>
+      <c r="H253" s="63">
+        <v>120</v>
+      </c>
+      <c r="I253" s="63">
+        <f t="shared" si="5"/>
+        <v>3849.0000000000005</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="34">
         <v>257</v>
       </c>
       <c r="B254" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C254" s="50">
+      <c r="C254" s="48">
         <f>3.812+7.2</f>
         <v>11.012</v>
       </c>
-      <c r="D254" s="51">
+      <c r="D254" s="49">
         <v>160</v>
       </c>
-      <c r="E254" s="51">
+      <c r="E254" s="49">
         <f t="shared" si="4"/>
         <v>1761.92</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G254" s="62">
+        <f>3.812+7.2</f>
+        <v>11.012</v>
+      </c>
+      <c r="H254" s="63">
+        <v>160</v>
+      </c>
+      <c r="I254" s="63">
+        <f t="shared" si="5"/>
+        <v>1761.92</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="34">
         <v>258</v>
       </c>
       <c r="B255" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C255" s="50">
+      <c r="C255" s="48">
         <v>14.1</v>
       </c>
-      <c r="D255" s="51">
+      <c r="D255" s="49">
         <v>10</v>
       </c>
-      <c r="E255" s="51">
+      <c r="E255" s="49">
         <f t="shared" si="4"/>
         <v>141</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G255" s="62">
+        <v>14.1</v>
+      </c>
+      <c r="H255" s="63">
+        <v>10</v>
+      </c>
+      <c r="I255" s="63">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="34">
         <v>259</v>
       </c>
       <c r="B256" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C256" s="50">
-        <v>0</v>
-      </c>
-      <c r="D256" s="51">
+      <c r="C256" s="48">
+        <v>0</v>
+      </c>
+      <c r="D256" s="49">
         <v>74</v>
       </c>
-      <c r="E256" s="51">
+      <c r="E256" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G256" s="62">
+        <v>0</v>
+      </c>
+      <c r="H256" s="63">
+        <v>74</v>
+      </c>
+      <c r="I256" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="34">
         <v>260</v>
       </c>
       <c r="B257" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C257" s="50">
+      <c r="C257" s="48">
         <f>2.44+5.66+24.8</f>
         <v>32.9</v>
       </c>
-      <c r="D257" s="51">
+      <c r="D257" s="49">
         <v>350</v>
       </c>
-      <c r="E257" s="51">
+      <c r="E257" s="49">
         <f t="shared" si="4"/>
         <v>11515</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G257" s="62">
+        <f>2.44+5.66+24.8</f>
+        <v>32.9</v>
+      </c>
+      <c r="H257" s="63">
+        <v>350</v>
+      </c>
+      <c r="I257" s="63">
+        <f t="shared" si="5"/>
+        <v>11515</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="34">
         <v>261</v>
       </c>
       <c r="B258" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C258" s="50">
+      <c r="C258" s="48">
         <v>20.8</v>
       </c>
-      <c r="D258" s="51">
+      <c r="D258" s="49">
         <v>170</v>
       </c>
-      <c r="E258" s="51">
+      <c r="E258" s="49">
         <f t="shared" si="4"/>
         <v>3536</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G258" s="62">
+        <v>20.8</v>
+      </c>
+      <c r="H258" s="63">
+        <v>170</v>
+      </c>
+      <c r="I258" s="63">
+        <f t="shared" si="5"/>
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="34">
         <v>262</v>
       </c>
       <c r="B259" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C259" s="50">
+      <c r="C259" s="48">
         <f>4.26+4.87+4.96+9.7</f>
         <v>23.79</v>
       </c>
-      <c r="D259" s="51">
+      <c r="D259" s="49">
         <v>745</v>
       </c>
-      <c r="E259" s="51">
+      <c r="E259" s="49">
         <f t="shared" si="4"/>
         <v>17723.55</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G259" s="62">
+        <f>4.26+4.87+4.96+9.7</f>
+        <v>23.79</v>
+      </c>
+      <c r="H259" s="63">
+        <v>745</v>
+      </c>
+      <c r="I259" s="63">
+        <f t="shared" si="5"/>
+        <v>17723.55</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="34">
         <v>263</v>
       </c>
       <c r="B260" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C260" s="50">
+      <c r="C260" s="48">
         <v>1.56</v>
       </c>
-      <c r="D260" s="51">
+      <c r="D260" s="49">
         <v>168</v>
       </c>
-      <c r="E260" s="51">
+      <c r="E260" s="49">
         <f t="shared" si="4"/>
         <v>262.08</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G260" s="62">
+        <v>1.56</v>
+      </c>
+      <c r="H260" s="63">
+        <v>168</v>
+      </c>
+      <c r="I260" s="63">
+        <f t="shared" si="5"/>
+        <v>262.08</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="34">
         <v>264</v>
       </c>
       <c r="B261" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C261" s="50">
+      <c r="C261" s="48">
         <f>3.64+0.632</f>
         <v>4.2720000000000002</v>
       </c>
-      <c r="D261" s="51">
+      <c r="D261" s="49">
         <v>555</v>
       </c>
-      <c r="E261" s="51">
+      <c r="E261" s="49">
         <f t="shared" si="4"/>
         <v>2370.96</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G261" s="62">
+        <f>3.64+0.632</f>
+        <v>4.2720000000000002</v>
+      </c>
+      <c r="H261" s="63">
+        <v>555</v>
+      </c>
+      <c r="I261" s="63">
+        <f t="shared" si="5"/>
+        <v>2370.96</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="34">
         <v>265</v>
       </c>
       <c r="B262" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C262" s="55">
+      <c r="C262" s="53">
         <f>1.9+6.36+6.14+5.03</f>
         <v>19.43</v>
       </c>
-      <c r="D262" s="51">
+      <c r="D262" s="49">
         <v>587</v>
       </c>
-      <c r="E262" s="51">
+      <c r="E262" s="49">
         <f t="shared" si="4"/>
         <v>11405.41</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G262" s="64">
+        <f>1.9+6.36+6.14+5.03</f>
+        <v>19.43</v>
+      </c>
+      <c r="H262" s="63">
+        <v>587</v>
+      </c>
+      <c r="I262" s="63">
+        <f t="shared" si="5"/>
+        <v>11405.41</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="32"/>
       <c r="B263" s="22" t="s">
         <v>17</v>
@@ -12475,167 +12987,171 @@
         <f>SUM(E225:E261)</f>
         <v>110302.00600000001</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I263" s="65">
+        <f>SUM(I225:I262)</f>
+        <v>121707.41600000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="33"/>
       <c r="B264" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C264" s="59" t="s">
+      <c r="C264" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D264" s="59" t="s">
+      <c r="D264" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E264" s="60" t="s">
+      <c r="E264" s="58" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="34">
         <v>266</v>
       </c>
       <c r="B265" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C265" s="50">
+      <c r="C265" s="48">
         <f>1.2+4.95+4.95</f>
         <v>11.100000000000001</v>
       </c>
-      <c r="D265" s="51">
+      <c r="D265" s="49">
         <v>341</v>
       </c>
-      <c r="E265" s="51">
-        <f t="shared" ref="E265:E329" si="5">C265*D265</f>
+      <c r="E265" s="49">
+        <f t="shared" ref="E265:G329" si="6">C265*D265</f>
         <v>3785.1000000000004</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="34">
         <v>267</v>
       </c>
       <c r="B266" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C266" s="50">
+      <c r="C266" s="48">
         <f>3.28+0.836</f>
         <v>4.1159999999999997</v>
       </c>
-      <c r="D266" s="51">
+      <c r="D266" s="49">
         <v>659</v>
       </c>
-      <c r="E266" s="51">
-        <f t="shared" si="5"/>
+      <c r="E266" s="49">
+        <f t="shared" si="6"/>
         <v>2712.444</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="34">
         <v>268</v>
       </c>
       <c r="B267" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C267" s="50">
+      <c r="C267" s="48">
         <f>2.38+0.624+3.86</f>
         <v>6.8639999999999999</v>
       </c>
-      <c r="D267" s="51">
+      <c r="D267" s="49">
         <v>689</v>
       </c>
-      <c r="E267" s="51">
-        <f t="shared" si="5"/>
+      <c r="E267" s="49">
+        <f t="shared" si="6"/>
         <v>4729.2960000000003</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="34">
         <v>269</v>
       </c>
       <c r="B268" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C268" s="50">
+      <c r="C268" s="48">
         <v>9</v>
       </c>
-      <c r="D268" s="51">
+      <c r="D268" s="49">
         <v>810</v>
       </c>
-      <c r="E268" s="51">
-        <f t="shared" si="5"/>
+      <c r="E268" s="49">
+        <f t="shared" si="6"/>
         <v>7290</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="34">
         <v>270</v>
       </c>
       <c r="B269" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C269" s="50">
+      <c r="C269" s="48">
         <f>1.3+5.07</f>
         <v>6.37</v>
       </c>
-      <c r="D269" s="51">
+      <c r="D269" s="49">
         <v>741</v>
       </c>
-      <c r="E269" s="51">
-        <f t="shared" si="5"/>
+      <c r="E269" s="49">
+        <f t="shared" si="6"/>
         <v>4720.17</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="34">
         <v>271</v>
       </c>
       <c r="B270" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C270" s="50">
-        <v>0</v>
-      </c>
-      <c r="D270" s="51">
+      <c r="C270" s="48">
+        <v>0</v>
+      </c>
+      <c r="D270" s="49">
         <v>152</v>
       </c>
-      <c r="E270" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E270" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="34">
         <v>272</v>
       </c>
       <c r="B271" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C271" s="50">
-        <v>0</v>
-      </c>
-      <c r="D271" s="51">
+      <c r="C271" s="48">
+        <v>0</v>
+      </c>
+      <c r="D271" s="49">
         <v>145</v>
       </c>
-      <c r="E271" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E271" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="34">
         <v>273</v>
       </c>
       <c r="B272" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C272" s="50">
+      <c r="C272" s="48">
         <v>84.7</v>
       </c>
-      <c r="D272" s="51">
+      <c r="D272" s="49">
         <v>280</v>
       </c>
-      <c r="E272" s="51">
-        <f t="shared" si="5"/>
+      <c r="E272" s="49">
+        <f t="shared" si="6"/>
         <v>23716</v>
       </c>
     </row>
@@ -12646,14 +13162,14 @@
       <c r="B273" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C273" s="50">
+      <c r="C273" s="48">
         <v>4.22</v>
       </c>
-      <c r="D273" s="51">
+      <c r="D273" s="49">
         <v>644</v>
       </c>
-      <c r="E273" s="51">
-        <f t="shared" si="5"/>
+      <c r="E273" s="49">
+        <f t="shared" si="6"/>
         <v>2717.68</v>
       </c>
     </row>
@@ -12664,14 +13180,14 @@
       <c r="B274" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C274" s="50">
+      <c r="C274" s="48">
         <v>19.5</v>
       </c>
-      <c r="D274" s="51">
+      <c r="D274" s="49">
         <v>435</v>
       </c>
-      <c r="E274" s="51">
-        <f t="shared" si="5"/>
+      <c r="E274" s="49">
+        <f t="shared" si="6"/>
         <v>8482.5</v>
       </c>
     </row>
@@ -12682,15 +13198,15 @@
       <c r="B275" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C275" s="50">
+      <c r="C275" s="48">
         <f>3.38+25.4</f>
         <v>28.779999999999998</v>
       </c>
-      <c r="D275" s="51">
+      <c r="D275" s="49">
         <v>95</v>
       </c>
-      <c r="E275" s="51">
-        <f t="shared" si="5"/>
+      <c r="E275" s="49">
+        <f t="shared" si="6"/>
         <v>2734.1</v>
       </c>
     </row>
@@ -12701,14 +13217,14 @@
       <c r="B276" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C276" s="50">
+      <c r="C276" s="48">
         <v>20</v>
       </c>
-      <c r="D276" s="51">
+      <c r="D276" s="49">
         <v>28</v>
       </c>
-      <c r="E276" s="51">
-        <f t="shared" si="5"/>
+      <c r="E276" s="49">
+        <f t="shared" si="6"/>
         <v>560</v>
       </c>
     </row>
@@ -12719,15 +13235,15 @@
       <c r="B277" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C277" s="50">
+      <c r="C277" s="48">
         <f>1.22+20.7</f>
         <v>21.919999999999998</v>
       </c>
-      <c r="D277" s="51">
+      <c r="D277" s="49">
         <v>442</v>
       </c>
-      <c r="E277" s="51">
-        <f t="shared" si="5"/>
+      <c r="E277" s="49">
+        <f t="shared" si="6"/>
         <v>9688.64</v>
       </c>
     </row>
@@ -12738,15 +13254,15 @@
       <c r="B278" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C278" s="50">
+      <c r="C278" s="48">
         <f>167.4+112.7</f>
         <v>280.10000000000002</v>
       </c>
-      <c r="D278" s="51">
+      <c r="D278" s="49">
         <v>164</v>
       </c>
-      <c r="E278" s="51">
-        <f t="shared" si="5"/>
+      <c r="E278" s="49">
+        <f t="shared" si="6"/>
         <v>45936.4</v>
       </c>
     </row>
@@ -12757,14 +13273,14 @@
       <c r="B279" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C279" s="50">
+      <c r="C279" s="48">
         <v>24.9</v>
       </c>
-      <c r="D279" s="51">
+      <c r="D279" s="49">
         <v>600</v>
       </c>
-      <c r="E279" s="51">
-        <f t="shared" si="5"/>
+      <c r="E279" s="49">
+        <f t="shared" si="6"/>
         <v>14940</v>
       </c>
     </row>
@@ -12775,14 +13291,14 @@
       <c r="B280" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C280" s="50">
-        <v>0</v>
-      </c>
-      <c r="D280" s="51">
+      <c r="C280" s="48">
+        <v>0</v>
+      </c>
+      <c r="D280" s="49">
         <v>900</v>
       </c>
-      <c r="E280" s="51">
-        <f t="shared" si="5"/>
+      <c r="E280" s="49">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12793,14 +13309,14 @@
       <c r="B281" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C281" s="50">
-        <v>0</v>
-      </c>
-      <c r="D281" s="51">
+      <c r="C281" s="48">
+        <v>0</v>
+      </c>
+      <c r="D281" s="49">
         <v>400</v>
       </c>
-      <c r="E281" s="51">
-        <f t="shared" si="5"/>
+      <c r="E281" s="49">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12811,14 +13327,14 @@
       <c r="B282" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C282" s="50">
-        <v>0</v>
-      </c>
-      <c r="D282" s="51">
+      <c r="C282" s="48">
+        <v>0</v>
+      </c>
+      <c r="D282" s="49">
         <v>66</v>
       </c>
-      <c r="E282" s="51">
-        <f t="shared" si="5"/>
+      <c r="E282" s="49">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12829,14 +13345,14 @@
       <c r="B283" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C283" s="50">
-        <v>0</v>
-      </c>
-      <c r="D283" s="51">
+      <c r="C283" s="48">
+        <v>0</v>
+      </c>
+      <c r="D283" s="49">
         <v>55</v>
       </c>
-      <c r="E283" s="51">
-        <f t="shared" si="5"/>
+      <c r="E283" s="49">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12847,15 +13363,15 @@
       <c r="B284" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C284" s="50">
+      <c r="C284" s="48">
         <f>34.4+148.2</f>
         <v>182.6</v>
       </c>
-      <c r="D284" s="51">
+      <c r="D284" s="49">
         <v>68</v>
       </c>
-      <c r="E284" s="51">
-        <f t="shared" si="5"/>
+      <c r="E284" s="49">
+        <f t="shared" si="6"/>
         <v>12416.8</v>
       </c>
     </row>
@@ -12866,14 +13382,14 @@
       <c r="B285" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C285" s="50">
-        <v>0</v>
-      </c>
-      <c r="D285" s="51">
+      <c r="C285" s="48">
+        <v>0</v>
+      </c>
+      <c r="D285" s="49">
         <v>80</v>
       </c>
-      <c r="E285" s="51">
-        <f t="shared" si="5"/>
+      <c r="E285" s="49">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12884,14 +13400,14 @@
       <c r="B286" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C286" s="50">
+      <c r="C286" s="48">
         <v>10</v>
       </c>
-      <c r="D286" s="51">
+      <c r="D286" s="49">
         <v>46</v>
       </c>
-      <c r="E286" s="51">
-        <f t="shared" si="5"/>
+      <c r="E286" s="49">
+        <f t="shared" si="6"/>
         <v>460</v>
       </c>
     </row>
@@ -12902,14 +13418,14 @@
       <c r="B287" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C287" s="50">
+      <c r="C287" s="48">
         <v>20</v>
       </c>
-      <c r="D287" s="51">
+      <c r="D287" s="49">
         <v>110</v>
       </c>
-      <c r="E287" s="51">
-        <f t="shared" si="5"/>
+      <c r="E287" s="49">
+        <f t="shared" si="6"/>
         <v>2200</v>
       </c>
     </row>
@@ -12920,14 +13436,14 @@
       <c r="B288" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C288" s="50">
+      <c r="C288" s="48">
         <v>11</v>
       </c>
-      <c r="D288" s="51">
+      <c r="D288" s="49">
         <v>80</v>
       </c>
-      <c r="E288" s="51">
-        <f t="shared" si="5"/>
+      <c r="E288" s="49">
+        <f t="shared" si="6"/>
         <v>880</v>
       </c>
     </row>
@@ -12938,14 +13454,14 @@
       <c r="B289" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C289" s="50">
+      <c r="C289" s="48">
         <v>0.42</v>
       </c>
-      <c r="D289" s="51">
+      <c r="D289" s="49">
         <v>980</v>
       </c>
-      <c r="E289" s="51">
-        <f t="shared" si="5"/>
+      <c r="E289" s="49">
+        <f t="shared" si="6"/>
         <v>411.59999999999997</v>
       </c>
     </row>
@@ -12956,14 +13472,14 @@
       <c r="B290" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C290" s="50">
+      <c r="C290" s="48">
         <v>0.32</v>
       </c>
-      <c r="D290" s="51">
+      <c r="D290" s="49">
         <v>450</v>
       </c>
-      <c r="E290" s="51">
-        <f t="shared" si="5"/>
+      <c r="E290" s="49">
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
     </row>
@@ -12974,14 +13490,14 @@
       <c r="B291" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C291" s="50">
+      <c r="C291" s="48">
         <v>10</v>
       </c>
-      <c r="D291" s="51">
+      <c r="D291" s="49">
         <v>85</v>
       </c>
-      <c r="E291" s="51">
-        <f t="shared" si="5"/>
+      <c r="E291" s="49">
+        <f t="shared" si="6"/>
         <v>850</v>
       </c>
     </row>
@@ -12992,14 +13508,14 @@
       <c r="B292" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C292" s="50">
+      <c r="C292" s="48">
         <v>3</v>
       </c>
-      <c r="D292" s="51">
+      <c r="D292" s="49">
         <v>61</v>
       </c>
-      <c r="E292" s="51">
-        <f t="shared" si="5"/>
+      <c r="E292" s="49">
+        <f t="shared" si="6"/>
         <v>183</v>
       </c>
     </row>
@@ -13010,14 +13526,14 @@
       <c r="B293" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C293" s="50">
+      <c r="C293" s="48">
         <v>5</v>
       </c>
-      <c r="D293" s="51">
+      <c r="D293" s="49">
         <v>79</v>
       </c>
-      <c r="E293" s="51">
-        <f t="shared" si="5"/>
+      <c r="E293" s="49">
+        <f t="shared" si="6"/>
         <v>395</v>
       </c>
     </row>
@@ -13028,14 +13544,14 @@
       <c r="B294" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C294" s="50">
+      <c r="C294" s="48">
         <v>3</v>
       </c>
-      <c r="D294" s="51">
+      <c r="D294" s="49">
         <v>60</v>
       </c>
-      <c r="E294" s="51">
-        <f t="shared" si="5"/>
+      <c r="E294" s="49">
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
     </row>
@@ -13046,14 +13562,14 @@
       <c r="B295" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="C295" s="50">
-        <v>0</v>
-      </c>
-      <c r="D295" s="51">
+      <c r="C295" s="48">
+        <v>0</v>
+      </c>
+      <c r="D295" s="49">
         <v>90</v>
       </c>
-      <c r="E295" s="51">
-        <f t="shared" si="5"/>
+      <c r="E295" s="49">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13064,15 +13580,15 @@
       <c r="B296" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C296" s="50">
+      <c r="C296" s="48">
         <f>6.18+0.52+40.8</f>
         <v>47.5</v>
       </c>
-      <c r="D296" s="51">
+      <c r="D296" s="49">
         <v>44</v>
       </c>
-      <c r="E296" s="51">
-        <f t="shared" si="5"/>
+      <c r="E296" s="49">
+        <f t="shared" si="6"/>
         <v>2090</v>
       </c>
     </row>
@@ -13083,14 +13599,14 @@
       <c r="B297" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C297" s="50">
+      <c r="C297" s="48">
         <v>18.2</v>
       </c>
-      <c r="D297" s="51">
+      <c r="D297" s="49">
         <v>400</v>
       </c>
-      <c r="E297" s="51">
-        <f t="shared" si="5"/>
+      <c r="E297" s="49">
+        <f t="shared" si="6"/>
         <v>7280</v>
       </c>
     </row>
@@ -13101,14 +13617,14 @@
       <c r="B298" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C298" s="50">
+      <c r="C298" s="48">
         <v>27</v>
       </c>
-      <c r="D298" s="51">
+      <c r="D298" s="49">
         <v>530</v>
       </c>
-      <c r="E298" s="51">
-        <f t="shared" si="5"/>
+      <c r="E298" s="49">
+        <f t="shared" si="6"/>
         <v>14310</v>
       </c>
     </row>
@@ -13119,14 +13635,14 @@
       <c r="B299" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C299" s="50">
+      <c r="C299" s="48">
         <v>54</v>
       </c>
-      <c r="D299" s="51">
+      <c r="D299" s="49">
         <v>565</v>
       </c>
-      <c r="E299" s="51">
-        <f t="shared" si="5"/>
+      <c r="E299" s="49">
+        <f t="shared" si="6"/>
         <v>30510</v>
       </c>
     </row>
@@ -13137,14 +13653,14 @@
       <c r="B300" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C300" s="50">
+      <c r="C300" s="48">
         <v>28.6</v>
       </c>
-      <c r="D300" s="51">
+      <c r="D300" s="49">
         <v>460</v>
       </c>
-      <c r="E300" s="51">
-        <f t="shared" si="5"/>
+      <c r="E300" s="49">
+        <f t="shared" si="6"/>
         <v>13156</v>
       </c>
     </row>
@@ -13155,14 +13671,14 @@
       <c r="B301" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C301" s="50">
+      <c r="C301" s="48">
         <v>36.4</v>
       </c>
-      <c r="D301" s="51">
+      <c r="D301" s="49">
         <v>490</v>
       </c>
-      <c r="E301" s="51">
-        <f t="shared" si="5"/>
+      <c r="E301" s="49">
+        <f t="shared" si="6"/>
         <v>17836</v>
       </c>
     </row>
@@ -13173,14 +13689,14 @@
       <c r="B302" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C302" s="50">
+      <c r="C302" s="48">
         <v>18.2</v>
       </c>
-      <c r="D302" s="51">
+      <c r="D302" s="49">
         <v>400</v>
       </c>
-      <c r="E302" s="51">
-        <f t="shared" si="5"/>
+      <c r="E302" s="49">
+        <f t="shared" si="6"/>
         <v>7280</v>
       </c>
     </row>
@@ -13191,14 +13707,14 @@
       <c r="B303" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C303" s="50">
-        <v>0</v>
-      </c>
-      <c r="D303" s="51">
+      <c r="C303" s="48">
+        <v>0</v>
+      </c>
+      <c r="D303" s="49">
         <v>390</v>
       </c>
-      <c r="E303" s="51">
-        <f t="shared" si="5"/>
+      <c r="E303" s="49">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13209,76 +13725,76 @@
       <c r="B304" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C304" s="50">
+      <c r="C304" s="48">
         <f>0.36+12.67</f>
         <v>13.03</v>
       </c>
-      <c r="D304" s="51">
+      <c r="D304" s="49">
         <v>82</v>
       </c>
-      <c r="E304" s="51">
-        <f t="shared" si="5"/>
+      <c r="E304" s="49">
+        <f t="shared" si="6"/>
         <v>1068.46</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="34">
         <v>306</v>
       </c>
       <c r="B305" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C305" s="50">
+      <c r="C305" s="48">
         <f>0.907+0.907</f>
         <v>1.8140000000000001</v>
       </c>
-      <c r="D305" s="51">
+      <c r="D305" s="49">
         <v>212</v>
       </c>
-      <c r="E305" s="51">
-        <f t="shared" si="5"/>
+      <c r="E305" s="49">
+        <f t="shared" si="6"/>
         <v>384.56799999999998</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="34">
         <v>307</v>
       </c>
       <c r="B306" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C306" s="50">
+      <c r="C306" s="48">
         <f>107.9+84.1+27.4</f>
         <v>219.4</v>
       </c>
-      <c r="D306" s="51">
+      <c r="D306" s="49">
         <v>116</v>
       </c>
-      <c r="E306" s="51">
-        <f t="shared" si="5"/>
+      <c r="E306" s="49">
+        <f t="shared" si="6"/>
         <v>25450.400000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="34">
         <v>308</v>
       </c>
       <c r="B307" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C307" s="50">
+      <c r="C307" s="48">
         <f>0.98+16.7</f>
         <v>17.68</v>
       </c>
-      <c r="D307" s="51">
+      <c r="D307" s="49">
         <v>210</v>
       </c>
-      <c r="E307" s="51">
-        <f t="shared" si="5"/>
+      <c r="E307" s="49">
+        <f t="shared" si="6"/>
         <v>3712.7999999999997</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="32"/>
       <c r="B308" s="22" t="s">
         <v>17</v>
@@ -13293,500 +13809,764 @@
         <v>273210.95799999998</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="33"/>
       <c r="B309" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C309" s="59" t="s">
+      <c r="C309" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D309" s="59" t="s">
+      <c r="D309" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E309" s="60" t="s">
+      <c r="E309" s="58" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="34">
         <v>309</v>
       </c>
       <c r="B310" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C310" s="50">
-        <v>0</v>
-      </c>
-      <c r="D310" s="51">
+      <c r="C310" s="48">
+        <v>0</v>
+      </c>
+      <c r="D310" s="49">
         <v>65</v>
       </c>
-      <c r="E310" s="51">
-        <f t="shared" ref="E310" si="6">C310*D310</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E310" s="49">
+        <f>C310*D310</f>
+        <v>0</v>
+      </c>
+      <c r="G310" s="66">
+        <v>0</v>
+      </c>
+      <c r="H310" s="67">
+        <v>65</v>
+      </c>
+      <c r="I310" s="67">
+        <f>G310*H310</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="34">
         <v>310</v>
       </c>
       <c r="B311" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C311" s="50">
+      <c r="C311" s="48">
         <v>46</v>
       </c>
-      <c r="D311" s="51">
+      <c r="D311" s="49">
         <v>110</v>
       </c>
-      <c r="E311" s="51">
-        <f t="shared" si="5"/>
+      <c r="E311" s="49">
+        <f t="shared" si="6"/>
         <v>5060</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G311" s="66">
+        <v>46</v>
+      </c>
+      <c r="H311" s="67">
+        <v>110</v>
+      </c>
+      <c r="I311" s="67">
+        <f t="shared" ref="I311:I334" si="7">G311*H311</f>
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="34">
         <v>311</v>
       </c>
       <c r="B312" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C312" s="50">
-        <v>0</v>
-      </c>
-      <c r="D312" s="51">
+      <c r="C312" s="48">
+        <v>0</v>
+      </c>
+      <c r="D312" s="49">
         <v>140</v>
       </c>
-      <c r="E312" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E312" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G312" s="66">
+        <v>0</v>
+      </c>
+      <c r="H312" s="67">
+        <v>140</v>
+      </c>
+      <c r="I312" s="67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="34">
         <v>312</v>
       </c>
       <c r="B313" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C313" s="50">
+      <c r="C313" s="48">
         <v>2.94</v>
       </c>
-      <c r="D313" s="51">
+      <c r="D313" s="49">
         <v>775</v>
       </c>
-      <c r="E313" s="51">
-        <f t="shared" si="5"/>
+      <c r="E313" s="49">
+        <f t="shared" si="6"/>
         <v>2278.5</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G313" s="66">
+        <v>2.94</v>
+      </c>
+      <c r="H313" s="67">
+        <v>775</v>
+      </c>
+      <c r="I313" s="67">
+        <f t="shared" si="7"/>
+        <v>2278.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="34">
         <v>313</v>
       </c>
       <c r="B314" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C314" s="50">
-        <v>0</v>
-      </c>
-      <c r="D314" s="51">
+      <c r="C314" s="48">
+        <v>0</v>
+      </c>
+      <c r="D314" s="49">
         <v>390</v>
       </c>
-      <c r="E314" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E314" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G314" s="66">
+        <v>0</v>
+      </c>
+      <c r="H314" s="67">
+        <v>390</v>
+      </c>
+      <c r="I314" s="67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="34">
         <v>314</v>
       </c>
       <c r="B315" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C315" s="50">
+      <c r="C315" s="48">
         <v>40.86</v>
       </c>
-      <c r="D315" s="51">
+      <c r="D315" s="49">
         <v>50</v>
       </c>
-      <c r="E315" s="51">
-        <f t="shared" si="5"/>
+      <c r="E315" s="49">
+        <f t="shared" si="6"/>
         <v>2043</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G315" s="66">
+        <v>40.86</v>
+      </c>
+      <c r="H315" s="67">
+        <v>50</v>
+      </c>
+      <c r="I315" s="67">
+        <f t="shared" si="7"/>
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="34">
         <v>315</v>
       </c>
       <c r="B316" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C316" s="50">
+      <c r="C316" s="48">
         <f>3.08+6</f>
         <v>9.08</v>
       </c>
-      <c r="D316" s="51">
+      <c r="D316" s="49">
         <v>64</v>
       </c>
-      <c r="E316" s="51">
-        <f t="shared" si="5"/>
+      <c r="E316" s="49">
+        <f t="shared" si="6"/>
         <v>581.12</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G316" s="66">
+        <f>3.08+6</f>
+        <v>9.08</v>
+      </c>
+      <c r="H316" s="67">
+        <v>64</v>
+      </c>
+      <c r="I316" s="67">
+        <f t="shared" si="7"/>
+        <v>581.12</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="34">
         <v>316</v>
       </c>
       <c r="B317" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C317" s="50">
+      <c r="C317" s="48">
         <f>1.66+4.52</f>
         <v>6.18</v>
       </c>
-      <c r="D317" s="51">
+      <c r="D317" s="49">
         <v>170</v>
       </c>
-      <c r="E317" s="51">
-        <f t="shared" si="5"/>
+      <c r="E317" s="49">
+        <f t="shared" si="6"/>
         <v>1050.5999999999999</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G317" s="66">
+        <f>1.66+4.52</f>
+        <v>6.18</v>
+      </c>
+      <c r="H317" s="67">
+        <v>170</v>
+      </c>
+      <c r="I317" s="67">
+        <f t="shared" si="7"/>
+        <v>1050.5999999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="34">
         <v>317</v>
       </c>
       <c r="B318" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C318" s="50">
-        <v>0</v>
-      </c>
-      <c r="D318" s="51">
+      <c r="C318" s="48">
+        <v>0</v>
+      </c>
+      <c r="D318" s="49">
         <v>44</v>
       </c>
-      <c r="E318" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E318" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G318" s="66">
+        <v>0</v>
+      </c>
+      <c r="H318" s="67">
+        <v>44</v>
+      </c>
+      <c r="I318" s="67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="34">
         <v>318</v>
       </c>
       <c r="B319" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C319" s="50">
+      <c r="C319" s="48">
         <f>2.85+1.56</f>
         <v>4.41</v>
       </c>
-      <c r="D319" s="51">
+      <c r="D319" s="49">
         <v>195</v>
       </c>
-      <c r="E319" s="51">
-        <f t="shared" si="5"/>
+      <c r="E319" s="49">
+        <f t="shared" si="6"/>
         <v>859.95</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G319" s="66">
+        <f>2.85+1.56</f>
+        <v>4.41</v>
+      </c>
+      <c r="H319" s="67">
+        <v>195</v>
+      </c>
+      <c r="I319" s="67">
+        <f t="shared" si="7"/>
+        <v>859.95</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="34">
         <v>319</v>
       </c>
       <c r="B320" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C320" s="50">
+      <c r="C320" s="48">
         <f>85+60+60+60</f>
         <v>265</v>
       </c>
-      <c r="D320" s="51">
+      <c r="D320" s="49">
         <v>5</v>
       </c>
-      <c r="E320" s="51">
-        <f t="shared" si="5"/>
+      <c r="E320" s="49">
+        <f t="shared" si="6"/>
         <v>1325</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G320" s="66">
+        <f>85+60+60+60</f>
+        <v>265</v>
+      </c>
+      <c r="H320" s="67">
+        <v>5</v>
+      </c>
+      <c r="I320" s="67">
+        <f t="shared" si="7"/>
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="34">
         <v>320</v>
       </c>
       <c r="B321" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C321" s="50">
+      <c r="C321" s="48">
         <f>1.814+1.814</f>
         <v>3.6280000000000001</v>
       </c>
-      <c r="D321" s="51">
+      <c r="D321" s="49">
         <v>242</v>
       </c>
-      <c r="E321" s="51">
-        <f t="shared" si="5"/>
+      <c r="E321" s="49">
+        <f t="shared" si="6"/>
         <v>877.976</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G321" s="66">
+        <f>1.814+1.814</f>
+        <v>3.6280000000000001</v>
+      </c>
+      <c r="H321" s="67">
+        <v>242</v>
+      </c>
+      <c r="I321" s="67">
+        <f t="shared" si="7"/>
+        <v>877.976</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="34">
         <v>321</v>
       </c>
       <c r="B322" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C322" s="50">
+      <c r="C322" s="48">
         <f>0.88+0.4+3.3</f>
         <v>4.58</v>
       </c>
-      <c r="D322" s="51">
+      <c r="D322" s="49">
         <v>290</v>
       </c>
-      <c r="E322" s="51">
-        <f t="shared" si="5"/>
+      <c r="E322" s="49">
+        <f t="shared" si="6"/>
         <v>1328.2</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G322" s="66">
+        <f>0.88+0.4+3.3</f>
+        <v>4.58</v>
+      </c>
+      <c r="H322" s="67">
+        <v>290</v>
+      </c>
+      <c r="I322" s="67">
+        <f t="shared" si="7"/>
+        <v>1328.2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="34">
         <v>322</v>
       </c>
       <c r="B323" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C323" s="50">
+      <c r="C323" s="48">
         <v>8</v>
       </c>
-      <c r="D323" s="51">
+      <c r="D323" s="49">
         <v>40</v>
       </c>
-      <c r="E323" s="51">
-        <f t="shared" si="5"/>
+      <c r="E323" s="49">
+        <f t="shared" si="6"/>
         <v>320</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G323" s="66">
+        <v>8</v>
+      </c>
+      <c r="H323" s="67">
+        <v>40</v>
+      </c>
+      <c r="I323" s="67">
+        <f t="shared" si="7"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="34">
         <v>323</v>
       </c>
       <c r="B324" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="C324" s="50">
+      <c r="C324" s="48">
         <v>6</v>
       </c>
-      <c r="D324" s="51">
+      <c r="D324" s="49">
         <v>70</v>
       </c>
-      <c r="E324" s="51">
-        <f t="shared" si="5"/>
+      <c r="E324" s="49">
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G324" s="66">
+        <v>6</v>
+      </c>
+      <c r="H324" s="67">
+        <v>70</v>
+      </c>
+      <c r="I324" s="67">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="34">
         <v>324</v>
       </c>
       <c r="B325" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C325" s="50">
+      <c r="C325" s="48">
         <f>4.66+4.74</f>
         <v>9.4</v>
       </c>
-      <c r="D325" s="51">
+      <c r="D325" s="49">
         <v>400</v>
       </c>
-      <c r="E325" s="51">
-        <f t="shared" si="5"/>
+      <c r="E325" s="49">
+        <f t="shared" si="6"/>
         <v>3760</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G325" s="66">
+        <f>4.66+4.74</f>
+        <v>9.4</v>
+      </c>
+      <c r="H325" s="67">
+        <v>400</v>
+      </c>
+      <c r="I325" s="67">
+        <f t="shared" si="7"/>
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="34">
         <v>325</v>
       </c>
       <c r="B326" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C326" s="50">
+      <c r="C326" s="48">
         <v>110</v>
       </c>
-      <c r="D326" s="51">
+      <c r="D326" s="49">
         <v>360</v>
       </c>
-      <c r="E326" s="51">
-        <f t="shared" si="5"/>
+      <c r="E326" s="49">
+        <f t="shared" si="6"/>
         <v>39600</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G326" s="66">
+        <v>110</v>
+      </c>
+      <c r="H326" s="67">
+        <v>360</v>
+      </c>
+      <c r="I326" s="67">
+        <f t="shared" si="7"/>
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="34">
         <v>326</v>
       </c>
       <c r="B327" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C327" s="50">
+      <c r="C327" s="48">
         <v>2.4</v>
       </c>
-      <c r="D327" s="51">
+      <c r="D327" s="49">
         <v>235</v>
       </c>
-      <c r="E327" s="51">
-        <f t="shared" si="5"/>
+      <c r="E327" s="49">
+        <f t="shared" si="6"/>
         <v>564</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G327" s="66">
+        <v>2.4</v>
+      </c>
+      <c r="H327" s="67">
+        <v>235</v>
+      </c>
+      <c r="I327" s="67">
+        <f t="shared" si="7"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="34">
         <v>327</v>
       </c>
       <c r="B328" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C328" s="50">
+      <c r="C328" s="48">
         <v>1279</v>
       </c>
-      <c r="D328" s="51">
+      <c r="D328" s="49">
         <v>114</v>
       </c>
-      <c r="E328" s="51">
-        <f t="shared" si="5"/>
+      <c r="E328" s="49">
+        <f t="shared" si="6"/>
         <v>145806</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G328" s="66">
+        <v>1279</v>
+      </c>
+      <c r="H328" s="67">
+        <v>114</v>
+      </c>
+      <c r="I328" s="67">
+        <f t="shared" si="7"/>
+        <v>145806</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="34">
         <v>328</v>
       </c>
       <c r="B329" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C329" s="50">
+      <c r="C329" s="48">
         <f>103.3+119.4+91.1+122.4+92.1</f>
         <v>528.29999999999995</v>
       </c>
-      <c r="D329" s="51">
+      <c r="D329" s="49">
         <v>116</v>
       </c>
-      <c r="E329" s="51">
-        <f t="shared" si="5"/>
+      <c r="E329" s="49">
+        <f t="shared" si="6"/>
         <v>61282.799999999996</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G329" s="66">
+        <f>103.3+119.4+91.1+122.4+92.1</f>
+        <v>528.29999999999995</v>
+      </c>
+      <c r="H329" s="67">
+        <v>116</v>
+      </c>
+      <c r="I329" s="67">
+        <f t="shared" si="7"/>
+        <v>61282.799999999996</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="34">
         <v>329</v>
       </c>
       <c r="B330" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C330" s="50">
+      <c r="C330" s="48">
         <f>8.3+40.9</f>
         <v>49.2</v>
       </c>
-      <c r="D330" s="51">
+      <c r="D330" s="49">
         <v>450</v>
       </c>
-      <c r="E330" s="51">
-        <f t="shared" ref="E330:E334" si="7">C330*D330</f>
+      <c r="E330" s="49">
+        <f t="shared" ref="E330:G334" si="8">C330*D330</f>
         <v>22140</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G330" s="66">
+        <f>8.3+40.9</f>
+        <v>49.2</v>
+      </c>
+      <c r="H330" s="67">
+        <v>450</v>
+      </c>
+      <c r="I330" s="67">
+        <f t="shared" si="7"/>
+        <v>22140</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="34">
         <v>330</v>
       </c>
       <c r="B331" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C331" s="50">
+      <c r="C331" s="48">
         <v>52.4</v>
       </c>
-      <c r="D331" s="51">
+      <c r="D331" s="49">
         <v>116</v>
       </c>
-      <c r="E331" s="51">
+      <c r="E331" s="49">
+        <f t="shared" si="8"/>
+        <v>6078.4</v>
+      </c>
+      <c r="G331" s="66">
+        <v>52.4</v>
+      </c>
+      <c r="H331" s="67">
+        <v>116</v>
+      </c>
+      <c r="I331" s="67">
         <f t="shared" si="7"/>
         <v>6078.4</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="34">
         <v>331</v>
       </c>
       <c r="B332" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C332" s="50">
+      <c r="C332" s="48">
         <f>94.5+2.8</f>
         <v>97.3</v>
       </c>
-      <c r="D332" s="51">
+      <c r="D332" s="49">
         <v>3</v>
       </c>
-      <c r="E332" s="51">
+      <c r="E332" s="49">
+        <f t="shared" si="8"/>
+        <v>291.89999999999998</v>
+      </c>
+      <c r="G332" s="66">
+        <f>94.5+2.8</f>
+        <v>97.3</v>
+      </c>
+      <c r="H332" s="67">
+        <v>3</v>
+      </c>
+      <c r="I332" s="67">
         <f t="shared" si="7"/>
         <v>291.89999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="34">
         <v>332</v>
       </c>
       <c r="B333" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C333" s="50">
+      <c r="C333" s="48">
         <v>136.9</v>
       </c>
-      <c r="D333" s="51">
+      <c r="D333" s="49">
         <v>110</v>
       </c>
-      <c r="E333" s="51">
+      <c r="E333" s="49">
+        <f t="shared" si="8"/>
+        <v>15059</v>
+      </c>
+      <c r="G333" s="66">
+        <v>136.9</v>
+      </c>
+      <c r="H333" s="67">
+        <v>110</v>
+      </c>
+      <c r="I333" s="67">
         <f t="shared" si="7"/>
         <v>15059</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="34">
         <v>333</v>
       </c>
       <c r="B334" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C334" s="50">
+      <c r="C334" s="48">
         <v>5.3</v>
       </c>
-      <c r="D334" s="51">
+      <c r="D334" s="49">
         <v>50</v>
       </c>
-      <c r="E334" s="51">
+      <c r="E334" s="49">
+        <f t="shared" si="8"/>
+        <v>265</v>
+      </c>
+      <c r="G334" s="66">
+        <v>5.3</v>
+      </c>
+      <c r="H334" s="67">
+        <v>50</v>
+      </c>
+      <c r="I334" s="67">
         <f t="shared" si="7"/>
         <v>265</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="26"/>
       <c r="B335" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C335" s="56">
+      <c r="C335" s="54">
         <f>SUM(C251:C284)</f>
         <v>1886.5729999999999</v>
       </c>
-      <c r="D335" s="57"/>
-      <c r="E335" s="57">
+      <c r="D335" s="55"/>
+      <c r="E335" s="55">
         <f>SUM(E310:E319)</f>
         <v>11873.170000000002</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E336" s="57"/>
-    </row>
-    <row r="337" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I335" s="61">
+        <f>SUM(I310:I334)</f>
+        <v>310991.44600000005</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E336" s="55"/>
+    </row>
+    <row r="337" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B337" s="3" t="s">
         <v>270</v>
       </c>
@@ -13794,41 +14574,54 @@
         <f>C335+C308+C223+C179+C89+C44</f>
         <v>24372.597999999998</v>
       </c>
-      <c r="D337" s="58" t="s">
+      <c r="D337" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="E337" s="57">
+      <c r="E337" s="55">
         <f>E335+E308+E263+E223+E134+E44</f>
         <v>951437.90000000014</v>
       </c>
-      <c r="G337" s="61"/>
-      <c r="H337" s="61"/>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G337" s="68">
+        <f>E308+E223+E179+E134+E89+E44+I335+I263</f>
+        <v>2112071.9179999996</v>
+      </c>
+      <c r="H337" s="69"/>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G338" s="70" t="s">
+        <v>329</v>
+      </c>
+      <c r="H338" s="71"/>
+    </row>
+    <row r="339" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="8">
         <v>289</v>
       </c>
       <c r="B339" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C339" s="50">
+      <c r="C339" s="48">
         <v>684</v>
       </c>
-      <c r="D339" s="50">
+      <c r="D339" s="48">
         <v>1E-3</v>
       </c>
-      <c r="E339" s="50">
-        <f t="shared" ref="E339" si="8">C339*D339</f>
+      <c r="E339" s="48">
+        <f t="shared" ref="E339" si="9">C339*D339</f>
         <v>0.68400000000000005</v>
       </c>
+      <c r="G339" s="72"/>
+      <c r="H339" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="G337:H337"/>
+    <mergeCell ref="G338:H339"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>